--- a/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>IFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,85 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>14700</v>
+        <v>8100</v>
       </c>
       <c r="E12" s="3">
-        <v>22200</v>
+        <v>12200</v>
       </c>
       <c r="F12" s="3">
-        <v>8400</v>
+        <v>14800</v>
       </c>
       <c r="G12" s="3">
+        <v>22400</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I12" s="3">
         <v>10000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>5500</v>
       </c>
       <c r="J12" s="3">
         <v>6000</v>
       </c>
       <c r="K12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M12" s="3">
         <v>7100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>2800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>6200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1075,14 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1150,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>17300</v>
+        <v>10800</v>
       </c>
       <c r="E17" s="3">
-        <v>29800</v>
+        <v>15300</v>
       </c>
       <c r="F17" s="3">
-        <v>12000</v>
+        <v>17500</v>
       </c>
       <c r="G17" s="3">
-        <v>13800</v>
+        <v>30100</v>
       </c>
       <c r="H17" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J17" s="3">
         <v>9300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>10600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-29800</v>
+        <v>-15300</v>
       </c>
       <c r="F18" s="3">
-        <v>-12000</v>
+        <v>-17500</v>
       </c>
       <c r="G18" s="3">
-        <v>-13800</v>
+        <v>-30100</v>
       </c>
       <c r="H18" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="J18" s="3">
         <v>-9300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-8900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-9200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-10600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-8100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,46 +1288,52 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>2200</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>6300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,46 +1341,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-27100</v>
+        <v>-14900</v>
       </c>
       <c r="F21" s="3">
-        <v>-10700</v>
+        <v>-16000</v>
       </c>
       <c r="G21" s="3">
-        <v>-11200</v>
+        <v>-27300</v>
       </c>
       <c r="H21" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-7400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-11300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-13100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-4500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-5200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-4400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-10500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1432,67 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-15900</v>
+        <v>-9100</v>
       </c>
       <c r="E23" s="3">
-        <v>-27600</v>
+        <v>-15100</v>
       </c>
       <c r="F23" s="3">
-        <v>-10800</v>
+        <v>-16100</v>
       </c>
       <c r="G23" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L23" s="3">
         <v>-11300</v>
       </c>
-      <c r="H23" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-13100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-5200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-10500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-15900</v>
+        <v>-9100</v>
       </c>
       <c r="E26" s="3">
-        <v>-27600</v>
+        <v>-15100</v>
       </c>
       <c r="F26" s="3">
-        <v>-10800</v>
+        <v>-16100</v>
       </c>
       <c r="G26" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L26" s="3">
         <v>-11300</v>
       </c>
-      <c r="H26" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-13100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-5200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-10500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-15900</v>
+        <v>-9100</v>
       </c>
       <c r="E27" s="3">
-        <v>-27600</v>
+        <v>-15100</v>
       </c>
       <c r="F27" s="3">
-        <v>-10800</v>
+        <v>-16100</v>
       </c>
       <c r="G27" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L27" s="3">
         <v>-11300</v>
       </c>
-      <c r="H27" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-13100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-5200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-10500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,93 +1924,105 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-2200</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-6300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-15900</v>
+        <v>-9100</v>
       </c>
       <c r="E33" s="3">
-        <v>-27600</v>
+        <v>-15100</v>
       </c>
       <c r="F33" s="3">
-        <v>-10800</v>
+        <v>-16100</v>
       </c>
       <c r="G33" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L33" s="3">
         <v>-11300</v>
       </c>
-      <c r="H33" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-13100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-5200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-4500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-10500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-15900</v>
+        <v>-9100</v>
       </c>
       <c r="E35" s="3">
-        <v>-27600</v>
+        <v>-15100</v>
       </c>
       <c r="F35" s="3">
-        <v>-10800</v>
+        <v>-16100</v>
       </c>
       <c r="G35" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L35" s="3">
         <v>-11300</v>
       </c>
-      <c r="H35" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-13100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-5200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-4500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-10500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,78 +2225,86 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>36700</v>
+      </c>
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="E41" s="3">
-        <v>59400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>6500</v>
-      </c>
       <c r="G41" s="3">
-        <v>24700</v>
+        <v>59900</v>
       </c>
       <c r="H41" s="3">
-        <v>61900</v>
+        <v>6600</v>
       </c>
       <c r="I41" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J41" s="3">
+        <v>62400</v>
+      </c>
+      <c r="K41" s="3">
         <v>171400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>126500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>138300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>24800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>28400</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24800</v>
+        <v>117600</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="3">
-        <v>45300</v>
-      </c>
-      <c r="G42" s="3">
-        <v>36100</v>
+        <v>25000</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H42" s="3">
-        <v>59400</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
+        <v>45700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>36500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>60000</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
@@ -2136,11 +2315,11 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2148,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2380,14 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,102 +2433,120 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>122600</v>
+        <v>3700</v>
       </c>
       <c r="E45" s="3">
-        <v>97100</v>
+        <v>95100</v>
       </c>
       <c r="F45" s="3">
-        <v>116200</v>
+        <v>123700</v>
       </c>
       <c r="G45" s="3">
-        <v>112800</v>
+        <v>98000</v>
       </c>
       <c r="H45" s="3">
+        <v>117200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>113800</v>
+      </c>
+      <c r="J45" s="3">
         <v>1800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>9800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>1900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>1200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>152300</v>
+        <v>123000</v>
       </c>
       <c r="E46" s="3">
-        <v>156500</v>
+        <v>131800</v>
       </c>
       <c r="F46" s="3">
-        <v>168000</v>
+        <v>153600</v>
       </c>
       <c r="G46" s="3">
-        <v>173700</v>
+        <v>157900</v>
       </c>
       <c r="H46" s="3">
-        <v>123100</v>
+        <v>169500</v>
       </c>
       <c r="I46" s="3">
+        <v>175200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>124200</v>
+      </c>
+      <c r="K46" s="3">
         <v>181200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>127300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>139100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>26700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>29600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2348,34 +2557,34 @@
         <v>300</v>
       </c>
       <c r="F47" s="3">
+        <v>300</v>
+      </c>
+      <c r="G47" s="3">
+        <v>300</v>
+      </c>
+      <c r="H47" s="3">
         <v>200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>200</v>
       </c>
-      <c r="H47" s="3">
-        <v>56900</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
@@ -2383,55 +2592,67 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1700</v>
+        <v>1400</v>
       </c>
       <c r="E48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2442,34 +2663,34 @@
         <v>500</v>
       </c>
       <c r="F49" s="3">
+        <v>500</v>
+      </c>
+      <c r="G49" s="3">
+        <v>500</v>
+      </c>
+      <c r="H49" s="3">
         <v>400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>4</v>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,34 +2804,40 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2606,11 +2845,11 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>155400</v>
+        <v>125700</v>
       </c>
       <c r="E54" s="3">
-        <v>159100</v>
+        <v>134700</v>
       </c>
       <c r="F54" s="3">
-        <v>170100</v>
+        <v>156800</v>
       </c>
       <c r="G54" s="3">
-        <v>174800</v>
+        <v>160500</v>
       </c>
       <c r="H54" s="3">
-        <v>180800</v>
+        <v>171600</v>
       </c>
       <c r="I54" s="3">
+        <v>176300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>182300</v>
+      </c>
+      <c r="K54" s="3">
         <v>181800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>127600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>139400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>26900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>29800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,84 +3009,92 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>18200</v>
+        <v>11600</v>
       </c>
       <c r="E57" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="F57" s="3">
-        <v>7700</v>
+        <v>18300</v>
       </c>
       <c r="G57" s="3">
-        <v>7300</v>
+        <v>13500</v>
       </c>
       <c r="H57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2844,120 +3111,138 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19500</v>
+        <v>13000</v>
       </c>
       <c r="E60" s="3">
-        <v>14700</v>
+        <v>15600</v>
       </c>
       <c r="F60" s="3">
-        <v>9300</v>
+        <v>19700</v>
       </c>
       <c r="G60" s="3">
-        <v>8500</v>
+        <v>14800</v>
       </c>
       <c r="H60" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J60" s="3">
         <v>6600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
         <v>600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2968,33 +3253,39 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>64400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>63500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
@@ -3009,10 +3300,10 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3020,11 +3311,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20200</v>
+        <v>13300</v>
       </c>
       <c r="E66" s="3">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="F66" s="3">
-        <v>9900</v>
+        <v>20300</v>
       </c>
       <c r="G66" s="3">
-        <v>8600</v>
+        <v>15600</v>
       </c>
       <c r="H66" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>67500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>66500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-106200</v>
+        <v>-129000</v>
       </c>
       <c r="E72" s="3">
-        <v>-92200</v>
+        <v>-121000</v>
       </c>
       <c r="F72" s="3">
-        <v>-77400</v>
+        <v>-107100</v>
       </c>
       <c r="G72" s="3">
-        <v>-69000</v>
+        <v>-93100</v>
       </c>
       <c r="H72" s="3">
-        <v>170700</v>
+        <v>-78100</v>
       </c>
       <c r="I72" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>172100</v>
+      </c>
+      <c r="K72" s="3">
         <v>174200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>119900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>130800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-40200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-36300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>135200</v>
+        <v>112500</v>
       </c>
       <c r="E76" s="3">
-        <v>143700</v>
+        <v>118700</v>
       </c>
       <c r="F76" s="3">
-        <v>160300</v>
+        <v>136400</v>
       </c>
       <c r="G76" s="3">
-        <v>166200</v>
+        <v>144900</v>
       </c>
       <c r="H76" s="3">
-        <v>174100</v>
+        <v>161700</v>
       </c>
       <c r="I76" s="3">
+        <v>167700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>175600</v>
+      </c>
+      <c r="K76" s="3">
         <v>177600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>123000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>134000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-40600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-36700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-15900</v>
+        <v>-9100</v>
       </c>
       <c r="E81" s="3">
-        <v>-27600</v>
+        <v>-15100</v>
       </c>
       <c r="F81" s="3">
-        <v>-10800</v>
+        <v>-16100</v>
       </c>
       <c r="G81" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="L81" s="3">
         <v>-11300</v>
       </c>
-      <c r="H81" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-13100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-5200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-4500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-10500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,31 +4222,33 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3871,11 +4268,17 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
-        <v>-29900</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-9300</v>
-      </c>
       <c r="G89" s="3">
-        <v>-9300</v>
+        <v>-30200</v>
       </c>
       <c r="H89" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-4500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-5900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-6300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-3600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-5900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4614,63 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4769,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21600</v>
+        <v>-3000</v>
       </c>
       <c r="E94" s="3">
-        <v>18500</v>
+        <v>25700</v>
       </c>
       <c r="F94" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="G94" s="3">
+        <v>18700</v>
+      </c>
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-106500</v>
-      </c>
       <c r="I94" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-107500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,88 +5055,100 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>54000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>120400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>36200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>36300</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F101" s="3">
+        <v>800</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>700</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>5800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-2600</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -4661,54 +5158,66 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-20700</v>
+        <v>-13300</v>
       </c>
       <c r="E102" s="3">
-        <v>-10500</v>
+        <v>6800</v>
       </c>
       <c r="F102" s="3">
-        <v>-9000</v>
+        <v>-20900</v>
       </c>
       <c r="G102" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
-        <v>-109500</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>-110400</v>
+      </c>
+      <c r="K102" s="3">
         <v>44800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-8800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>113500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>30300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>34700</v>
       </c>
-      <c r="Q102" s="3" t="s">
+      <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>IFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>8100</v>
+        <v>8700</v>
       </c>
       <c r="E12" s="3">
-        <v>12200</v>
+        <v>8600</v>
       </c>
       <c r="F12" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="H12" s="3">
         <v>14800</v>
       </c>
-      <c r="G12" s="3">
-        <v>22400</v>
-      </c>
-      <c r="H12" s="3">
-        <v>8500</v>
-      </c>
       <c r="I12" s="3">
-        <v>10000</v>
+        <v>9100</v>
       </c>
       <c r="J12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10800</v>
+        <v>11300</v>
       </c>
       <c r="E17" s="3">
-        <v>15300</v>
+        <v>11600</v>
       </c>
       <c r="F17" s="3">
-        <v>17500</v>
+        <v>16400</v>
       </c>
       <c r="G17" s="3">
-        <v>30100</v>
+        <v>18700</v>
       </c>
       <c r="H17" s="3">
-        <v>12100</v>
+        <v>19200</v>
       </c>
       <c r="I17" s="3">
-        <v>13900</v>
+        <v>12900</v>
       </c>
       <c r="J17" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K17" s="3">
         <v>9300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-15300</v>
+        <v>-11600</v>
       </c>
       <c r="F18" s="3">
-        <v>-17500</v>
+        <v>-16400</v>
       </c>
       <c r="G18" s="3">
-        <v>-30100</v>
+        <v>-18700</v>
       </c>
       <c r="H18" s="3">
-        <v>-12100</v>
+        <v>-19200</v>
       </c>
       <c r="I18" s="3">
-        <v>-13900</v>
+        <v>-12900</v>
       </c>
       <c r="J18" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-9300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,52 +1322,55 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>1400</v>
-      </c>
       <c r="G20" s="3">
-        <v>2300</v>
+        <v>1500</v>
       </c>
       <c r="H20" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I20" s="3">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="J20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-900</v>
       </c>
       <c r="O20" s="3">
         <v>-900</v>
       </c>
       <c r="P20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-14900</v>
+        <v>-9500</v>
       </c>
       <c r="F21" s="3">
-        <v>-16000</v>
+        <v>-15900</v>
       </c>
       <c r="G21" s="3">
-        <v>-27300</v>
+        <v>-16900</v>
       </c>
       <c r="H21" s="3">
-        <v>-10800</v>
+        <v>-17800</v>
       </c>
       <c r="I21" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="M21" s="3">
         <v>-11300</v>
       </c>
-      <c r="J21" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-13100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9100</v>
+        <v>-11900</v>
       </c>
       <c r="E23" s="3">
-        <v>-15100</v>
+        <v>-9700</v>
       </c>
       <c r="F23" s="3">
         <v>-16100</v>
       </c>
       <c r="G23" s="3">
-        <v>-27800</v>
+        <v>-17200</v>
       </c>
       <c r="H23" s="3">
-        <v>-10900</v>
+        <v>-18100</v>
       </c>
       <c r="I23" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="J23" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9100</v>
+        <v>-11900</v>
       </c>
       <c r="E26" s="3">
-        <v>-15100</v>
+        <v>-9700</v>
       </c>
       <c r="F26" s="3">
         <v>-16100</v>
       </c>
       <c r="G26" s="3">
-        <v>-27800</v>
+        <v>-17200</v>
       </c>
       <c r="H26" s="3">
-        <v>-10900</v>
+        <v>-18100</v>
       </c>
       <c r="I26" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="J26" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-9100</v>
+        <v>-11900</v>
       </c>
       <c r="E27" s="3">
-        <v>-15100</v>
+        <v>-9700</v>
       </c>
       <c r="F27" s="3">
         <v>-16100</v>
       </c>
       <c r="G27" s="3">
-        <v>-27800</v>
+        <v>-17200</v>
       </c>
       <c r="H27" s="3">
-        <v>-10900</v>
+        <v>-18100</v>
       </c>
       <c r="I27" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="J27" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,105 +1994,111 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1400</v>
-      </c>
       <c r="G32" s="3">
-        <v>-2300</v>
+        <v>-1500</v>
       </c>
       <c r="H32" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I32" s="3">
-        <v>-2500</v>
+        <v>-1300</v>
       </c>
       <c r="J32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2600</v>
-      </c>
-      <c r="N32" s="3">
-        <v>900</v>
       </c>
       <c r="O32" s="3">
         <v>900</v>
       </c>
       <c r="P32" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-9100</v>
+        <v>-11900</v>
       </c>
       <c r="E33" s="3">
-        <v>-15100</v>
+        <v>-9700</v>
       </c>
       <c r="F33" s="3">
         <v>-16100</v>
       </c>
       <c r="G33" s="3">
-        <v>-27800</v>
+        <v>-17200</v>
       </c>
       <c r="H33" s="3">
-        <v>-10900</v>
+        <v>-18100</v>
       </c>
       <c r="I33" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="J33" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-9100</v>
+        <v>-11900</v>
       </c>
       <c r="E35" s="3">
-        <v>-15100</v>
+        <v>-9700</v>
       </c>
       <c r="F35" s="3">
         <v>-16100</v>
       </c>
       <c r="G35" s="3">
-        <v>-27800</v>
+        <v>-17200</v>
       </c>
       <c r="H35" s="3">
-        <v>-10900</v>
+        <v>-18100</v>
       </c>
       <c r="I35" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="J35" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,50 +2313,51 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1700</v>
+        <v>43100</v>
       </c>
       <c r="E41" s="3">
-        <v>36700</v>
+        <v>1800</v>
       </c>
       <c r="F41" s="3">
-        <v>4900</v>
+        <v>39200</v>
       </c>
       <c r="G41" s="3">
-        <v>59900</v>
+        <v>5200</v>
       </c>
       <c r="H41" s="3">
-        <v>6600</v>
+        <v>64000</v>
       </c>
       <c r="I41" s="3">
-        <v>24900</v>
+        <v>7000</v>
       </c>
       <c r="J41" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K41" s="3">
         <v>62400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>171400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>126500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>138300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>24800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>28400</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2280,35 +2367,38 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>117600</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3">
-        <v>25000</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" s="3">
-        <v>45700</v>
+        <v>73600</v>
+      </c>
+      <c r="E42" s="3">
+        <v>125600</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
+        <v>26700</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I42" s="3">
-        <v>36500</v>
+        <v>48800</v>
       </c>
       <c r="J42" s="3">
+        <v>38900</v>
+      </c>
+      <c r="K42" s="3">
         <v>60000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2321,8 +2411,8 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,50 +2535,53 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E45" s="3">
-        <v>95100</v>
+        <v>3900</v>
       </c>
       <c r="F45" s="3">
-        <v>123700</v>
+        <v>101600</v>
       </c>
       <c r="G45" s="3">
-        <v>98000</v>
+        <v>132100</v>
       </c>
       <c r="H45" s="3">
-        <v>117200</v>
+        <v>104700</v>
       </c>
       <c r="I45" s="3">
-        <v>113800</v>
+        <v>125200</v>
       </c>
       <c r="J45" s="3">
+        <v>121600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2492,50 +2591,53 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>123000</v>
+        <v>120100</v>
       </c>
       <c r="E46" s="3">
-        <v>131800</v>
+        <v>131400</v>
       </c>
       <c r="F46" s="3">
-        <v>153600</v>
+        <v>140700</v>
       </c>
       <c r="G46" s="3">
-        <v>157900</v>
+        <v>164000</v>
       </c>
       <c r="H46" s="3">
-        <v>169500</v>
+        <v>168600</v>
       </c>
       <c r="I46" s="3">
-        <v>175200</v>
+        <v>181000</v>
       </c>
       <c r="J46" s="3">
+        <v>187100</v>
+      </c>
+      <c r="K46" s="3">
         <v>124200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>181200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>127300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>139100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>29600</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2563,31 +2668,31 @@
         <v>300</v>
       </c>
       <c r="H47" s="3">
+        <v>300</v>
+      </c>
+      <c r="I47" s="3">
+        <v>300</v>
+      </c>
+      <c r="J47" s="3">
         <v>200</v>
       </c>
-      <c r="I47" s="3">
-        <v>200</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>57400</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2607,41 +2715,41 @@
         <v>1400</v>
       </c>
       <c r="E48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G48" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H48" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="I48" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
       </c>
       <c r="K48" s="3">
+        <v>700</v>
+      </c>
+      <c r="L48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>300</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
       <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2666,23 +2777,23 @@
         <v>500</v>
       </c>
       <c r="G49" s="3">
+        <v>600</v>
+      </c>
+      <c r="H49" s="3">
         <v>500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>400</v>
       </c>
-      <c r="I49" s="3">
-        <v>200</v>
-      </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
@@ -2692,8 +2803,8 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2822,25 +2942,25 @@
         <v>500</v>
       </c>
       <c r="F52" s="3">
+        <v>500</v>
+      </c>
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2851,8 +2971,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,50 +3039,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>125700</v>
+        <v>122900</v>
       </c>
       <c r="E54" s="3">
-        <v>134700</v>
+        <v>134300</v>
       </c>
       <c r="F54" s="3">
-        <v>156800</v>
+        <v>143800</v>
       </c>
       <c r="G54" s="3">
-        <v>160500</v>
+        <v>167400</v>
       </c>
       <c r="H54" s="3">
-        <v>171600</v>
+        <v>171400</v>
       </c>
       <c r="I54" s="3">
-        <v>176300</v>
+        <v>183300</v>
       </c>
       <c r="J54" s="3">
+        <v>188300</v>
+      </c>
+      <c r="K54" s="3">
         <v>182300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>181800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>127600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>139400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>26900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>29800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,49 +3141,50 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11600</v>
+        <v>12600</v>
       </c>
       <c r="E57" s="3">
-        <v>13700</v>
+        <v>12400</v>
       </c>
       <c r="F57" s="3">
-        <v>18300</v>
+        <v>14700</v>
       </c>
       <c r="G57" s="3">
-        <v>13500</v>
+        <v>19600</v>
       </c>
       <c r="H57" s="3">
-        <v>7800</v>
+        <v>14400</v>
       </c>
       <c r="I57" s="3">
-        <v>7400</v>
+        <v>8300</v>
       </c>
       <c r="J57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5000</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2800</v>
       </c>
       <c r="O57" s="3">
         <v>2800</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
+      <c r="P57" s="3">
+        <v>2800</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
@@ -3064,28 +3195,31 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>600</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
       </c>
       <c r="F58" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>400</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>300</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
@@ -3096,8 +3230,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3117,49 +3251,52 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
-        <v>5100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
+      <c r="P59" s="3">
+        <v>200</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
@@ -3170,49 +3307,52 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13000</v>
+        <v>14800</v>
       </c>
       <c r="E60" s="3">
-        <v>15600</v>
+        <v>13900</v>
       </c>
       <c r="F60" s="3">
-        <v>19700</v>
+        <v>16600</v>
       </c>
       <c r="G60" s="3">
-        <v>14800</v>
+        <v>21000</v>
       </c>
       <c r="H60" s="3">
-        <v>9400</v>
+        <v>15800</v>
       </c>
       <c r="I60" s="3">
-        <v>8600</v>
+        <v>10000</v>
       </c>
       <c r="J60" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K60" s="3">
         <v>6600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>3000</v>
       </c>
       <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
+      <c r="P60" s="3">
+        <v>3000</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
@@ -3223,29 +3363,32 @@
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>600</v>
       </c>
       <c r="G61" s="3">
         <v>700</v>
       </c>
       <c r="H61" s="3">
+        <v>800</v>
+      </c>
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3259,14 +3402,14 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>64400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>63500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3276,19 +3419,22 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>300</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
@@ -3306,7 +3452,7 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3317,8 +3463,8 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>0</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,50 +3643,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13300</v>
+        <v>15100</v>
       </c>
       <c r="E66" s="3">
-        <v>16000</v>
+        <v>14200</v>
       </c>
       <c r="F66" s="3">
-        <v>20300</v>
+        <v>17100</v>
       </c>
       <c r="G66" s="3">
-        <v>15600</v>
+        <v>21700</v>
       </c>
       <c r="H66" s="3">
-        <v>10000</v>
+        <v>16600</v>
       </c>
       <c r="I66" s="3">
-        <v>8700</v>
+        <v>10600</v>
       </c>
       <c r="J66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>67500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>66500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,50 +3945,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-129000</v>
+        <v>-149000</v>
       </c>
       <c r="E72" s="3">
-        <v>-121000</v>
+        <v>-137800</v>
       </c>
       <c r="F72" s="3">
-        <v>-107100</v>
+        <v>-129200</v>
       </c>
       <c r="G72" s="3">
-        <v>-93100</v>
+        <v>-114400</v>
       </c>
       <c r="H72" s="3">
-        <v>-78100</v>
+        <v>-99400</v>
       </c>
       <c r="I72" s="3">
-        <v>-69600</v>
+        <v>-83400</v>
       </c>
       <c r="J72" s="3">
+        <v>-74300</v>
+      </c>
+      <c r="K72" s="3">
         <v>172100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>174200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>119900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>130800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-40200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-36300</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,50 +4169,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>112500</v>
+        <v>107800</v>
       </c>
       <c r="E76" s="3">
-        <v>118700</v>
+        <v>120100</v>
       </c>
       <c r="F76" s="3">
-        <v>136400</v>
+        <v>126700</v>
       </c>
       <c r="G76" s="3">
-        <v>144900</v>
+        <v>145700</v>
       </c>
       <c r="H76" s="3">
-        <v>161700</v>
+        <v>154800</v>
       </c>
       <c r="I76" s="3">
-        <v>167700</v>
+        <v>172700</v>
       </c>
       <c r="J76" s="3">
+        <v>179100</v>
+      </c>
+      <c r="K76" s="3">
         <v>175600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>177600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>123000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>134000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-40600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-36700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-9100</v>
+        <v>-11900</v>
       </c>
       <c r="E81" s="3">
-        <v>-15100</v>
+        <v>-9700</v>
       </c>
       <c r="F81" s="3">
         <v>-16100</v>
       </c>
       <c r="G81" s="3">
-        <v>-27800</v>
+        <v>-17200</v>
       </c>
       <c r="H81" s="3">
-        <v>-10900</v>
+        <v>-18100</v>
       </c>
       <c r="I81" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="J81" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,13 +4435,13 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>500</v>
-      </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -4251,7 +4450,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4274,11 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11700</v>
+        <v>-9100</v>
       </c>
       <c r="E89" s="3">
-        <v>-18000</v>
+        <v>-12400</v>
       </c>
       <c r="F89" s="3">
-        <v>300</v>
+        <v>-19200</v>
       </c>
       <c r="G89" s="3">
-        <v>-30200</v>
+        <v>-9800</v>
       </c>
       <c r="H89" s="3">
-        <v>-9400</v>
+        <v>-12100</v>
       </c>
       <c r="I89" s="3">
-        <v>-9400</v>
+        <v>-10100</v>
       </c>
       <c r="J89" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4628,10 +4849,10 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-800</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
@@ -4640,13 +4861,13 @@
         <v>-300</v>
       </c>
       <c r="J91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
@@ -4655,22 +4876,25 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,37 +5002,40 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>25700</v>
+        <v>-3200</v>
       </c>
       <c r="F94" s="3">
-        <v>-21800</v>
+        <v>27400</v>
       </c>
       <c r="G94" s="3">
-        <v>18700</v>
+        <v>-23600</v>
       </c>
       <c r="H94" s="3">
+        <v>20600</v>
+      </c>
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3">
-        <v>6600</v>
-      </c>
       <c r="J94" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-107500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
@@ -4814,22 +5044,25 @@
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,97 +5304,103 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>54000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>120400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>36200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>36300</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1400</v>
+        <v>-400</v>
       </c>
       <c r="E101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
-        <v>1100</v>
-      </c>
       <c r="H101" s="3">
+        <v>500</v>
+      </c>
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
-        <v>1700</v>
-      </c>
       <c r="J101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K101" s="3">
         <v>1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2600</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5164,60 +5413,66 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13300</v>
+        <v>-9000</v>
       </c>
       <c r="E102" s="3">
-        <v>6800</v>
+        <v>-14300</v>
       </c>
       <c r="F102" s="3">
-        <v>-20900</v>
+        <v>7200</v>
       </c>
       <c r="G102" s="3">
-        <v>-10600</v>
+        <v>-32000</v>
       </c>
       <c r="H102" s="3">
-        <v>-9100</v>
+        <v>8200</v>
       </c>
       <c r="I102" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-110400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>44800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>113500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>30300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>34700</v>
       </c>
-      <c r="S102" s="3" t="s">
+      <c r="T102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>IFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E12" s="3">
+        <v>8800</v>
+      </c>
+      <c r="F12" s="3">
         <v>8700</v>
       </c>
-      <c r="E12" s="3">
-        <v>8600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>13000</v>
-      </c>
       <c r="G12" s="3">
-        <v>15900</v>
+        <v>13100</v>
       </c>
       <c r="H12" s="3">
-        <v>14800</v>
+        <v>16000</v>
       </c>
       <c r="I12" s="3">
-        <v>9100</v>
+        <v>24200</v>
       </c>
       <c r="J12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K12" s="3">
         <v>10700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1205,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11300</v>
+        <v>7700</v>
       </c>
       <c r="E17" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="F17" s="3">
-        <v>16400</v>
+        <v>11700</v>
       </c>
       <c r="G17" s="3">
-        <v>18700</v>
+        <v>16600</v>
       </c>
       <c r="H17" s="3">
-        <v>19200</v>
+        <v>18900</v>
       </c>
       <c r="I17" s="3">
-        <v>12900</v>
+        <v>32500</v>
       </c>
       <c r="J17" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K17" s="3">
         <v>14800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>10600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1274,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-11600</v>
+        <v>-11500</v>
       </c>
       <c r="F18" s="3">
-        <v>-16400</v>
+        <v>-11700</v>
       </c>
       <c r="G18" s="3">
-        <v>-18700</v>
+        <v>-16600</v>
       </c>
       <c r="H18" s="3">
-        <v>-19200</v>
+        <v>-18900</v>
       </c>
       <c r="I18" s="3">
-        <v>-12900</v>
+        <v>-32500</v>
       </c>
       <c r="J18" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-14800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-9300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,55 +1356,58 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
-        <v>1100</v>
-      </c>
       <c r="I20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-900</v>
       </c>
       <c r="P20" s="3">
         <v>-900</v>
       </c>
       <c r="Q20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,66 +1415,69 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-9500</v>
+        <v>-11800</v>
       </c>
       <c r="F21" s="3">
-        <v>-15900</v>
+        <v>-9600</v>
       </c>
       <c r="G21" s="3">
-        <v>-16900</v>
+        <v>-16100</v>
       </c>
       <c r="H21" s="3">
-        <v>-17800</v>
+        <v>-17300</v>
       </c>
       <c r="I21" s="3">
-        <v>-11500</v>
+        <v>-29500</v>
       </c>
       <c r="J21" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-12100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-13100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-10500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2500</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11900</v>
+        <v>-8200</v>
       </c>
       <c r="E23" s="3">
-        <v>-9700</v>
+        <v>-12000</v>
       </c>
       <c r="F23" s="3">
-        <v>-16100</v>
+        <v>-9800</v>
       </c>
       <c r="G23" s="3">
-        <v>-17200</v>
+        <v>-16300</v>
       </c>
       <c r="H23" s="3">
-        <v>-18100</v>
+        <v>-17300</v>
       </c>
       <c r="I23" s="3">
-        <v>-11600</v>
+        <v>-30000</v>
       </c>
       <c r="J23" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-12200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11900</v>
+        <v>-8200</v>
       </c>
       <c r="E26" s="3">
-        <v>-9700</v>
+        <v>-12000</v>
       </c>
       <c r="F26" s="3">
-        <v>-16100</v>
+        <v>-9800</v>
       </c>
       <c r="G26" s="3">
-        <v>-17200</v>
+        <v>-16300</v>
       </c>
       <c r="H26" s="3">
-        <v>-18100</v>
+        <v>-17300</v>
       </c>
       <c r="I26" s="3">
-        <v>-11600</v>
+        <v>-30000</v>
       </c>
       <c r="J26" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-12200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11900</v>
+        <v>-8200</v>
       </c>
       <c r="E27" s="3">
-        <v>-9700</v>
+        <v>-12000</v>
       </c>
       <c r="F27" s="3">
-        <v>-16100</v>
+        <v>-9800</v>
       </c>
       <c r="G27" s="3">
-        <v>-17200</v>
+        <v>-16300</v>
       </c>
       <c r="H27" s="3">
-        <v>-18100</v>
+        <v>-17300</v>
       </c>
       <c r="I27" s="3">
-        <v>-11600</v>
+        <v>-30000</v>
       </c>
       <c r="J27" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-12200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,111 +2064,117 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1100</v>
-      </c>
       <c r="I32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2600</v>
-      </c>
-      <c r="O32" s="3">
-        <v>900</v>
       </c>
       <c r="P32" s="3">
         <v>900</v>
       </c>
       <c r="Q32" s="3">
+        <v>900</v>
+      </c>
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11900</v>
+        <v>-8200</v>
       </c>
       <c r="E33" s="3">
-        <v>-9700</v>
+        <v>-12000</v>
       </c>
       <c r="F33" s="3">
-        <v>-16100</v>
+        <v>-9800</v>
       </c>
       <c r="G33" s="3">
-        <v>-17200</v>
+        <v>-16300</v>
       </c>
       <c r="H33" s="3">
-        <v>-18100</v>
+        <v>-17300</v>
       </c>
       <c r="I33" s="3">
-        <v>-11600</v>
+        <v>-30000</v>
       </c>
       <c r="J33" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-12200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11900</v>
+        <v>-8200</v>
       </c>
       <c r="E35" s="3">
-        <v>-9700</v>
+        <v>-12000</v>
       </c>
       <c r="F35" s="3">
-        <v>-16100</v>
+        <v>-9800</v>
       </c>
       <c r="G35" s="3">
-        <v>-17200</v>
+        <v>-16300</v>
       </c>
       <c r="H35" s="3">
-        <v>-18100</v>
+        <v>-17300</v>
       </c>
       <c r="I35" s="3">
-        <v>-11600</v>
+        <v>-30000</v>
       </c>
       <c r="J35" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-12200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,53 +2400,54 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>43100</v>
+        <v>53200</v>
       </c>
       <c r="E41" s="3">
-        <v>1800</v>
+        <v>4800</v>
       </c>
       <c r="F41" s="3">
-        <v>39200</v>
+        <v>1900</v>
       </c>
       <c r="G41" s="3">
-        <v>5200</v>
+        <v>6400</v>
       </c>
       <c r="H41" s="3">
-        <v>64000</v>
+        <v>5300</v>
       </c>
       <c r="I41" s="3">
-        <v>7000</v>
+        <v>64700</v>
       </c>
       <c r="J41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K41" s="3">
         <v>26600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>62400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>171400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>126500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>138300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>24800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>28400</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2370,38 +2457,41 @@
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>73600</v>
+        <v>60900</v>
       </c>
       <c r="E42" s="3">
-        <v>125600</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
+        <v>113200</v>
+      </c>
+      <c r="F42" s="3">
+        <v>127100</v>
       </c>
       <c r="G42" s="3">
-        <v>26700</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3">
-        <v>48800</v>
+        <v>33300</v>
+      </c>
+      <c r="H42" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J42" s="3">
+        <v>49300</v>
+      </c>
+      <c r="K42" s="3">
         <v>38900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>60000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2414,8 +2504,8 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,53 +2634,56 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="E45" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="F45" s="3">
-        <v>101600</v>
+        <v>4000</v>
       </c>
       <c r="G45" s="3">
-        <v>132100</v>
+        <v>102700</v>
       </c>
       <c r="H45" s="3">
-        <v>104700</v>
+        <v>133600</v>
       </c>
       <c r="I45" s="3">
-        <v>125200</v>
+        <v>105800</v>
       </c>
       <c r="J45" s="3">
+        <v>126600</v>
+      </c>
+      <c r="K45" s="3">
         <v>121600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2594,53 +2693,56 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>120100</v>
+        <v>118700</v>
       </c>
       <c r="E46" s="3">
-        <v>131400</v>
+        <v>121500</v>
       </c>
       <c r="F46" s="3">
-        <v>140700</v>
+        <v>132900</v>
       </c>
       <c r="G46" s="3">
-        <v>164000</v>
+        <v>142300</v>
       </c>
       <c r="H46" s="3">
-        <v>168600</v>
+        <v>165900</v>
       </c>
       <c r="I46" s="3">
-        <v>181000</v>
+        <v>170500</v>
       </c>
       <c r="J46" s="3">
+        <v>183000</v>
+      </c>
+      <c r="K46" s="3">
         <v>187100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>124200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>181200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>127300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>139100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>26700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>29600</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2674,28 +2779,28 @@
         <v>300</v>
       </c>
       <c r="J47" s="3">
+        <v>300</v>
+      </c>
+      <c r="K47" s="3">
         <v>200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>57400</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
@@ -2706,53 +2811,56 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1900</v>
       </c>
       <c r="H48" s="3">
         <v>1900</v>
       </c>
       <c r="I48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J48" s="3">
         <v>1700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>700</v>
       </c>
       <c r="L48" s="3">
+        <v>700</v>
+      </c>
+      <c r="M48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
       </c>
       <c r="P48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2777,26 +2888,26 @@
         <v>500</v>
       </c>
       <c r="G49" s="3">
+        <v>500</v>
+      </c>
+      <c r="H49" s="3">
         <v>600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
@@ -2806,8 +2917,8 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>4</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2945,25 +3065,25 @@
         <v>500</v>
       </c>
       <c r="G52" s="3">
+        <v>500</v>
+      </c>
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -2974,8 +3094,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,53 +3165,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>122900</v>
+        <v>121200</v>
       </c>
       <c r="E54" s="3">
-        <v>134300</v>
+        <v>124200</v>
       </c>
       <c r="F54" s="3">
-        <v>143800</v>
+        <v>135800</v>
       </c>
       <c r="G54" s="3">
-        <v>167400</v>
+        <v>145400</v>
       </c>
       <c r="H54" s="3">
-        <v>171400</v>
+        <v>169300</v>
       </c>
       <c r="I54" s="3">
-        <v>183300</v>
+        <v>173400</v>
       </c>
       <c r="J54" s="3">
+        <v>185400</v>
+      </c>
+      <c r="K54" s="3">
         <v>188300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>182300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>181800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>127600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>139400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>26900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>29800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,52 +3272,53 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12600</v>
+        <v>12000</v>
       </c>
       <c r="E57" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="F57" s="3">
-        <v>14700</v>
+        <v>12500</v>
       </c>
       <c r="G57" s="3">
-        <v>19600</v>
+        <v>14800</v>
       </c>
       <c r="H57" s="3">
-        <v>14400</v>
+        <v>19800</v>
       </c>
       <c r="I57" s="3">
-        <v>8300</v>
+        <v>14600</v>
       </c>
       <c r="J57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K57" s="3">
         <v>7900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5000</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2800</v>
       </c>
       <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>2800</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3213,17 +3347,17 @@
         <v>600</v>
       </c>
       <c r="G58" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
       </c>
       <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3233,8 +3367,8 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3254,52 +3388,55 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3">
+        <v>200</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
@@ -3310,52 +3447,55 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14800</v>
+        <v>13700</v>
       </c>
       <c r="E60" s="3">
-        <v>13900</v>
+        <v>15000</v>
       </c>
       <c r="F60" s="3">
-        <v>16600</v>
+        <v>14000</v>
       </c>
       <c r="G60" s="3">
-        <v>21000</v>
+        <v>16800</v>
       </c>
       <c r="H60" s="3">
-        <v>15800</v>
+        <v>21200</v>
       </c>
       <c r="I60" s="3">
-        <v>10000</v>
+        <v>16000</v>
       </c>
       <c r="J60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K60" s="3">
         <v>9200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>3000</v>
       </c>
       <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
+      <c r="Q60" s="3">
+        <v>3000</v>
       </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
@@ -3366,31 +3506,34 @@
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
-        <v>500</v>
-      </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3405,14 +3548,14 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>64400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>63500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3433,11 +3579,11 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -3455,7 +3601,7 @@
         <v>100</v>
       </c>
       <c r="M62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3466,8 +3612,8 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,53 +3801,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15100</v>
+        <v>13900</v>
       </c>
       <c r="E66" s="3">
-        <v>14200</v>
+        <v>15200</v>
       </c>
       <c r="F66" s="3">
-        <v>17100</v>
+        <v>14300</v>
       </c>
       <c r="G66" s="3">
-        <v>21700</v>
+        <v>17300</v>
       </c>
       <c r="H66" s="3">
-        <v>16600</v>
+        <v>22000</v>
       </c>
       <c r="I66" s="3">
-        <v>10600</v>
+        <v>16800</v>
       </c>
       <c r="J66" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K66" s="3">
         <v>9300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>67500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>66500</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,53 +4119,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-149000</v>
+        <v>-159600</v>
       </c>
       <c r="E72" s="3">
-        <v>-137800</v>
+        <v>-150700</v>
       </c>
       <c r="F72" s="3">
-        <v>-129200</v>
+        <v>-139300</v>
       </c>
       <c r="G72" s="3">
-        <v>-114400</v>
+        <v>-130600</v>
       </c>
       <c r="H72" s="3">
-        <v>-99400</v>
+        <v>-115700</v>
       </c>
       <c r="I72" s="3">
-        <v>-83400</v>
+        <v>-100500</v>
       </c>
       <c r="J72" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-74300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>172100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>174200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>119900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>130800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-40200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-36300</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,53 +4355,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>107800</v>
+        <v>107300</v>
       </c>
       <c r="E76" s="3">
-        <v>120100</v>
+        <v>109000</v>
       </c>
       <c r="F76" s="3">
-        <v>126700</v>
+        <v>121400</v>
       </c>
       <c r="G76" s="3">
-        <v>145700</v>
+        <v>128200</v>
       </c>
       <c r="H76" s="3">
-        <v>154800</v>
+        <v>147300</v>
       </c>
       <c r="I76" s="3">
-        <v>172700</v>
+        <v>156500</v>
       </c>
       <c r="J76" s="3">
+        <v>174600</v>
+      </c>
+      <c r="K76" s="3">
         <v>179100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>175600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>177600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>123000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>134000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-40600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-36700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11900</v>
+        <v>-8200</v>
       </c>
       <c r="E81" s="3">
-        <v>-9700</v>
+        <v>-12000</v>
       </c>
       <c r="F81" s="3">
-        <v>-16100</v>
+        <v>-9800</v>
       </c>
       <c r="G81" s="3">
-        <v>-17200</v>
+        <v>-16300</v>
       </c>
       <c r="H81" s="3">
-        <v>-18100</v>
+        <v>-17300</v>
       </c>
       <c r="I81" s="3">
-        <v>-11600</v>
+        <v>-30000</v>
       </c>
       <c r="J81" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-12200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4438,13 +4637,13 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>400</v>
-      </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -4453,7 +4652,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4476,11 +4675,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9100</v>
+        <v>-10300</v>
       </c>
       <c r="E89" s="3">
-        <v>-12400</v>
+        <v>-9200</v>
       </c>
       <c r="F89" s="3">
-        <v>-19200</v>
+        <v>-12600</v>
       </c>
       <c r="G89" s="3">
-        <v>-9800</v>
+        <v>-19400</v>
       </c>
       <c r="H89" s="3">
-        <v>-12100</v>
+        <v>300</v>
       </c>
       <c r="I89" s="3">
-        <v>-10100</v>
+        <v>-32600</v>
       </c>
       <c r="J89" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-10000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5057,14 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -4852,25 +5073,25 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>-300</v>
+        <v>200</v>
       </c>
       <c r="I91" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="J91" s="3">
         <v>-300</v>
       </c>
       <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
@@ -4879,22 +5100,25 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,40 +5232,43 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>38100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3200</v>
       </c>
-      <c r="F94" s="3">
-        <v>27400</v>
-      </c>
       <c r="G94" s="3">
+        <v>27700</v>
+      </c>
+      <c r="H94" s="3">
         <v>-23600</v>
       </c>
-      <c r="H94" s="3">
-        <v>20600</v>
-      </c>
       <c r="I94" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>7100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-107500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
@@ -5047,22 +5277,25 @@
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,16 +5550,19 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
@@ -5325,85 +5571,88 @@
         <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>54000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>120400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>36200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>36300</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
-        <v>500</v>
-      </c>
       <c r="I101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2600</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -5416,63 +5665,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9000</v>
+        <v>37500</v>
       </c>
       <c r="E102" s="3">
-        <v>-14300</v>
+        <v>-9100</v>
       </c>
       <c r="F102" s="3">
-        <v>7200</v>
+        <v>-14400</v>
       </c>
       <c r="G102" s="3">
-        <v>-32000</v>
+        <v>7300</v>
       </c>
       <c r="H102" s="3">
-        <v>8200</v>
+        <v>-22500</v>
       </c>
       <c r="I102" s="3">
-        <v>-9700</v>
+        <v>-11400</v>
       </c>
       <c r="J102" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-110400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>44800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>113500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>30300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>34700</v>
       </c>
-      <c r="T102" s="3" t="s">
+      <c r="U102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>IFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,96 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6300</v>
+        <v>6800</v>
       </c>
       <c r="E12" s="3">
-        <v>8800</v>
+        <v>6200</v>
       </c>
       <c r="F12" s="3">
         <v>8700</v>
       </c>
       <c r="G12" s="3">
-        <v>13100</v>
+        <v>8600</v>
       </c>
       <c r="H12" s="3">
-        <v>16000</v>
+        <v>12900</v>
       </c>
       <c r="I12" s="3">
-        <v>24200</v>
+        <v>15800</v>
       </c>
       <c r="J12" s="3">
+        <v>23800</v>
+      </c>
+      <c r="K12" s="3">
         <v>9200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>6000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>3500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1231,71 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7700</v>
+        <v>9600</v>
       </c>
       <c r="E17" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G17" s="3">
         <v>11500</v>
       </c>
-      <c r="F17" s="3">
-        <v>11700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>16600</v>
-      </c>
       <c r="H17" s="3">
-        <v>18900</v>
+        <v>16300</v>
       </c>
       <c r="I17" s="3">
-        <v>32500</v>
+        <v>18600</v>
       </c>
       <c r="J17" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K17" s="3">
         <v>13100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-11500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-16600</v>
-      </c>
       <c r="H18" s="3">
-        <v>-18900</v>
+        <v>-16300</v>
       </c>
       <c r="I18" s="3">
-        <v>-32500</v>
+        <v>-18600</v>
       </c>
       <c r="J18" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-13100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1359,55 +1392,58 @@
         <v>-500</v>
       </c>
       <c r="F20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
-        <v>2500</v>
-      </c>
       <c r="J20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-900</v>
       </c>
       <c r="Q20" s="3">
         <v>-900</v>
       </c>
       <c r="R20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,58 +1451,61 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-11800</v>
+        <v>-7900</v>
       </c>
       <c r="F21" s="3">
-        <v>-9600</v>
+        <v>-11600</v>
       </c>
       <c r="G21" s="3">
-        <v>-16100</v>
+        <v>-9500</v>
       </c>
       <c r="H21" s="3">
-        <v>-17300</v>
+        <v>-15800</v>
       </c>
       <c r="I21" s="3">
-        <v>-29500</v>
+        <v>-17000</v>
       </c>
       <c r="J21" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-11600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-13100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-5200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-10500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1479,8 +1518,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1524,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8200</v>
+        <v>-10400</v>
       </c>
       <c r="E23" s="3">
-        <v>-12000</v>
+        <v>-8100</v>
       </c>
       <c r="F23" s="3">
-        <v>-9800</v>
+        <v>-11800</v>
       </c>
       <c r="G23" s="3">
-        <v>-16300</v>
+        <v>-9700</v>
       </c>
       <c r="H23" s="3">
-        <v>-17300</v>
+        <v>-16100</v>
       </c>
       <c r="I23" s="3">
-        <v>-30000</v>
+        <v>-17100</v>
       </c>
       <c r="J23" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-11800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8200</v>
+        <v>-10400</v>
       </c>
       <c r="E26" s="3">
-        <v>-12000</v>
+        <v>-8100</v>
       </c>
       <c r="F26" s="3">
-        <v>-9800</v>
+        <v>-11800</v>
       </c>
       <c r="G26" s="3">
-        <v>-16300</v>
+        <v>-9700</v>
       </c>
       <c r="H26" s="3">
-        <v>-17300</v>
+        <v>-16100</v>
       </c>
       <c r="I26" s="3">
-        <v>-30000</v>
+        <v>-17100</v>
       </c>
       <c r="J26" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-11800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-13100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-5200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8200</v>
+        <v>-10400</v>
       </c>
       <c r="E27" s="3">
-        <v>-12000</v>
+        <v>-8100</v>
       </c>
       <c r="F27" s="3">
-        <v>-9800</v>
+        <v>-11800</v>
       </c>
       <c r="G27" s="3">
-        <v>-16300</v>
+        <v>-9700</v>
       </c>
       <c r="H27" s="3">
-        <v>-17300</v>
+        <v>-16100</v>
       </c>
       <c r="I27" s="3">
-        <v>-30000</v>
+        <v>-17100</v>
       </c>
       <c r="J27" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-11800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-13100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-5200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2067,114 +2136,120 @@
         <v>500</v>
       </c>
       <c r="F32" s="3">
+        <v>500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
-        <v>-2500</v>
-      </c>
       <c r="J32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2600</v>
-      </c>
-      <c r="P32" s="3">
-        <v>900</v>
       </c>
       <c r="Q32" s="3">
         <v>900</v>
       </c>
       <c r="R32" s="3">
+        <v>900</v>
+      </c>
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8200</v>
+        <v>-10400</v>
       </c>
       <c r="E33" s="3">
-        <v>-12000</v>
+        <v>-8100</v>
       </c>
       <c r="F33" s="3">
-        <v>-9800</v>
+        <v>-11800</v>
       </c>
       <c r="G33" s="3">
-        <v>-16300</v>
+        <v>-9700</v>
       </c>
       <c r="H33" s="3">
-        <v>-17300</v>
+        <v>-16100</v>
       </c>
       <c r="I33" s="3">
-        <v>-30000</v>
+        <v>-17100</v>
       </c>
       <c r="J33" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-11800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-13100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-5200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8200</v>
+        <v>-10400</v>
       </c>
       <c r="E35" s="3">
-        <v>-12000</v>
+        <v>-8100</v>
       </c>
       <c r="F35" s="3">
-        <v>-9800</v>
+        <v>-11800</v>
       </c>
       <c r="G35" s="3">
-        <v>-16300</v>
+        <v>-9700</v>
       </c>
       <c r="H35" s="3">
-        <v>-17300</v>
+        <v>-16100</v>
       </c>
       <c r="I35" s="3">
-        <v>-30000</v>
+        <v>-17100</v>
       </c>
       <c r="J35" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-11800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-13100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-5200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,56 +2486,57 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>53200</v>
+        <v>1800</v>
       </c>
       <c r="E41" s="3">
-        <v>4800</v>
+        <v>52300</v>
       </c>
       <c r="F41" s="3">
-        <v>1900</v>
+        <v>4700</v>
       </c>
       <c r="G41" s="3">
-        <v>6400</v>
+        <v>1800</v>
       </c>
       <c r="H41" s="3">
-        <v>5300</v>
+        <v>6300</v>
       </c>
       <c r="I41" s="3">
-        <v>64700</v>
+        <v>5200</v>
       </c>
       <c r="J41" s="3">
+        <v>63600</v>
+      </c>
+      <c r="K41" s="3">
         <v>7100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>26600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>62400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>171400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>126500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>138300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>24800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>28400</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2460,41 +2546,44 @@
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>60900</v>
+        <v>93600</v>
       </c>
       <c r="E42" s="3">
-        <v>113200</v>
+        <v>59900</v>
       </c>
       <c r="F42" s="3">
-        <v>127100</v>
+        <v>111300</v>
       </c>
       <c r="G42" s="3">
-        <v>33300</v>
+        <v>125000</v>
       </c>
       <c r="H42" s="3">
-        <v>27000</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3">
+        <v>32700</v>
+      </c>
+      <c r="I42" s="3">
+        <v>26600</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="3">
         <v>49300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>38900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>60000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2507,8 +2596,8 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2519,31 +2608,34 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2578,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,56 +2732,59 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E45" s="3">
         <v>4500</v>
       </c>
-      <c r="E45" s="3">
-        <v>3600</v>
-      </c>
       <c r="F45" s="3">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="G45" s="3">
-        <v>102700</v>
+        <v>3900</v>
       </c>
       <c r="H45" s="3">
-        <v>133600</v>
+        <v>101000</v>
       </c>
       <c r="I45" s="3">
-        <v>105800</v>
+        <v>131400</v>
       </c>
       <c r="J45" s="3">
+        <v>104100</v>
+      </c>
+      <c r="K45" s="3">
         <v>126600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>121600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2696,56 +2794,59 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>118700</v>
+        <v>101500</v>
       </c>
       <c r="E46" s="3">
-        <v>121500</v>
+        <v>116700</v>
       </c>
       <c r="F46" s="3">
-        <v>132900</v>
+        <v>119500</v>
       </c>
       <c r="G46" s="3">
-        <v>142300</v>
+        <v>130700</v>
       </c>
       <c r="H46" s="3">
-        <v>165900</v>
+        <v>140000</v>
       </c>
       <c r="I46" s="3">
-        <v>170500</v>
+        <v>163100</v>
       </c>
       <c r="J46" s="3">
+        <v>167700</v>
+      </c>
+      <c r="K46" s="3">
         <v>183000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>187100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>124200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>181200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>127300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>139100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>26700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>29600</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2755,8 +2856,11 @@
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2782,28 +2886,28 @@
         <v>300</v>
       </c>
       <c r="K47" s="3">
+        <v>300</v>
+      </c>
+      <c r="L47" s="3">
         <v>200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>57400</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
+      <c r="R47" s="3">
+        <v>0</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
@@ -2814,56 +2918,59 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
-        <v>2000</v>
-      </c>
       <c r="J48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
       </c>
       <c r="M48" s="3">
+        <v>700</v>
+      </c>
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
       </c>
       <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2873,16 +2980,19 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F49" s="3">
         <v>500</v>
@@ -2891,26 +3001,26 @@
         <v>500</v>
       </c>
       <c r="H49" s="3">
+        <v>500</v>
+      </c>
+      <c r="I49" s="3">
         <v>600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>300</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
@@ -2920,8 +3030,8 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,13 +3166,16 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>500</v>
@@ -3068,25 +3187,25 @@
         <v>500</v>
       </c>
       <c r="H52" s="3">
+        <v>500</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -3097,8 +3216,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,56 +3290,59 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>121200</v>
+        <v>103800</v>
       </c>
       <c r="E54" s="3">
-        <v>124200</v>
+        <v>119200</v>
       </c>
       <c r="F54" s="3">
-        <v>135800</v>
+        <v>122200</v>
       </c>
       <c r="G54" s="3">
-        <v>145400</v>
+        <v>133500</v>
       </c>
       <c r="H54" s="3">
-        <v>169300</v>
+        <v>143000</v>
       </c>
       <c r="I54" s="3">
-        <v>173400</v>
+        <v>166500</v>
       </c>
       <c r="J54" s="3">
+        <v>170500</v>
+      </c>
+      <c r="K54" s="3">
         <v>185400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>188300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>182300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>181800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>127600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>139400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>29800</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3227,8 +3352,11 @@
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,55 +3402,56 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12000</v>
+        <v>9700</v>
       </c>
       <c r="E57" s="3">
-        <v>12700</v>
+        <v>11800</v>
       </c>
       <c r="F57" s="3">
         <v>12500</v>
       </c>
       <c r="G57" s="3">
-        <v>14800</v>
+        <v>12300</v>
       </c>
       <c r="H57" s="3">
-        <v>19800</v>
+        <v>14600</v>
       </c>
       <c r="I57" s="3">
-        <v>14600</v>
+        <v>19400</v>
       </c>
       <c r="J57" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K57" s="3">
         <v>8400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5000</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2800</v>
       </c>
       <c r="Q57" s="3">
         <v>2800</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
+      <c r="R57" s="3">
+        <v>2800</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
@@ -3332,13 +3462,16 @@
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -3350,17 +3483,17 @@
         <v>600</v>
       </c>
       <c r="H58" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3370,8 +3503,8 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3391,55 +3524,58 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
-        <v>1400</v>
-      </c>
       <c r="H59" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="I59" s="3">
         <v>1000</v>
       </c>
       <c r="J59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
+      <c r="R59" s="3">
+        <v>200</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
@@ -3450,55 +3586,58 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13700</v>
+        <v>11900</v>
       </c>
       <c r="E60" s="3">
-        <v>15000</v>
+        <v>13500</v>
       </c>
       <c r="F60" s="3">
-        <v>14000</v>
+        <v>14700</v>
       </c>
       <c r="G60" s="3">
-        <v>16800</v>
+        <v>13800</v>
       </c>
       <c r="H60" s="3">
-        <v>21200</v>
+        <v>16500</v>
       </c>
       <c r="I60" s="3">
-        <v>16000</v>
+        <v>20900</v>
       </c>
       <c r="J60" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K60" s="3">
         <v>10100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>3000</v>
       </c>
       <c r="Q60" s="3">
         <v>3000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
+      <c r="R60" s="3">
+        <v>3000</v>
       </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
@@ -3509,35 +3648,38 @@
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
-      </c>
-      <c r="E61" s="3">
-        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
       </c>
       <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3551,14 +3693,14 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>64400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>63500</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3582,11 +3727,11 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -3604,7 +3749,7 @@
         <v>100</v>
       </c>
       <c r="N62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3615,8 +3760,8 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,56 +3958,59 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13900</v>
+        <v>12200</v>
       </c>
       <c r="E66" s="3">
-        <v>15200</v>
+        <v>13700</v>
       </c>
       <c r="F66" s="3">
-        <v>14300</v>
+        <v>15000</v>
       </c>
       <c r="G66" s="3">
-        <v>17300</v>
+        <v>14100</v>
       </c>
       <c r="H66" s="3">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="I66" s="3">
-        <v>16800</v>
+        <v>21600</v>
       </c>
       <c r="J66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="K66" s="3">
         <v>10800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>67500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>66500</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3863,8 +4020,11 @@
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,56 +4292,59 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-159600</v>
+        <v>-167200</v>
       </c>
       <c r="E72" s="3">
-        <v>-150700</v>
+        <v>-157000</v>
       </c>
       <c r="F72" s="3">
-        <v>-139300</v>
+        <v>-148200</v>
       </c>
       <c r="G72" s="3">
-        <v>-130600</v>
+        <v>-137000</v>
       </c>
       <c r="H72" s="3">
-        <v>-115700</v>
+        <v>-128500</v>
       </c>
       <c r="I72" s="3">
-        <v>-100500</v>
+        <v>-113800</v>
       </c>
       <c r="J72" s="3">
+        <v>-98800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-84400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-74300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>172100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>174200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>119900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>130800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-36300</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4181,8 +4354,11 @@
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,56 +4540,59 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>107300</v>
+        <v>91600</v>
       </c>
       <c r="E76" s="3">
-        <v>109000</v>
+        <v>105500</v>
       </c>
       <c r="F76" s="3">
-        <v>121400</v>
+        <v>107200</v>
       </c>
       <c r="G76" s="3">
-        <v>128200</v>
+        <v>119400</v>
       </c>
       <c r="H76" s="3">
-        <v>147300</v>
+        <v>126000</v>
       </c>
       <c r="I76" s="3">
-        <v>156500</v>
+        <v>144900</v>
       </c>
       <c r="J76" s="3">
+        <v>154000</v>
+      </c>
+      <c r="K76" s="3">
         <v>174600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>179100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>175600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>177600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>123000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>134000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-40600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-36700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4417,8 +4602,11 @@
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8200</v>
+        <v>-10400</v>
       </c>
       <c r="E81" s="3">
-        <v>-12000</v>
+        <v>-8100</v>
       </c>
       <c r="F81" s="3">
-        <v>-9800</v>
+        <v>-11800</v>
       </c>
       <c r="G81" s="3">
-        <v>-16300</v>
+        <v>-9700</v>
       </c>
       <c r="H81" s="3">
-        <v>-17300</v>
+        <v>-16100</v>
       </c>
       <c r="I81" s="3">
-        <v>-30000</v>
+        <v>-17100</v>
       </c>
       <c r="J81" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-11800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-13100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-5200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4640,13 +4838,13 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4655,7 +4853,7 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4678,11 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-10300</v>
+        <v>-11400</v>
       </c>
       <c r="E89" s="3">
-        <v>-9200</v>
+        <v>-10100</v>
       </c>
       <c r="F89" s="3">
-        <v>-12600</v>
+        <v>-9100</v>
       </c>
       <c r="G89" s="3">
-        <v>-19400</v>
+        <v>-12400</v>
       </c>
       <c r="H89" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
-        <v>-32600</v>
-      </c>
       <c r="J89" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-10200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1500</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,17 +5277,18 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -5076,25 +5296,25 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-300</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
       </c>
       <c r="L91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
@@ -5103,22 +5323,25 @@
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,43 +5461,46 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>38100</v>
+        <v>-9200</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-3200</v>
       </c>
-      <c r="G94" s="3">
-        <v>27700</v>
-      </c>
       <c r="H94" s="3">
-        <v>-23600</v>
+        <v>27300</v>
       </c>
       <c r="I94" s="3">
-        <v>20200</v>
+        <v>-23200</v>
       </c>
       <c r="J94" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>7100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-107500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
@@ -5280,22 +5509,25 @@
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,109 +5795,115 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>10700</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>10500</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>54000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>120400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>36200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>36300</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2600</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -5668,66 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>37500</v>
+        <v>-22200</v>
       </c>
       <c r="E102" s="3">
-        <v>-9100</v>
+        <v>36900</v>
       </c>
       <c r="F102" s="3">
-        <v>-14400</v>
+        <v>-9000</v>
       </c>
       <c r="G102" s="3">
-        <v>7300</v>
+        <v>-14200</v>
       </c>
       <c r="H102" s="3">
-        <v>-22500</v>
+        <v>7200</v>
       </c>
       <c r="I102" s="3">
-        <v>-11400</v>
+        <v>-22200</v>
       </c>
       <c r="J102" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-9800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-110400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>44800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>113500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>30300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>34700</v>
       </c>
-      <c r="U102" s="3" t="s">
+      <c r="V102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>IFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6800</v>
+        <v>6000</v>
       </c>
       <c r="E12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>13500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K12" s="3">
+        <v>23800</v>
+      </c>
+      <c r="L12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="N12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="P12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>7100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S12" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T12" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U12" s="3">
         <v>6200</v>
       </c>
-      <c r="F12" s="3">
-        <v>8700</v>
-      </c>
-      <c r="G12" s="3">
-        <v>8600</v>
-      </c>
-      <c r="H12" s="3">
-        <v>12900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>15800</v>
-      </c>
-      <c r="J12" s="3">
-        <v>23800</v>
-      </c>
-      <c r="K12" s="3">
-        <v>9200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>10700</v>
-      </c>
-      <c r="M12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>5500</v>
-      </c>
-      <c r="O12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="P12" s="3">
-        <v>7100</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>2900</v>
-      </c>
-      <c r="R12" s="3">
-        <v>3500</v>
-      </c>
-      <c r="S12" s="3">
-        <v>2800</v>
-      </c>
-      <c r="T12" s="3">
-        <v>6200</v>
-      </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1258,74 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="E17" s="3">
-        <v>7500</v>
+        <v>10000</v>
       </c>
       <c r="F17" s="3">
-        <v>11300</v>
+        <v>7900</v>
       </c>
       <c r="G17" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="H17" s="3">
-        <v>16300</v>
+        <v>12000</v>
       </c>
       <c r="I17" s="3">
-        <v>18600</v>
+        <v>17000</v>
       </c>
       <c r="J17" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K17" s="3">
         <v>31900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-7500</v>
+        <v>-10000</v>
       </c>
       <c r="F18" s="3">
-        <v>-11300</v>
+        <v>-7900</v>
       </c>
       <c r="G18" s="3">
-        <v>-11500</v>
+        <v>-11700</v>
       </c>
       <c r="H18" s="3">
-        <v>-16300</v>
+        <v>-12000</v>
       </c>
       <c r="I18" s="3">
-        <v>-18600</v>
+        <v>-17000</v>
       </c>
       <c r="J18" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-31900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-14800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,61 +1423,64 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3">
-        <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>2700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-900</v>
       </c>
       <c r="R20" s="3">
         <v>-900</v>
       </c>
       <c r="S20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,61 +1488,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-7900</v>
+        <v>-10600</v>
       </c>
       <c r="F21" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="L21" s="3">
         <v>-11600</v>
       </c>
-      <c r="G21" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-29000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-12100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-10500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2500</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1521,8 +1561,8 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10400</v>
+        <v>-7500</v>
       </c>
       <c r="E23" s="3">
-        <v>-8100</v>
+        <v>-10900</v>
       </c>
       <c r="F23" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="L23" s="3">
         <v>-11800</v>
       </c>
-      <c r="G23" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-17100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10400</v>
+        <v>-7500</v>
       </c>
       <c r="E26" s="3">
-        <v>-8100</v>
+        <v>-10900</v>
       </c>
       <c r="F26" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="L26" s="3">
         <v>-11800</v>
       </c>
-      <c r="G26" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-17100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-10500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10400</v>
+        <v>-7500</v>
       </c>
       <c r="E27" s="3">
-        <v>-8100</v>
+        <v>-10900</v>
       </c>
       <c r="F27" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="L27" s="3">
         <v>-11800</v>
       </c>
-      <c r="G27" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-17100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-12200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-10500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,123 +2203,129 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>600</v>
+      </c>
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
-        <v>500</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>900</v>
       </c>
       <c r="R32" s="3">
         <v>900</v>
       </c>
       <c r="S32" s="3">
+        <v>900</v>
+      </c>
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10400</v>
+        <v>-7500</v>
       </c>
       <c r="E33" s="3">
-        <v>-8100</v>
+        <v>-10900</v>
       </c>
       <c r="F33" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="L33" s="3">
         <v>-11800</v>
       </c>
-      <c r="G33" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-17100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-12200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-10500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10400</v>
+        <v>-7500</v>
       </c>
       <c r="E35" s="3">
-        <v>-8100</v>
+        <v>-10900</v>
       </c>
       <c r="F35" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="L35" s="3">
         <v>-11800</v>
       </c>
-      <c r="G35" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-17100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-12200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-10500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,59 +2573,60 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1800</v>
+        <v>96400</v>
       </c>
       <c r="E41" s="3">
-        <v>52300</v>
+        <v>1900</v>
       </c>
       <c r="F41" s="3">
-        <v>4700</v>
+        <v>54400</v>
       </c>
       <c r="G41" s="3">
-        <v>1800</v>
+        <v>4900</v>
       </c>
       <c r="H41" s="3">
-        <v>6300</v>
+        <v>1900</v>
       </c>
       <c r="I41" s="3">
-        <v>5200</v>
+        <v>6500</v>
       </c>
       <c r="J41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K41" s="3">
         <v>63600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>62400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>171400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>126500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>138300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>24800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>28400</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2549,44 +2636,47 @@
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>93600</v>
+        <v>72100</v>
       </c>
       <c r="E42" s="3">
-        <v>59900</v>
+        <v>97500</v>
       </c>
       <c r="F42" s="3">
-        <v>111300</v>
+        <v>62400</v>
       </c>
       <c r="G42" s="3">
-        <v>125000</v>
+        <v>115900</v>
       </c>
       <c r="H42" s="3">
-        <v>32700</v>
+        <v>130100</v>
       </c>
       <c r="I42" s="3">
-        <v>26600</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3">
+        <v>34100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3">
         <v>49300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>38900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>60000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2599,8 +2689,8 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2611,16 +2701,19 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>1700</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -2637,8 +2730,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,59 +2831,62 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4400</v>
+        <v>8000</v>
       </c>
       <c r="E45" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F45" s="3">
-        <v>3500</v>
+        <v>4600</v>
       </c>
       <c r="G45" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="H45" s="3">
-        <v>101000</v>
+        <v>4100</v>
       </c>
       <c r="I45" s="3">
-        <v>131400</v>
+        <v>105200</v>
       </c>
       <c r="J45" s="3">
+        <v>136800</v>
+      </c>
+      <c r="K45" s="3">
         <v>104100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>126600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>121600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2797,59 +2896,62 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>101500</v>
+        <v>178200</v>
       </c>
       <c r="E46" s="3">
-        <v>116700</v>
+        <v>105700</v>
       </c>
       <c r="F46" s="3">
-        <v>119500</v>
+        <v>121500</v>
       </c>
       <c r="G46" s="3">
-        <v>130700</v>
+        <v>124400</v>
       </c>
       <c r="H46" s="3">
-        <v>140000</v>
+        <v>136100</v>
       </c>
       <c r="I46" s="3">
-        <v>163100</v>
+        <v>145800</v>
       </c>
       <c r="J46" s="3">
+        <v>169900</v>
+      </c>
+      <c r="K46" s="3">
         <v>167700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>183000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>187100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>124200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>181200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>127300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>139100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>26700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>29600</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2859,8 +2961,11 @@
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2889,28 +2994,28 @@
         <v>300</v>
       </c>
       <c r="L47" s="3">
+        <v>300</v>
+      </c>
+      <c r="M47" s="3">
         <v>200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>57400</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
@@ -2921,59 +3026,62 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F48" s="3">
         <v>1300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1400</v>
       </c>
       <c r="G48" s="3">
         <v>1500</v>
       </c>
       <c r="H48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I48" s="3">
         <v>1700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1900</v>
       </c>
       <c r="J48" s="3">
         <v>1900</v>
       </c>
       <c r="K48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L48" s="3">
         <v>1700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>700</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
       </c>
       <c r="N48" s="3">
+        <v>700</v>
+      </c>
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
       </c>
       <c r="R48" s="3">
+        <v>200</v>
+      </c>
+      <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3007,23 +3118,23 @@
         <v>600</v>
       </c>
       <c r="J49" s="3">
+        <v>600</v>
+      </c>
+      <c r="K49" s="3">
         <v>500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>300</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
       <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
@@ -3033,8 +3144,8 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3178,7 +3298,7 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>500</v>
@@ -3192,23 +3312,23 @@
       <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>600</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -3219,8 +3339,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,59 +3416,62 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>103800</v>
+        <v>180400</v>
       </c>
       <c r="E54" s="3">
-        <v>119200</v>
+        <v>108100</v>
       </c>
       <c r="F54" s="3">
-        <v>122200</v>
+        <v>124100</v>
       </c>
       <c r="G54" s="3">
-        <v>133500</v>
+        <v>127200</v>
       </c>
       <c r="H54" s="3">
-        <v>143000</v>
+        <v>139100</v>
       </c>
       <c r="I54" s="3">
-        <v>166500</v>
+        <v>148900</v>
       </c>
       <c r="J54" s="3">
+        <v>173400</v>
+      </c>
+      <c r="K54" s="3">
         <v>170500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>185400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>188300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>182300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>181800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>127600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>139400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>26900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>29800</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,58 +3533,59 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9700</v>
+        <v>8700</v>
       </c>
       <c r="E57" s="3">
-        <v>11800</v>
+        <v>10100</v>
       </c>
       <c r="F57" s="3">
-        <v>12500</v>
+        <v>12200</v>
       </c>
       <c r="G57" s="3">
-        <v>12300</v>
+        <v>13000</v>
       </c>
       <c r="H57" s="3">
-        <v>14600</v>
+        <v>12900</v>
       </c>
       <c r="I57" s="3">
-        <v>19400</v>
+        <v>15200</v>
       </c>
       <c r="J57" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K57" s="3">
         <v>14300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5000</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2800</v>
       </c>
       <c r="R57" s="3">
         <v>2800</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
+      <c r="S57" s="3">
+        <v>2800</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,7 +3608,7 @@
         <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
@@ -3486,17 +3620,17 @@
         <v>600</v>
       </c>
       <c r="I58" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>400</v>
       </c>
       <c r="K58" s="3">
+        <v>400</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3506,8 +3640,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3527,58 +3661,61 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>800</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
+      <c r="S59" s="3">
+        <v>200</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
@@ -3589,58 +3726,61 @@
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11900</v>
+        <v>10100</v>
       </c>
       <c r="E60" s="3">
-        <v>13500</v>
+        <v>12400</v>
       </c>
       <c r="F60" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="G60" s="3">
-        <v>13800</v>
+        <v>15300</v>
       </c>
       <c r="H60" s="3">
-        <v>16500</v>
+        <v>14300</v>
       </c>
       <c r="I60" s="3">
-        <v>20900</v>
+        <v>17200</v>
       </c>
       <c r="J60" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K60" s="3">
         <v>15700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>3000</v>
       </c>
       <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
+      <c r="S60" s="3">
+        <v>3000</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>4</v>
@@ -3651,38 +3791,41 @@
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>200</v>
-      </c>
-      <c r="F61" s="3">
-        <v>300</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
       </c>
       <c r="H61" s="3">
+        <v>300</v>
+      </c>
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3696,14 +3839,14 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>64400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>63500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3713,13 +3856,16 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
@@ -3730,11 +3876,11 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -3752,7 +3898,7 @@
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3763,8 +3909,8 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,59 +4116,62 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12200</v>
+        <v>10300</v>
       </c>
       <c r="E66" s="3">
-        <v>13700</v>
+        <v>12700</v>
       </c>
       <c r="F66" s="3">
-        <v>15000</v>
+        <v>14200</v>
       </c>
       <c r="G66" s="3">
-        <v>14100</v>
+        <v>15600</v>
       </c>
       <c r="H66" s="3">
-        <v>17000</v>
+        <v>14700</v>
       </c>
       <c r="I66" s="3">
-        <v>21600</v>
+        <v>17700</v>
       </c>
       <c r="J66" s="3">
+        <v>22500</v>
+      </c>
+      <c r="K66" s="3">
         <v>16500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>67500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>66500</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,59 +4466,62 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-167200</v>
+        <v>-179400</v>
       </c>
       <c r="E72" s="3">
-        <v>-157000</v>
+        <v>-174100</v>
       </c>
       <c r="F72" s="3">
-        <v>-148200</v>
+        <v>-163500</v>
       </c>
       <c r="G72" s="3">
-        <v>-137000</v>
+        <v>-154400</v>
       </c>
       <c r="H72" s="3">
-        <v>-128500</v>
+        <v>-142700</v>
       </c>
       <c r="I72" s="3">
-        <v>-113800</v>
+        <v>-133800</v>
       </c>
       <c r="J72" s="3">
+        <v>-118500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-98800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-84400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-74300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>172100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>174200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>119900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>130800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-40200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-36300</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,59 +4726,62 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>91600</v>
+        <v>170100</v>
       </c>
       <c r="E76" s="3">
-        <v>105500</v>
+        <v>95400</v>
       </c>
       <c r="F76" s="3">
-        <v>107200</v>
+        <v>109900</v>
       </c>
       <c r="G76" s="3">
-        <v>119400</v>
+        <v>111600</v>
       </c>
       <c r="H76" s="3">
-        <v>126000</v>
+        <v>124400</v>
       </c>
       <c r="I76" s="3">
-        <v>144900</v>
+        <v>131300</v>
       </c>
       <c r="J76" s="3">
+        <v>150900</v>
+      </c>
+      <c r="K76" s="3">
         <v>154000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>174600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>179100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>175600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>177600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>123000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>134000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-40600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-36700</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10400</v>
+        <v>-7500</v>
       </c>
       <c r="E81" s="3">
-        <v>-8100</v>
+        <v>-10900</v>
       </c>
       <c r="F81" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="L81" s="3">
         <v>-11800</v>
       </c>
-      <c r="G81" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-17100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-12200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-10500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4841,13 +5040,13 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4856,7 +5055,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4879,11 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11400</v>
+        <v>-12800</v>
       </c>
       <c r="E89" s="3">
-        <v>-10100</v>
+        <v>-11900</v>
       </c>
       <c r="F89" s="3">
-        <v>-9100</v>
+        <v>-10500</v>
       </c>
       <c r="G89" s="3">
-        <v>-12400</v>
+        <v>-9400</v>
       </c>
       <c r="H89" s="3">
-        <v>-19100</v>
+        <v>-12900</v>
       </c>
       <c r="I89" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-32000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1500</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5287,11 +5508,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -5299,25 +5520,25 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-300</v>
       </c>
       <c r="L91" s="3">
         <v>-300</v>
       </c>
       <c r="M91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
@@ -5326,22 +5547,25 @@
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,46 +5691,49 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-9200</v>
+        <v>-1300</v>
       </c>
       <c r="E94" s="3">
-        <v>37500</v>
+        <v>-9600</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>39100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3200</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>27300</v>
+        <v>-3300</v>
       </c>
       <c r="I94" s="3">
-        <v>-23200</v>
+        <v>28400</v>
       </c>
       <c r="J94" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="K94" s="3">
         <v>19800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>7100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-107500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
@@ -5512,22 +5742,25 @@
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,115 +6041,121 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>10500</v>
-      </c>
       <c r="F100" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>54000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>120400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>36200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>36300</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1400</v>
+        <v>3000</v>
       </c>
       <c r="E101" s="3">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="F101" s="3">
-        <v>-400</v>
+        <v>-1100</v>
       </c>
       <c r="G101" s="3">
-        <v>1500</v>
+        <v>-500</v>
       </c>
       <c r="H101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>5800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -5919,69 +6168,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-22200</v>
+        <v>64600</v>
       </c>
       <c r="E102" s="3">
-        <v>36900</v>
+        <v>-23100</v>
       </c>
       <c r="F102" s="3">
-        <v>-9000</v>
+        <v>38400</v>
       </c>
       <c r="G102" s="3">
-        <v>-14200</v>
+        <v>-9400</v>
       </c>
       <c r="H102" s="3">
-        <v>7200</v>
+        <v>-14800</v>
       </c>
       <c r="I102" s="3">
-        <v>-22200</v>
+        <v>7500</v>
       </c>
       <c r="J102" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-11200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-110400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>44800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>113500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>30300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>34700</v>
       </c>
-      <c r="V102" s="3" t="s">
+      <c r="W102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>IFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F12" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G12" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="K12" s="3">
+        <v>16400</v>
+      </c>
+      <c r="L12" s="3">
+        <v>23800</v>
+      </c>
+      <c r="M12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="N12" s="3">
+        <v>10700</v>
+      </c>
+      <c r="O12" s="3">
         <v>6000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="P12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R12" s="3">
         <v>7100</v>
       </c>
-      <c r="F12" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>8900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>13500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>16400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>23800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>9200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>10700</v>
-      </c>
-      <c r="N12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>5500</v>
-      </c>
-      <c r="P12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>7100</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9700</v>
+        <v>16300</v>
       </c>
       <c r="E17" s="3">
-        <v>10000</v>
+        <v>9300</v>
       </c>
       <c r="F17" s="3">
-        <v>7900</v>
+        <v>9500</v>
       </c>
       <c r="G17" s="3">
-        <v>11700</v>
+        <v>7500</v>
       </c>
       <c r="H17" s="3">
-        <v>12000</v>
+        <v>11200</v>
       </c>
       <c r="I17" s="3">
-        <v>17000</v>
+        <v>11400</v>
       </c>
       <c r="J17" s="3">
+        <v>16200</v>
+      </c>
+      <c r="K17" s="3">
         <v>19300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>31900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>13100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-10000</v>
+        <v>-9300</v>
       </c>
       <c r="F18" s="3">
-        <v>-7900</v>
+        <v>-9500</v>
       </c>
       <c r="G18" s="3">
-        <v>-11700</v>
+        <v>-7500</v>
       </c>
       <c r="H18" s="3">
-        <v>-12000</v>
+        <v>-11200</v>
       </c>
       <c r="I18" s="3">
-        <v>-17000</v>
+        <v>-11400</v>
       </c>
       <c r="J18" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-19300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-31900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-14800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,64 +1457,67 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-600</v>
       </c>
       <c r="G20" s="3">
         <v>-500</v>
       </c>
       <c r="H20" s="3">
-        <v>1900</v>
+        <v>-500</v>
       </c>
       <c r="I20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-900</v>
       </c>
       <c r="S20" s="3">
         <v>-900</v>
       </c>
       <c r="T20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,72 +1525,75 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-10600</v>
+        <v>-7000</v>
       </c>
       <c r="F21" s="3">
-        <v>-8200</v>
+        <v>-10100</v>
       </c>
       <c r="G21" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="N21" s="3">
         <v>-12100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-16500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-17700</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-29000</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-11600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-13100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-10500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2500</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1564,8 +1604,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-7500</v>
       </c>
-      <c r="E23" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-13100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-10500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-7500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-10500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-7500</v>
       </c>
-      <c r="E27" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-10500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,129 +2273,135 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>600</v>
       </c>
       <c r="G32" s="3">
         <v>500</v>
       </c>
       <c r="H32" s="3">
-        <v>-1900</v>
+        <v>500</v>
       </c>
       <c r="I32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>900</v>
       </c>
       <c r="S32" s="3">
         <v>900</v>
       </c>
       <c r="T32" s="3">
+        <v>900</v>
+      </c>
+      <c r="U32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-7500</v>
       </c>
-      <c r="E33" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-10500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-7500</v>
       </c>
-      <c r="E35" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-10500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,62 +2660,63 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>96400</v>
+        <v>12700</v>
       </c>
       <c r="E41" s="3">
-        <v>1900</v>
+        <v>9300</v>
       </c>
       <c r="F41" s="3">
-        <v>54400</v>
+        <v>1800</v>
       </c>
       <c r="G41" s="3">
-        <v>4900</v>
+        <v>51900</v>
       </c>
       <c r="H41" s="3">
-        <v>1900</v>
+        <v>4700</v>
       </c>
       <c r="I41" s="3">
-        <v>6500</v>
+        <v>1800</v>
       </c>
       <c r="J41" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K41" s="3">
         <v>5400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>63600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>62400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>171400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>126500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>138300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>24800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>28400</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2639,47 +2726,50 @@
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>72100</v>
+        <v>135800</v>
       </c>
       <c r="E42" s="3">
-        <v>97500</v>
+        <v>151300</v>
       </c>
       <c r="F42" s="3">
-        <v>62400</v>
+        <v>92900</v>
       </c>
       <c r="G42" s="3">
-        <v>115900</v>
+        <v>59500</v>
       </c>
       <c r="H42" s="3">
-        <v>130100</v>
+        <v>110400</v>
       </c>
       <c r="I42" s="3">
-        <v>34100</v>
+        <v>124000</v>
       </c>
       <c r="J42" s="3">
+        <v>32500</v>
+      </c>
+      <c r="K42" s="3">
         <v>27700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3">
         <v>49300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>38900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>60000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2692,8 +2782,8 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2704,20 +2794,23 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2733,8 +2826,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,62 +2930,65 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8000</v>
+        <v>4800</v>
       </c>
       <c r="E45" s="3">
-        <v>4600</v>
+        <v>7600</v>
       </c>
       <c r="F45" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="G45" s="3">
-        <v>3600</v>
+        <v>4400</v>
       </c>
       <c r="H45" s="3">
-        <v>4100</v>
+        <v>3500</v>
       </c>
       <c r="I45" s="3">
-        <v>105200</v>
+        <v>3900</v>
       </c>
       <c r="J45" s="3">
+        <v>100200</v>
+      </c>
+      <c r="K45" s="3">
         <v>136800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>104100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>126600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>121600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2899,62 +2998,65 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>178200</v>
+        <v>154300</v>
       </c>
       <c r="E46" s="3">
-        <v>105700</v>
+        <v>169800</v>
       </c>
       <c r="F46" s="3">
-        <v>121500</v>
+        <v>100700</v>
       </c>
       <c r="G46" s="3">
-        <v>124400</v>
+        <v>115800</v>
       </c>
       <c r="H46" s="3">
-        <v>136100</v>
+        <v>118600</v>
       </c>
       <c r="I46" s="3">
-        <v>145800</v>
+        <v>129700</v>
       </c>
       <c r="J46" s="3">
+        <v>138900</v>
+      </c>
+      <c r="K46" s="3">
         <v>169900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>167700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>183000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>187100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>124200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>181200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>127300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>139100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>26700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>29600</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2997,28 +3102,28 @@
         <v>300</v>
       </c>
       <c r="M47" s="3">
+        <v>300</v>
+      </c>
+      <c r="N47" s="3">
         <v>200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>57400</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>100</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
@@ -3029,62 +3134,65 @@
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
-        <v>1200</v>
-      </c>
       <c r="F48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1900</v>
       </c>
       <c r="K48" s="3">
         <v>1900</v>
       </c>
       <c r="L48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M48" s="3">
         <v>1700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>700</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
       </c>
       <c r="O48" s="3">
+        <v>700</v>
+      </c>
+      <c r="P48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
       </c>
       <c r="S48" s="3">
+        <v>200</v>
+      </c>
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3094,50 +3202,53 @@
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
         <v>400</v>
       </c>
       <c r="F49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H49" s="3">
         <v>500</v>
       </c>
       <c r="I49" s="3">
+        <v>500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>500</v>
+      </c>
+      <c r="K49" s="3">
         <v>600</v>
       </c>
-      <c r="J49" s="3">
-        <v>600</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>300</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
@@ -3147,8 +3258,8 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>4</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3301,7 +3421,7 @@
         <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
@@ -3310,28 +3430,28 @@
         <v>500</v>
       </c>
       <c r="I52" s="3">
+        <v>500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>500</v>
+      </c>
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
-        <v>600</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -3342,8 +3462,8 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,62 +3542,65 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>180400</v>
+        <v>157600</v>
       </c>
       <c r="E54" s="3">
-        <v>108100</v>
+        <v>171900</v>
       </c>
       <c r="F54" s="3">
-        <v>124100</v>
+        <v>103000</v>
       </c>
       <c r="G54" s="3">
-        <v>127200</v>
+        <v>118300</v>
       </c>
       <c r="H54" s="3">
-        <v>139100</v>
+        <v>121300</v>
       </c>
       <c r="I54" s="3">
-        <v>148900</v>
+        <v>132500</v>
       </c>
       <c r="J54" s="3">
+        <v>141900</v>
+      </c>
+      <c r="K54" s="3">
         <v>173400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>170500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>185400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>188300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>182300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>181800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>127600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>139400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>26900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>29800</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,61 +3664,62 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8700</v>
+        <v>10400</v>
       </c>
       <c r="E57" s="3">
-        <v>10100</v>
+        <v>8300</v>
       </c>
       <c r="F57" s="3">
+        <v>9600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I57" s="3">
         <v>12200</v>
       </c>
-      <c r="G57" s="3">
-        <v>13000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>12900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>15200</v>
-      </c>
       <c r="J57" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K57" s="3">
         <v>20300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>14300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5000</v>
-      </c>
-      <c r="R57" s="3">
-        <v>2800</v>
       </c>
       <c r="S57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
+      <c r="T57" s="3">
+        <v>2800</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,7 +3745,7 @@
         <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
@@ -3623,17 +3757,17 @@
         <v>600</v>
       </c>
       <c r="J58" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>400</v>
       </c>
       <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3643,8 +3777,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3673,52 +3810,52 @@
         <v>1000</v>
       </c>
       <c r="E59" s="3">
+        <v>900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>900</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>5100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
+      <c r="T59" s="3">
+        <v>200</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
@@ -3729,61 +3866,64 @@
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>13400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>14600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K60" s="3">
+        <v>21700</v>
+      </c>
+      <c r="L60" s="3">
+        <v>15700</v>
+      </c>
+      <c r="M60" s="3">
         <v>10100</v>
       </c>
-      <c r="E60" s="3">
-        <v>12400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>14000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>15300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>14300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>17200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>21700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>15700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>10100</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5300</v>
-      </c>
-      <c r="R60" s="3">
-        <v>3000</v>
       </c>
       <c r="S60" s="3">
         <v>3000</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
+      <c r="T60" s="3">
+        <v>3000</v>
       </c>
       <c r="U60" s="3" t="s">
         <v>4</v>
@@ -3794,41 +3934,44 @@
       <c r="W60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
       </c>
       <c r="I61" s="3">
+        <v>300</v>
+      </c>
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3842,14 +3985,14 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>64400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>63500</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -3859,16 +4002,19 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -3879,11 +4025,11 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
@@ -3901,7 +4047,7 @@
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3912,8 +4058,8 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,62 +4274,65 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10300</v>
+        <v>13300</v>
       </c>
       <c r="E66" s="3">
-        <v>12700</v>
+        <v>9800</v>
       </c>
       <c r="F66" s="3">
-        <v>14200</v>
+        <v>12100</v>
       </c>
       <c r="G66" s="3">
-        <v>15600</v>
+        <v>13600</v>
       </c>
       <c r="H66" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="I66" s="3">
-        <v>17700</v>
+        <v>14000</v>
       </c>
       <c r="J66" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K66" s="3">
         <v>22500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>67500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>66500</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,62 +4640,65 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-179400</v>
+        <v>-187100</v>
       </c>
       <c r="E72" s="3">
-        <v>-174100</v>
+        <v>-171000</v>
       </c>
       <c r="F72" s="3">
-        <v>-163500</v>
+        <v>-165900</v>
       </c>
       <c r="G72" s="3">
-        <v>-154400</v>
+        <v>-155800</v>
       </c>
       <c r="H72" s="3">
-        <v>-142700</v>
+        <v>-147100</v>
       </c>
       <c r="I72" s="3">
-        <v>-133800</v>
+        <v>-136000</v>
       </c>
       <c r="J72" s="3">
+        <v>-127500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-118500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-98800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-84400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-74300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>172100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>174200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>119900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>130800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-40200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-36300</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,62 +4912,65 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>170100</v>
+        <v>144300</v>
       </c>
       <c r="E76" s="3">
-        <v>95400</v>
+        <v>162100</v>
       </c>
       <c r="F76" s="3">
-        <v>109900</v>
+        <v>90900</v>
       </c>
       <c r="G76" s="3">
-        <v>111600</v>
+        <v>104700</v>
       </c>
       <c r="H76" s="3">
-        <v>124400</v>
+        <v>106400</v>
       </c>
       <c r="I76" s="3">
-        <v>131300</v>
+        <v>118500</v>
       </c>
       <c r="J76" s="3">
+        <v>125100</v>
+      </c>
+      <c r="K76" s="3">
         <v>150900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>154000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>174600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>179100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>175600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>177600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>123000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>134000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-40600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-36700</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-7500</v>
       </c>
-      <c r="E81" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-10100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-10500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5043,13 +5242,13 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -5058,7 +5257,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5081,11 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-12800</v>
+        <v>-9200</v>
       </c>
       <c r="E89" s="3">
-        <v>-11900</v>
+        <v>-12200</v>
       </c>
       <c r="F89" s="3">
-        <v>-10500</v>
+        <v>-11400</v>
       </c>
       <c r="G89" s="3">
-        <v>-9400</v>
+        <v>-10000</v>
       </c>
       <c r="H89" s="3">
-        <v>-12900</v>
+        <v>-9000</v>
       </c>
       <c r="I89" s="3">
-        <v>-19900</v>
+        <v>-12300</v>
       </c>
       <c r="J89" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-32000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-10200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-10000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1500</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5511,11 +5732,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -5523,25 +5744,25 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-900</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-300</v>
       </c>
       <c r="M91" s="3">
         <v>-300</v>
       </c>
       <c r="N91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
@@ -5550,22 +5771,25 @@
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,49 +5921,52 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1300</v>
+        <v>3500</v>
       </c>
       <c r="E94" s="3">
-        <v>-9600</v>
+        <v>-1200</v>
       </c>
       <c r="F94" s="3">
-        <v>39100</v>
+        <v>-9200</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>37200</v>
       </c>
       <c r="H94" s="3">
-        <v>-3300</v>
+        <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>28400</v>
+        <v>-3200</v>
       </c>
       <c r="J94" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-24200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>19800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>7100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-107500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
@@ -5745,22 +5975,25 @@
         <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,121 +6287,127 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>75700</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>72100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>11000</v>
-      </c>
       <c r="G100" s="3">
+        <v>10400</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>-100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>54000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>120400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>1800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>36200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>36300</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3000</v>
+        <v>-1700</v>
       </c>
       <c r="E101" s="3">
-        <v>-1500</v>
+        <v>2800</v>
       </c>
       <c r="F101" s="3">
-        <v>-1100</v>
+        <v>-1400</v>
       </c>
       <c r="G101" s="3">
-        <v>-500</v>
+        <v>-1000</v>
       </c>
       <c r="H101" s="3">
-        <v>1600</v>
+        <v>-400</v>
       </c>
       <c r="I101" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2600</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -6171,72 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>64600</v>
+        <v>-7400</v>
       </c>
       <c r="E102" s="3">
+        <v>61600</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="G102" s="3">
+        <v>36600</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-23100</v>
       </c>
-      <c r="F102" s="3">
-        <v>38400</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="I102" s="3">
-        <v>7500</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-23100</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-9800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-110400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>44800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>113500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>30300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>34700</v>
       </c>
-      <c r="W102" s="3" t="s">
+      <c r="X102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>IFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,76 +1004,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>13200</v>
+        <v>10600</v>
       </c>
       <c r="E12" s="3">
-        <v>5700</v>
+        <v>12800</v>
       </c>
       <c r="F12" s="3">
-        <v>6800</v>
+        <v>5500</v>
       </c>
       <c r="G12" s="3">
-        <v>6100</v>
+        <v>6500</v>
       </c>
       <c r="H12" s="3">
-        <v>8600</v>
+        <v>5900</v>
       </c>
       <c r="I12" s="3">
-        <v>8500</v>
+        <v>8300</v>
       </c>
       <c r="J12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K12" s="3">
         <v>12800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>6000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1312,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16300</v>
+        <v>14400</v>
       </c>
       <c r="E17" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G17" s="3">
+        <v>9200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K17" s="3">
+        <v>16200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>19300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>31900</v>
+      </c>
+      <c r="N17" s="3">
+        <v>13100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>14800</v>
+      </c>
+      <c r="P17" s="3">
         <v>9300</v>
       </c>
-      <c r="F17" s="3">
-        <v>9500</v>
-      </c>
-      <c r="G17" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>11200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>11400</v>
-      </c>
-      <c r="J17" s="3">
-        <v>16200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>19300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>31900</v>
-      </c>
-      <c r="M17" s="3">
-        <v>13100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>14800</v>
-      </c>
-      <c r="O17" s="3">
-        <v>9300</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>10600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1393,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="P18" s="3">
         <v>-9300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-11200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-11400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-16200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-31900</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-10600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-8100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,67 +1491,70 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>2100</v>
+        <v>-900</v>
       </c>
       <c r="F20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-500</v>
       </c>
       <c r="H20" s="3">
         <v>-500</v>
       </c>
       <c r="I20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
-        <v>200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>2400</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>2700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-900</v>
       </c>
       <c r="T20" s="3">
         <v>-900</v>
       </c>
       <c r="U20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1562,70 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-7000</v>
+        <v>-16500</v>
       </c>
       <c r="F21" s="3">
-        <v>-10100</v>
+        <v>-6700</v>
       </c>
       <c r="G21" s="3">
-        <v>-7800</v>
+        <v>-9800</v>
       </c>
       <c r="H21" s="3">
-        <v>-11500</v>
+        <v>-7500</v>
       </c>
       <c r="I21" s="3">
-        <v>-9400</v>
+        <v>-11100</v>
       </c>
       <c r="J21" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-15700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-29000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-11600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-12100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-13100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-5200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-4400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-10500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2500</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,8 +1635,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1607,8 +1647,8 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-17300</v>
+        <v>-13600</v>
       </c>
       <c r="E23" s="3">
-        <v>-7200</v>
+        <v>-16700</v>
       </c>
       <c r="F23" s="3">
-        <v>-10300</v>
+        <v>-6900</v>
       </c>
       <c r="G23" s="3">
-        <v>-8000</v>
+        <v>-10000</v>
       </c>
       <c r="H23" s="3">
-        <v>-11700</v>
+        <v>-7700</v>
       </c>
       <c r="I23" s="3">
-        <v>-9600</v>
+        <v>-11300</v>
       </c>
       <c r="J23" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-17800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-29500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-13100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-10500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-17300</v>
+        <v>-13600</v>
       </c>
       <c r="E26" s="3">
-        <v>-7200</v>
+        <v>-16700</v>
       </c>
       <c r="F26" s="3">
-        <v>-10300</v>
+        <v>-6900</v>
       </c>
       <c r="G26" s="3">
-        <v>-8000</v>
+        <v>-10000</v>
       </c>
       <c r="H26" s="3">
-        <v>-11700</v>
+        <v>-7700</v>
       </c>
       <c r="I26" s="3">
-        <v>-9600</v>
+        <v>-11300</v>
       </c>
       <c r="J26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-15900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-29500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-12200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-13100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-10500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-17300</v>
+        <v>-13600</v>
       </c>
       <c r="E27" s="3">
-        <v>-7200</v>
+        <v>-16700</v>
       </c>
       <c r="F27" s="3">
-        <v>-10300</v>
+        <v>-6900</v>
       </c>
       <c r="G27" s="3">
-        <v>-8000</v>
+        <v>-10000</v>
       </c>
       <c r="H27" s="3">
-        <v>-11700</v>
+        <v>-7700</v>
       </c>
       <c r="I27" s="3">
-        <v>-9600</v>
+        <v>-11300</v>
       </c>
       <c r="J27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-15900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-29500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-12200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-13100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-10500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,135 +2343,141 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-2100</v>
+        <v>900</v>
       </c>
       <c r="F32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G32" s="3">
         <v>800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>500</v>
       </c>
       <c r="H32" s="3">
         <v>500</v>
       </c>
       <c r="I32" s="3">
+        <v>500</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2600</v>
-      </c>
-      <c r="S32" s="3">
-        <v>900</v>
       </c>
       <c r="T32" s="3">
         <v>900</v>
       </c>
       <c r="U32" s="3">
+        <v>900</v>
+      </c>
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-17300</v>
+        <v>-13600</v>
       </c>
       <c r="E33" s="3">
-        <v>-7200</v>
+        <v>-16700</v>
       </c>
       <c r="F33" s="3">
-        <v>-10300</v>
+        <v>-6900</v>
       </c>
       <c r="G33" s="3">
-        <v>-8000</v>
+        <v>-10000</v>
       </c>
       <c r="H33" s="3">
-        <v>-11700</v>
+        <v>-7700</v>
       </c>
       <c r="I33" s="3">
-        <v>-9600</v>
+        <v>-11300</v>
       </c>
       <c r="J33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-15900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-17800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-29500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-12200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-13100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-10500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-17300</v>
+        <v>-13600</v>
       </c>
       <c r="E35" s="3">
-        <v>-7200</v>
+        <v>-16700</v>
       </c>
       <c r="F35" s="3">
-        <v>-10300</v>
+        <v>-6900</v>
       </c>
       <c r="G35" s="3">
-        <v>-8000</v>
+        <v>-10000</v>
       </c>
       <c r="H35" s="3">
-        <v>-11700</v>
+        <v>-7700</v>
       </c>
       <c r="I35" s="3">
-        <v>-9600</v>
+        <v>-11300</v>
       </c>
       <c r="J35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-15900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-17800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-29500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-12200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-13100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-10500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,65 +2747,66 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12700</v>
+        <v>13200</v>
       </c>
       <c r="E41" s="3">
-        <v>9300</v>
+        <v>12300</v>
       </c>
       <c r="F41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
-        <v>51900</v>
-      </c>
       <c r="H41" s="3">
-        <v>4700</v>
+        <v>50200</v>
       </c>
       <c r="I41" s="3">
-        <v>1800</v>
+        <v>4500</v>
       </c>
       <c r="J41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K41" s="3">
         <v>6200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>63600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>26600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>62400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>171400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>126500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>138300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>24800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>28400</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2729,50 +2816,53 @@
       <c r="X41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>135800</v>
+        <v>92800</v>
       </c>
       <c r="E42" s="3">
-        <v>151300</v>
+        <v>131300</v>
       </c>
       <c r="F42" s="3">
-        <v>92900</v>
+        <v>146300</v>
       </c>
       <c r="G42" s="3">
-        <v>59500</v>
+        <v>89900</v>
       </c>
       <c r="H42" s="3">
-        <v>110400</v>
+        <v>57500</v>
       </c>
       <c r="I42" s="3">
-        <v>124000</v>
+        <v>106800</v>
       </c>
       <c r="J42" s="3">
+        <v>119900</v>
+      </c>
+      <c r="K42" s="3">
         <v>32500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>27700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3">
         <v>49300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>38900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>60000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2785,8 +2875,8 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,14 +2899,14 @@
         <v>1000</v>
       </c>
       <c r="E43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2829,8 +2922,8 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,65 +3029,68 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4800</v>
+        <v>6100</v>
       </c>
       <c r="E45" s="3">
-        <v>7600</v>
+        <v>4700</v>
       </c>
       <c r="F45" s="3">
-        <v>4400</v>
+        <v>7400</v>
       </c>
       <c r="G45" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="H45" s="3">
-        <v>3500</v>
+        <v>4300</v>
       </c>
       <c r="I45" s="3">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="J45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K45" s="3">
         <v>100200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>136800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>104100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>126600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>121600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1200</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3001,65 +3100,68 @@
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>154300</v>
+        <v>113200</v>
       </c>
       <c r="E46" s="3">
-        <v>169800</v>
+        <v>149300</v>
       </c>
       <c r="F46" s="3">
-        <v>100700</v>
+        <v>164200</v>
       </c>
       <c r="G46" s="3">
-        <v>115800</v>
+        <v>97400</v>
       </c>
       <c r="H46" s="3">
-        <v>118600</v>
+        <v>112000</v>
       </c>
       <c r="I46" s="3">
-        <v>129700</v>
+        <v>114700</v>
       </c>
       <c r="J46" s="3">
+        <v>125400</v>
+      </c>
+      <c r="K46" s="3">
         <v>138900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>169900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>167700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>183000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>187100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>124200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>181200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>127300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>139100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>26700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>29600</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3069,13 +3171,16 @@
       <c r="X46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>300</v>
+        <v>30200</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
@@ -3105,28 +3210,28 @@
         <v>300</v>
       </c>
       <c r="N47" s="3">
+        <v>300</v>
+      </c>
+      <c r="O47" s="3">
         <v>200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>57400</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>100</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
+      <c r="U47" s="3">
+        <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
@@ -3137,65 +3242,68 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="E48" s="3">
-        <v>1000</v>
+        <v>2200</v>
       </c>
       <c r="F48" s="3">
+        <v>900</v>
+      </c>
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="G48" s="3">
-        <v>1300</v>
-      </c>
       <c r="H48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1900</v>
       </c>
       <c r="L48" s="3">
         <v>1900</v>
       </c>
       <c r="M48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N48" s="3">
         <v>1700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>700</v>
       </c>
       <c r="O48" s="3">
         <v>700</v>
       </c>
       <c r="P48" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q48" s="3">
         <v>500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>300</v>
-      </c>
-      <c r="R48" s="3">
-        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
       </c>
       <c r="T48" s="3">
+        <v>200</v>
+      </c>
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3214,7 +3325,7 @@
         <v>300</v>
       </c>
       <c r="E49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F49" s="3">
         <v>400</v>
@@ -3223,7 +3334,7 @@
         <v>400</v>
       </c>
       <c r="H49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I49" s="3">
         <v>500</v>
@@ -3232,26 +3343,26 @@
         <v>500</v>
       </c>
       <c r="K49" s="3">
+        <v>500</v>
+      </c>
+      <c r="L49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>300</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <v>100</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
@@ -3261,8 +3372,8 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
+      <c r="U49" s="3">
+        <v>0</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>4</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3424,10 +3544,10 @@
         <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
@@ -3436,25 +3556,25 @@
         <v>500</v>
       </c>
       <c r="K52" s="3">
+        <v>500</v>
+      </c>
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -3465,8 +3585,8 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,65 +3668,68 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>157600</v>
+        <v>146100</v>
       </c>
       <c r="E54" s="3">
-        <v>171900</v>
+        <v>152500</v>
       </c>
       <c r="F54" s="3">
-        <v>103000</v>
+        <v>166300</v>
       </c>
       <c r="G54" s="3">
-        <v>118300</v>
+        <v>99600</v>
       </c>
       <c r="H54" s="3">
-        <v>121300</v>
+        <v>114400</v>
       </c>
       <c r="I54" s="3">
-        <v>132500</v>
+        <v>117300</v>
       </c>
       <c r="J54" s="3">
+        <v>128200</v>
+      </c>
+      <c r="K54" s="3">
         <v>141900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>173400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>170500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>185400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>188300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>182300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>181800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>127600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>139400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>26900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>29800</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,64 +3795,65 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10400</v>
+        <v>13000</v>
       </c>
       <c r="E57" s="3">
-        <v>8300</v>
+        <v>10100</v>
       </c>
       <c r="F57" s="3">
-        <v>9600</v>
+        <v>8000</v>
       </c>
       <c r="G57" s="3">
-        <v>11700</v>
+        <v>9300</v>
       </c>
       <c r="H57" s="3">
-        <v>12400</v>
+        <v>11300</v>
       </c>
       <c r="I57" s="3">
-        <v>12200</v>
+        <v>12000</v>
       </c>
       <c r="J57" s="3">
+        <v>11800</v>
+      </c>
+      <c r="K57" s="3">
         <v>14500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>14300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5000</v>
-      </c>
-      <c r="S57" s="3">
-        <v>2800</v>
       </c>
       <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
+      <c r="U57" s="3">
+        <v>2800</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,7 +3882,7 @@
         <v>400</v>
       </c>
       <c r="G58" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
@@ -3760,17 +3894,17 @@
         <v>600</v>
       </c>
       <c r="K58" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
       </c>
       <c r="M58" s="3">
+        <v>400</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3780,8 +3914,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3801,64 +3935,67 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
-        <v>1800</v>
-      </c>
       <c r="G59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
-        <v>1600</v>
-      </c>
       <c r="I59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
-      </c>
-      <c r="S59" s="3">
-        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
+      <c r="U59" s="3">
+        <v>200</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
@@ -3869,64 +4006,67 @@
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11800</v>
+        <v>14600</v>
       </c>
       <c r="E60" s="3">
-        <v>9600</v>
+        <v>11400</v>
       </c>
       <c r="F60" s="3">
-        <v>11800</v>
+        <v>9300</v>
       </c>
       <c r="G60" s="3">
-        <v>13400</v>
+        <v>11400</v>
       </c>
       <c r="H60" s="3">
-        <v>14600</v>
+        <v>12900</v>
       </c>
       <c r="I60" s="3">
-        <v>13700</v>
+        <v>14100</v>
       </c>
       <c r="J60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="K60" s="3">
         <v>16400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>21700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>3000</v>
       </c>
       <c r="T60" s="3">
         <v>3000</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
+      <c r="U60" s="3">
+        <v>3000</v>
       </c>
       <c r="V60" s="3" t="s">
         <v>4</v>
@@ -3937,44 +4077,47 @@
       <c r="X60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="E61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>300</v>
       </c>
       <c r="J61" s="3">
+        <v>300</v>
+      </c>
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3988,14 +4131,14 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>64400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>63500</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4005,19 +4148,22 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -4028,11 +4174,11 @@
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
         <v>100</v>
@@ -4050,7 +4196,7 @@
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4061,8 +4207,8 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,65 +4432,68 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13300</v>
+        <v>16000</v>
       </c>
       <c r="E66" s="3">
-        <v>9800</v>
+        <v>12900</v>
       </c>
       <c r="F66" s="3">
-        <v>12100</v>
+        <v>9500</v>
       </c>
       <c r="G66" s="3">
-        <v>13600</v>
+        <v>11700</v>
       </c>
       <c r="H66" s="3">
-        <v>14900</v>
+        <v>13100</v>
       </c>
       <c r="I66" s="3">
-        <v>14000</v>
+        <v>14400</v>
       </c>
       <c r="J66" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K66" s="3">
         <v>16800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>67500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>66500</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,65 +4814,68 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-187100</v>
+        <v>-193300</v>
       </c>
       <c r="E72" s="3">
-        <v>-171000</v>
+        <v>-181000</v>
       </c>
       <c r="F72" s="3">
-        <v>-165900</v>
+        <v>-165400</v>
       </c>
       <c r="G72" s="3">
-        <v>-155800</v>
+        <v>-160400</v>
       </c>
       <c r="H72" s="3">
-        <v>-147100</v>
+        <v>-150700</v>
       </c>
       <c r="I72" s="3">
-        <v>-136000</v>
+        <v>-142300</v>
       </c>
       <c r="J72" s="3">
+        <v>-131500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-127500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-118500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-98800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-84400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-74300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>172100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>174200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>119900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>130800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-40200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-36300</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,65 +5098,68 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>144300</v>
+        <v>130100</v>
       </c>
       <c r="E76" s="3">
-        <v>162100</v>
+        <v>139600</v>
       </c>
       <c r="F76" s="3">
-        <v>90900</v>
+        <v>156800</v>
       </c>
       <c r="G76" s="3">
-        <v>104700</v>
+        <v>87900</v>
       </c>
       <c r="H76" s="3">
-        <v>106400</v>
+        <v>101300</v>
       </c>
       <c r="I76" s="3">
-        <v>118500</v>
+        <v>102900</v>
       </c>
       <c r="J76" s="3">
+        <v>114600</v>
+      </c>
+      <c r="K76" s="3">
         <v>125100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>150900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>154000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>174600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>179100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>175600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>177600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>123000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>134000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-40600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-36700</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-17300</v>
+        <v>-13600</v>
       </c>
       <c r="E81" s="3">
-        <v>-7200</v>
+        <v>-16700</v>
       </c>
       <c r="F81" s="3">
-        <v>-10300</v>
+        <v>-6900</v>
       </c>
       <c r="G81" s="3">
-        <v>-8000</v>
+        <v>-10000</v>
       </c>
       <c r="H81" s="3">
-        <v>-11700</v>
+        <v>-7700</v>
       </c>
       <c r="I81" s="3">
-        <v>-9600</v>
+        <v>-11300</v>
       </c>
       <c r="J81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-15900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-17800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-29500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-12200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-13100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-10500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5245,13 +5444,13 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -5260,7 +5459,7 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5283,11 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9200</v>
+        <v>-11200</v>
       </c>
       <c r="E89" s="3">
-        <v>-12200</v>
+        <v>-8900</v>
       </c>
       <c r="F89" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="G89" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="L89" s="3">
+        <v>300</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-10000</v>
       </c>
-      <c r="H89" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-12300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-18900</v>
-      </c>
-      <c r="K89" s="3">
-        <v>300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-32000</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1500</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5735,11 +5956,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -5747,25 +5968,25 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-300</v>
       </c>
       <c r="N91" s="3">
         <v>-300</v>
       </c>
       <c r="O91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
@@ -5774,22 +5995,25 @@
         <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,52 +6151,55 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>3500</v>
+        <v>6500</v>
       </c>
       <c r="E94" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
-        <v>-9200</v>
-      </c>
       <c r="G94" s="3">
-        <v>37200</v>
+        <v>-8900</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3200</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="K94" s="3">
         <v>27100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>19800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>7100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-107500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
@@ -5978,22 +6208,25 @@
         <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6533,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,118 +6545,121 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>72100</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>69800</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>10400</v>
-      </c>
       <c r="H100" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-100</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>54000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>120400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>1800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>36200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>36300</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1700</v>
+        <v>2100</v>
       </c>
       <c r="E101" s="3">
-        <v>2800</v>
+        <v>-1600</v>
       </c>
       <c r="F101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
-        <v>1500</v>
-      </c>
       <c r="J101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2600</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -6423,75 +6672,81 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-      <c r="X101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-7400</v>
+        <v>-2700</v>
       </c>
       <c r="E102" s="3">
-        <v>61600</v>
+        <v>-7200</v>
       </c>
       <c r="F102" s="3">
-        <v>-22000</v>
+        <v>59600</v>
       </c>
       <c r="G102" s="3">
-        <v>36600</v>
+        <v>-21300</v>
       </c>
       <c r="H102" s="3">
-        <v>-8900</v>
+        <v>35400</v>
       </c>
       <c r="I102" s="3">
-        <v>-14100</v>
+        <v>-8600</v>
       </c>
       <c r="J102" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K102" s="3">
         <v>7100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-9800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-110400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>44800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>113500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>30300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>34700</v>
       </c>
-      <c r="X102" s="3" t="s">
+      <c r="Y102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
@@ -1011,25 +1011,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10600</v>
+        <v>10200</v>
       </c>
       <c r="E12" s="3">
-        <v>12800</v>
+        <v>12300</v>
       </c>
       <c r="F12" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="G12" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="H12" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="I12" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="J12" s="3">
-        <v>8200</v>
+        <v>8000</v>
       </c>
       <c r="K12" s="3">
         <v>12800</v>
@@ -1319,25 +1319,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14400</v>
+        <v>13900</v>
       </c>
       <c r="E17" s="3">
-        <v>15800</v>
+        <v>15300</v>
       </c>
       <c r="F17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G17" s="3">
         <v>8900</v>
       </c>
-      <c r="G17" s="3">
-        <v>9200</v>
-      </c>
       <c r="H17" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="I17" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="J17" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="K17" s="3">
         <v>16200</v>
@@ -1393,22 +1393,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-15800</v>
+        <v>-15300</v>
       </c>
       <c r="F18" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-8900</v>
       </c>
-      <c r="G18" s="3">
-        <v>-9200</v>
-      </c>
       <c r="H18" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="I18" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="J18" s="3">
-        <v>-11000</v>
+        <v>-10700</v>
       </c>
       <c r="K18" s="3">
         <v>-16200</v>
@@ -1497,7 +1497,7 @@
         <v>2000</v>
       </c>
       <c r="G20" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="H20" s="3">
         <v>-500</v>
@@ -1562,22 +1562,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-16500</v>
+        <v>-15900</v>
       </c>
       <c r="F21" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="G21" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="H21" s="3">
-        <v>-7500</v>
+        <v>-7300</v>
       </c>
       <c r="I21" s="3">
-        <v>-11100</v>
+        <v>-10800</v>
       </c>
       <c r="J21" s="3">
-        <v>-9100</v>
+        <v>-8800</v>
       </c>
       <c r="K21" s="3">
         <v>-15700</v>
@@ -1701,25 +1701,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-13600</v>
+        <v>-13200</v>
       </c>
       <c r="E23" s="3">
-        <v>-16700</v>
+        <v>-16100</v>
       </c>
       <c r="F23" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="G23" s="3">
-        <v>-10000</v>
+        <v>-9700</v>
       </c>
       <c r="H23" s="3">
-        <v>-7700</v>
+        <v>-7500</v>
       </c>
       <c r="I23" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="J23" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="K23" s="3">
         <v>-15900</v>
@@ -1914,25 +1914,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-13600</v>
+        <v>-13200</v>
       </c>
       <c r="E26" s="3">
-        <v>-16700</v>
+        <v>-16100</v>
       </c>
       <c r="F26" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="G26" s="3">
-        <v>-10000</v>
+        <v>-9700</v>
       </c>
       <c r="H26" s="3">
-        <v>-7700</v>
+        <v>-7500</v>
       </c>
       <c r="I26" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="J26" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="K26" s="3">
         <v>-15900</v>
@@ -1985,25 +1985,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13600</v>
+        <v>-13200</v>
       </c>
       <c r="E27" s="3">
-        <v>-16700</v>
+        <v>-16100</v>
       </c>
       <c r="F27" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="G27" s="3">
-        <v>-10000</v>
+        <v>-9700</v>
       </c>
       <c r="H27" s="3">
-        <v>-7700</v>
+        <v>-7500</v>
       </c>
       <c r="I27" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="J27" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="K27" s="3">
         <v>-15900</v>
@@ -2349,7 +2349,7 @@
         <v>-2000</v>
       </c>
       <c r="G32" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H32" s="3">
         <v>500</v>
@@ -2411,25 +2411,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13600</v>
+        <v>-13200</v>
       </c>
       <c r="E33" s="3">
-        <v>-16700</v>
+        <v>-16100</v>
       </c>
       <c r="F33" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="G33" s="3">
-        <v>-10000</v>
+        <v>-9700</v>
       </c>
       <c r="H33" s="3">
-        <v>-7700</v>
+        <v>-7500</v>
       </c>
       <c r="I33" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="J33" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="K33" s="3">
         <v>-15900</v>
@@ -2553,25 +2553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13600</v>
+        <v>-13200</v>
       </c>
       <c r="E35" s="3">
-        <v>-16700</v>
+        <v>-16100</v>
       </c>
       <c r="F35" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="G35" s="3">
-        <v>-10000</v>
+        <v>-9700</v>
       </c>
       <c r="H35" s="3">
-        <v>-7700</v>
+        <v>-7500</v>
       </c>
       <c r="I35" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="J35" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="K35" s="3">
         <v>-15900</v>
@@ -2754,22 +2754,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="E41" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="F41" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="G41" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H41" s="3">
-        <v>50200</v>
+        <v>48500</v>
       </c>
       <c r="I41" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="J41" s="3">
         <v>1700</v>
@@ -2825,25 +2825,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>92800</v>
+        <v>89700</v>
       </c>
       <c r="E42" s="3">
-        <v>131300</v>
+        <v>126900</v>
       </c>
       <c r="F42" s="3">
-        <v>146300</v>
+        <v>141400</v>
       </c>
       <c r="G42" s="3">
-        <v>89900</v>
+        <v>86800</v>
       </c>
       <c r="H42" s="3">
-        <v>57500</v>
+        <v>55600</v>
       </c>
       <c r="I42" s="3">
-        <v>106800</v>
+        <v>103200</v>
       </c>
       <c r="J42" s="3">
-        <v>119900</v>
+        <v>115900</v>
       </c>
       <c r="K42" s="3">
         <v>32500</v>
@@ -2899,13 +2899,13 @@
         <v>1000</v>
       </c>
       <c r="E43" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F43" s="3">
         <v>1500</v>
       </c>
       <c r="G43" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -3038,25 +3038,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="E45" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="F45" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="G45" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="H45" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="I45" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="J45" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="K45" s="3">
         <v>100200</v>
@@ -3109,25 +3109,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>113200</v>
+        <v>109400</v>
       </c>
       <c r="E46" s="3">
-        <v>149300</v>
+        <v>144200</v>
       </c>
       <c r="F46" s="3">
-        <v>164200</v>
+        <v>158700</v>
       </c>
       <c r="G46" s="3">
-        <v>97400</v>
+        <v>94100</v>
       </c>
       <c r="H46" s="3">
-        <v>112000</v>
+        <v>108200</v>
       </c>
       <c r="I46" s="3">
-        <v>114700</v>
+        <v>110800</v>
       </c>
       <c r="J46" s="3">
-        <v>125400</v>
+        <v>121200</v>
       </c>
       <c r="K46" s="3">
         <v>138900</v>
@@ -3180,7 +3180,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>30200</v>
+        <v>29100</v>
       </c>
       <c r="E47" s="3">
         <v>300</v>
@@ -3254,22 +3254,22 @@
         <v>2000</v>
       </c>
       <c r="E48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F48" s="3">
         <v>900</v>
       </c>
       <c r="G48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H48" s="3">
         <v>1200</v>
       </c>
       <c r="I48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J48" s="3">
         <v>1400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1500</v>
       </c>
       <c r="K48" s="3">
         <v>1600</v>
@@ -3328,7 +3328,7 @@
         <v>300</v>
       </c>
       <c r="F49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
@@ -3337,7 +3337,7 @@
         <v>400</v>
       </c>
       <c r="I49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>500</v>
@@ -3677,25 +3677,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>146100</v>
+        <v>141100</v>
       </c>
       <c r="E54" s="3">
-        <v>152500</v>
+        <v>147300</v>
       </c>
       <c r="F54" s="3">
-        <v>166300</v>
+        <v>160600</v>
       </c>
       <c r="G54" s="3">
-        <v>99600</v>
+        <v>96200</v>
       </c>
       <c r="H54" s="3">
-        <v>114400</v>
+        <v>110500</v>
       </c>
       <c r="I54" s="3">
-        <v>117300</v>
+        <v>113300</v>
       </c>
       <c r="J54" s="3">
-        <v>128200</v>
+        <v>123800</v>
       </c>
       <c r="K54" s="3">
         <v>141900</v>
@@ -3802,25 +3802,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="E57" s="3">
-        <v>10100</v>
+        <v>9700</v>
       </c>
       <c r="F57" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="G57" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="H57" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="I57" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="J57" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="K57" s="3">
         <v>14500</v>
@@ -3947,16 +3947,16 @@
         <v>1200</v>
       </c>
       <c r="E59" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F59" s="3">
         <v>900</v>
       </c>
       <c r="G59" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H59" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I59" s="3">
         <v>1500</v>
@@ -4015,25 +4015,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14600</v>
+        <v>14100</v>
       </c>
       <c r="E60" s="3">
-        <v>11400</v>
+        <v>11100</v>
       </c>
       <c r="F60" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="G60" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="H60" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="I60" s="3">
-        <v>14100</v>
+        <v>13600</v>
       </c>
       <c r="J60" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="K60" s="3">
         <v>16400</v>
@@ -4441,25 +4441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16000</v>
+        <v>15400</v>
       </c>
       <c r="E66" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="F66" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="G66" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="H66" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J66" s="3">
         <v>13100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>14400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>13500</v>
       </c>
       <c r="K66" s="3">
         <v>16800</v>
@@ -4823,25 +4823,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-193300</v>
+        <v>-186800</v>
       </c>
       <c r="E72" s="3">
-        <v>-181000</v>
+        <v>-174900</v>
       </c>
       <c r="F72" s="3">
-        <v>-165400</v>
+        <v>-159800</v>
       </c>
       <c r="G72" s="3">
-        <v>-160400</v>
+        <v>-155000</v>
       </c>
       <c r="H72" s="3">
-        <v>-150700</v>
+        <v>-145600</v>
       </c>
       <c r="I72" s="3">
-        <v>-142300</v>
+        <v>-137500</v>
       </c>
       <c r="J72" s="3">
-        <v>-131500</v>
+        <v>-127100</v>
       </c>
       <c r="K72" s="3">
         <v>-127500</v>
@@ -5107,25 +5107,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>130100</v>
+        <v>125700</v>
       </c>
       <c r="E76" s="3">
-        <v>139600</v>
+        <v>134800</v>
       </c>
       <c r="F76" s="3">
-        <v>156800</v>
+        <v>151500</v>
       </c>
       <c r="G76" s="3">
-        <v>87900</v>
+        <v>84900</v>
       </c>
       <c r="H76" s="3">
-        <v>101300</v>
+        <v>97800</v>
       </c>
       <c r="I76" s="3">
-        <v>102900</v>
+        <v>99400</v>
       </c>
       <c r="J76" s="3">
-        <v>114600</v>
+        <v>110800</v>
       </c>
       <c r="K76" s="3">
         <v>125100</v>
@@ -5325,25 +5325,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13600</v>
+        <v>-13200</v>
       </c>
       <c r="E81" s="3">
-        <v>-16700</v>
+        <v>-16100</v>
       </c>
       <c r="F81" s="3">
-        <v>-6900</v>
+        <v>-6700</v>
       </c>
       <c r="G81" s="3">
-        <v>-10000</v>
+        <v>-9700</v>
       </c>
       <c r="H81" s="3">
-        <v>-7700</v>
+        <v>-7500</v>
       </c>
       <c r="I81" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="J81" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="K81" s="3">
         <v>-15900</v>
@@ -5849,25 +5849,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11200</v>
+        <v>-10900</v>
       </c>
       <c r="E89" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="F89" s="3">
-        <v>-11800</v>
+        <v>-11400</v>
       </c>
       <c r="G89" s="3">
-        <v>-11000</v>
+        <v>-10600</v>
       </c>
       <c r="H89" s="3">
-        <v>-9700</v>
+        <v>-9400</v>
       </c>
       <c r="I89" s="3">
-        <v>-8700</v>
+        <v>-8400</v>
       </c>
       <c r="J89" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="K89" s="3">
         <v>-18900</v>
@@ -6160,25 +6160,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="E94" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="G94" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="H94" s="3">
-        <v>36000</v>
+        <v>34800</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K94" s="3">
         <v>27100</v>
@@ -6548,16 +6548,16 @@
         <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>69800</v>
+        <v>67400</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="I100" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
@@ -6622,7 +6622,7 @@
         <v>2700</v>
       </c>
       <c r="G101" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="H101" s="3">
         <v>-1000</v>
@@ -6684,25 +6684,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="E102" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="F102" s="3">
-        <v>59600</v>
+        <v>57600</v>
       </c>
       <c r="G102" s="3">
-        <v>-21300</v>
+        <v>-20600</v>
       </c>
       <c r="H102" s="3">
-        <v>35400</v>
+        <v>34200</v>
       </c>
       <c r="I102" s="3">
-        <v>-8600</v>
+        <v>-8300</v>
       </c>
       <c r="J102" s="3">
-        <v>-13600</v>
+        <v>-13100</v>
       </c>
       <c r="K102" s="3">
         <v>7100</v>

--- a/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>IFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,115 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,8 +843,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10200</v>
+        <v>10900</v>
       </c>
       <c r="E12" s="3">
-        <v>12300</v>
+        <v>10500</v>
       </c>
       <c r="F12" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G12" s="3">
+        <v>11700</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J12" s="3">
         <v>5400</v>
       </c>
-      <c r="G12" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>5700</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>8000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>8000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>12800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>16400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>23800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>9200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>10700</v>
-      </c>
-      <c r="P12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>5500</v>
       </c>
       <c r="R12" s="3">
         <v>6000</v>
       </c>
       <c r="S12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="T12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="U12" s="3">
         <v>7100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>2900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>3500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>2800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>6200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,79 +1364,87 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13900</v>
+        <v>15400</v>
       </c>
       <c r="E17" s="3">
-        <v>15300</v>
+        <v>13500</v>
       </c>
       <c r="F17" s="3">
-        <v>8600</v>
+        <v>13200</v>
       </c>
       <c r="G17" s="3">
+        <v>14500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K17" s="3">
+        <v>10500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>10700</v>
+      </c>
+      <c r="M17" s="3">
+        <v>16200</v>
+      </c>
+      <c r="N17" s="3">
+        <v>19300</v>
+      </c>
+      <c r="O17" s="3">
+        <v>31900</v>
+      </c>
+      <c r="P17" s="3">
+        <v>13100</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>14800</v>
+      </c>
+      <c r="R17" s="3">
+        <v>9300</v>
+      </c>
+      <c r="S17" s="3">
         <v>8900</v>
       </c>
-      <c r="H17" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>10500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>10700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>16200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>19300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>31900</v>
-      </c>
-      <c r="N17" s="3">
-        <v>13100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>14800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>9300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>8900</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>9200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>10600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>4300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>8100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,70 +1452,76 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-15300</v>
+        <v>-13500</v>
       </c>
       <c r="F18" s="3">
-        <v>-8600</v>
+        <v>-13200</v>
       </c>
       <c r="G18" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-8900</v>
       </c>
-      <c r="H18" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-16200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-31900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-9200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-10600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-3600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-4300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-3500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-8100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,70 +1558,76 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>700</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S20" s="3">
+        <v>6300</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="W20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="X20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>2400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>2700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>6300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-900</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1562,70 +1635,76 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-15900</v>
+        <v>-13000</v>
       </c>
       <c r="F21" s="3">
-        <v>-6500</v>
+        <v>-12300</v>
       </c>
       <c r="G21" s="3">
-        <v>-9500</v>
+        <v>-15200</v>
       </c>
       <c r="H21" s="3">
-        <v>-7300</v>
+        <v>-6200</v>
       </c>
       <c r="I21" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-10800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-8800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-15700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-17700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-29000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-11600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-12100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-2700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-11300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-13100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-4500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-5200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-4400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-10500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1638,11 +1717,11 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1650,11 +1729,11 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1695,79 +1774,91 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-13200</v>
+        <v>-14500</v>
       </c>
       <c r="E23" s="3">
-        <v>-16100</v>
+        <v>-13100</v>
       </c>
       <c r="F23" s="3">
-        <v>-6700</v>
+        <v>-12500</v>
       </c>
       <c r="G23" s="3">
-        <v>-9700</v>
+        <v>-15300</v>
       </c>
       <c r="H23" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-7500</v>
       </c>
-      <c r="I23" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-11300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-13100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-5200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-4500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-10500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-13200</v>
+        <v>-14500</v>
       </c>
       <c r="E26" s="3">
-        <v>-16100</v>
+        <v>-13100</v>
       </c>
       <c r="F26" s="3">
-        <v>-6700</v>
+        <v>-12500</v>
       </c>
       <c r="G26" s="3">
-        <v>-9700</v>
+        <v>-15300</v>
       </c>
       <c r="H26" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-7500</v>
       </c>
-      <c r="I26" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-11300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-13100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-5200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-4500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-10500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-13200</v>
+        <v>-14500</v>
       </c>
       <c r="E27" s="3">
-        <v>-16100</v>
+        <v>-13100</v>
       </c>
       <c r="F27" s="3">
-        <v>-6700</v>
+        <v>-12500</v>
       </c>
       <c r="G27" s="3">
-        <v>-9700</v>
+        <v>-15300</v>
       </c>
       <c r="H27" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-7500</v>
       </c>
-      <c r="I27" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-11300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-13100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-5200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-4500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-10500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,141 +2482,153 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G32" s="3">
+        <v>800</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>500</v>
+      </c>
+      <c r="K32" s="3">
+        <v>500</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="T32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="V32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="W32" s="3">
+        <v>900</v>
+      </c>
+      <c r="X32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
-        <v>500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>2600</v>
-      </c>
-      <c r="T32" s="3">
-        <v>900</v>
-      </c>
-      <c r="U32" s="3">
-        <v>900</v>
-      </c>
-      <c r="V32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W32" s="3">
-        <v>2400</v>
-      </c>
-      <c r="X32" s="3">
-        <v>700</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-13200</v>
+        <v>-14500</v>
       </c>
       <c r="E33" s="3">
-        <v>-16100</v>
+        <v>-13100</v>
       </c>
       <c r="F33" s="3">
-        <v>-6700</v>
+        <v>-12500</v>
       </c>
       <c r="G33" s="3">
-        <v>-9700</v>
+        <v>-15300</v>
       </c>
       <c r="H33" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-7500</v>
       </c>
-      <c r="I33" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-11300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-13100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-5200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-4500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-10500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-13200</v>
+        <v>-14500</v>
       </c>
       <c r="E35" s="3">
-        <v>-16100</v>
+        <v>-13100</v>
       </c>
       <c r="F35" s="3">
-        <v>-6700</v>
+        <v>-12500</v>
       </c>
       <c r="G35" s="3">
-        <v>-9700</v>
+        <v>-15300</v>
       </c>
       <c r="H35" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-7500</v>
       </c>
-      <c r="I35" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-11300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-13100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-5200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-4500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-10500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,127 +2919,135 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12800</v>
+        <v>33200</v>
       </c>
       <c r="E41" s="3">
-        <v>11900</v>
+        <v>14200</v>
       </c>
       <c r="F41" s="3">
-        <v>8700</v>
+        <v>12200</v>
       </c>
       <c r="G41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H41" s="3">
+        <v>8300</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
-        <v>48500</v>
-      </c>
-      <c r="I41" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>63600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>7100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>26600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>62400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>171400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>126500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>138300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>24800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>28400</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>89700</v>
+        <v>60200</v>
       </c>
       <c r="E42" s="3">
-        <v>126900</v>
+        <v>72400</v>
       </c>
       <c r="F42" s="3">
-        <v>141400</v>
+        <v>85300</v>
       </c>
       <c r="G42" s="3">
-        <v>86800</v>
+        <v>120700</v>
       </c>
       <c r="H42" s="3">
-        <v>55600</v>
+        <v>134500</v>
       </c>
       <c r="I42" s="3">
+        <v>82600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>52900</v>
+      </c>
+      <c r="K42" s="3">
         <v>103200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>115900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>32500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>27700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3">
         <v>49300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>38900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>60000</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2878,11 +3057,11 @@
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -2890,29 +3069,35 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2925,11 +3110,11 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2961,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,161 +3223,179 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5900</v>
+        <v>13000</v>
       </c>
       <c r="E45" s="3">
-        <v>4500</v>
+        <v>11400</v>
       </c>
       <c r="F45" s="3">
-        <v>7100</v>
+        <v>5600</v>
       </c>
       <c r="G45" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H45" s="3">
-        <v>4100</v>
+        <v>6800</v>
       </c>
       <c r="I45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>3600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>100200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>136800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>104100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>126600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>121600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>1800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>9800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>1200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>109400</v>
+        <v>107600</v>
       </c>
       <c r="E46" s="3">
-        <v>144200</v>
+        <v>99300</v>
       </c>
       <c r="F46" s="3">
-        <v>158700</v>
+        <v>104100</v>
       </c>
       <c r="G46" s="3">
-        <v>94100</v>
+        <v>137200</v>
       </c>
       <c r="H46" s="3">
-        <v>108200</v>
+        <v>151000</v>
       </c>
       <c r="I46" s="3">
+        <v>89600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>103000</v>
+      </c>
+      <c r="K46" s="3">
         <v>110800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>121200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>138900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>169900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>167700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>183000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>187100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>124200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>181200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>127300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>139100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>26700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>29600</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>29100</v>
+        <v>9600</v>
       </c>
       <c r="E47" s="3">
-        <v>300</v>
+        <v>28200</v>
       </c>
       <c r="F47" s="3">
-        <v>300</v>
+        <v>27700</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
@@ -3213,31 +3422,31 @@
         <v>300</v>
       </c>
       <c r="O47" s="3">
+        <v>300</v>
+      </c>
+      <c r="P47" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q47" s="3">
         <v>200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>57400</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>100</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
@@ -3245,141 +3454,153 @@
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>100</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F49" s="3">
         <v>300</v>
       </c>
       <c r="G49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I49" s="3">
         <v>400</v>
       </c>
       <c r="J49" s="3">
+        <v>400</v>
+      </c>
+      <c r="K49" s="3">
+        <v>400</v>
+      </c>
+      <c r="L49" s="3">
         <v>500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>500</v>
-      </c>
-      <c r="L49" s="3">
-        <v>600</v>
       </c>
       <c r="M49" s="3">
         <v>500</v>
       </c>
       <c r="N49" s="3">
+        <v>600</v>
+      </c>
+      <c r="O49" s="3">
+        <v>500</v>
+      </c>
+      <c r="P49" s="3">
         <v>400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>300</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>100</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>4</v>
@@ -3387,8 +3608,14 @@
       <c r="Y49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,16 +3762,22 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -3550,37 +3789,37 @@
         <v>400</v>
       </c>
       <c r="I52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>500</v>
       </c>
       <c r="L52" s="3">
+        <v>500</v>
+      </c>
+      <c r="M52" s="3">
+        <v>500</v>
+      </c>
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
@@ -3588,11 +3827,11 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3600,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>141100</v>
+        <v>119400</v>
       </c>
       <c r="E54" s="3">
-        <v>147300</v>
+        <v>129900</v>
       </c>
       <c r="F54" s="3">
-        <v>160600</v>
+        <v>134300</v>
       </c>
       <c r="G54" s="3">
-        <v>96200</v>
+        <v>140100</v>
       </c>
       <c r="H54" s="3">
-        <v>110500</v>
+        <v>152800</v>
       </c>
       <c r="I54" s="3">
+        <v>91600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>105200</v>
+      </c>
+      <c r="K54" s="3">
         <v>113300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>123800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>141900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>173400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>170500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>185400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>188300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>182300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>181800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>127600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>139400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>26900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>29800</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,79 +4055,87 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12600</v>
+        <v>9900</v>
       </c>
       <c r="E57" s="3">
-        <v>9700</v>
+        <v>8900</v>
       </c>
       <c r="F57" s="3">
-        <v>7800</v>
+        <v>12000</v>
       </c>
       <c r="G57" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="H57" s="3">
-        <v>10900</v>
+        <v>7400</v>
       </c>
       <c r="I57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K57" s="3">
         <v>11600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>11400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>14500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>20300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>14300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>8400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2800</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3885,43 +4152,43 @@
         <v>400</v>
       </c>
       <c r="H58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>600</v>
       </c>
       <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -3938,164 +4205,182 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>900</v>
+      </c>
+      <c r="H59" s="3">
+        <v>800</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L59" s="3">
+        <v>800</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
-        <v>900</v>
-      </c>
-      <c r="F59" s="3">
-        <v>900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>5100</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1700</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14100</v>
+        <v>19700</v>
       </c>
       <c r="E60" s="3">
-        <v>11100</v>
+        <v>19500</v>
       </c>
       <c r="F60" s="3">
-        <v>9000</v>
+        <v>13400</v>
       </c>
       <c r="G60" s="3">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="H60" s="3">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="I60" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K60" s="3">
         <v>13600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>12800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>16400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>21700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>15700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>10100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>9200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>6600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3000</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G61" s="3">
         <v>1300</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -4104,26 +4389,26 @@
         <v>300</v>
       </c>
       <c r="J61" s="3">
+        <v>200</v>
+      </c>
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>300</v>
+      </c>
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4134,42 +4419,48 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>64400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>63500</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -4177,14 +4468,14 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>100</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
@@ -4199,10 +4490,10 @@
         <v>100</v>
       </c>
       <c r="R62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4210,11 +4501,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
       </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
@@ -4222,8 +4513,14 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15400</v>
+        <v>20700</v>
       </c>
       <c r="E66" s="3">
-        <v>12500</v>
+        <v>20600</v>
       </c>
       <c r="F66" s="3">
-        <v>9200</v>
+        <v>14700</v>
       </c>
       <c r="G66" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="H66" s="3">
-        <v>12700</v>
+        <v>8700</v>
       </c>
       <c r="I66" s="3">
+        <v>10700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K66" s="3">
         <v>13900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>13100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>16800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>22500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>67500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>66500</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-186800</v>
+        <v>-202200</v>
       </c>
       <c r="E72" s="3">
-        <v>-174900</v>
+        <v>-190300</v>
       </c>
       <c r="F72" s="3">
-        <v>-159800</v>
+        <v>-177700</v>
       </c>
       <c r="G72" s="3">
-        <v>-155000</v>
+        <v>-166400</v>
       </c>
       <c r="H72" s="3">
-        <v>-145600</v>
+        <v>-152000</v>
       </c>
       <c r="I72" s="3">
+        <v>-147500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-138500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-137500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-127100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-127500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-118500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-98800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-84400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-74300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>172100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>174200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>119900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>130800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-40200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-36300</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>125700</v>
+        <v>98700</v>
       </c>
       <c r="E76" s="3">
-        <v>134800</v>
+        <v>109300</v>
       </c>
       <c r="F76" s="3">
-        <v>151500</v>
+        <v>119600</v>
       </c>
       <c r="G76" s="3">
-        <v>84900</v>
+        <v>128300</v>
       </c>
       <c r="H76" s="3">
-        <v>97800</v>
+        <v>144100</v>
       </c>
       <c r="I76" s="3">
+        <v>80800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>93100</v>
+      </c>
+      <c r="K76" s="3">
         <v>99400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>110800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>125100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>150900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>154000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>174600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>179100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>175600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>177600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>123000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>134000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-40600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-36700</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-13200</v>
+        <v>-14500</v>
       </c>
       <c r="E81" s="3">
-        <v>-16100</v>
+        <v>-13100</v>
       </c>
       <c r="F81" s="3">
-        <v>-6700</v>
+        <v>-12500</v>
       </c>
       <c r="G81" s="3">
-        <v>-9700</v>
+        <v>-15300</v>
       </c>
       <c r="H81" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-7500</v>
       </c>
-      <c r="I81" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-11300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-13100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-5200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-4500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-10500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5447,25 +5844,25 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
@@ -5485,11 +5882,17 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-10900</v>
+        <v>-13300</v>
       </c>
       <c r="E89" s="3">
-        <v>-8600</v>
+        <v>-12200</v>
       </c>
       <c r="F89" s="3">
-        <v>-11400</v>
+        <v>-10300</v>
       </c>
       <c r="G89" s="3">
-        <v>-10600</v>
+        <v>-8100</v>
       </c>
       <c r="H89" s="3">
-        <v>-9400</v>
+        <v>-10800</v>
       </c>
       <c r="I89" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-8400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-11500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-18900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-32000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-10200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-10000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-5900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-6300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-4200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-3600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-2800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-3200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-5900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5959,61 +6400,67 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>-300</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>6300</v>
+        <v>27500</v>
       </c>
       <c r="E94" s="3">
-        <v>3300</v>
+        <v>-34900</v>
       </c>
       <c r="F94" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G94" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
-        <v>-8600</v>
-      </c>
-      <c r="H94" s="3">
-        <v>34800</v>
-      </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-8100</v>
       </c>
       <c r="J94" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>27100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-24200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>19800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>7100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-107500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-100</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6545,127 +7036,133 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
-      </c>
-      <c r="F100" s="3">
-        <v>67400</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>9800</v>
+        <v>64100</v>
       </c>
       <c r="I100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>54000</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>120400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>1800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>36200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>36300</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2100</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
-        <v>-1600</v>
+        <v>1800</v>
       </c>
       <c r="F101" s="3">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="G101" s="3">
-        <v>-1300</v>
+        <v>-1500</v>
       </c>
       <c r="H101" s="3">
-        <v>-1000</v>
+        <v>2500</v>
       </c>
       <c r="I101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>1400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>1800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>5800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-2400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-2600</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
@@ -6675,78 +7172,90 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-      <c r="Y101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2600</v>
+        <v>14400</v>
       </c>
       <c r="E102" s="3">
-        <v>-7000</v>
+        <v>-45400</v>
       </c>
       <c r="F102" s="3">
-        <v>57600</v>
+        <v>-2500</v>
       </c>
       <c r="G102" s="3">
-        <v>-20600</v>
+        <v>-6600</v>
       </c>
       <c r="H102" s="3">
-        <v>34200</v>
+        <v>54800</v>
       </c>
       <c r="I102" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="J102" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-13100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>7100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-23100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-11200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-9800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-110400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>44800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-8800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>113500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-3600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-2800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>30300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>34700</v>
       </c>
-      <c r="Y102" s="3" t="s">
+      <c r="AA102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>IFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>10900</v>
+        <v>11200</v>
       </c>
       <c r="E12" s="3">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="F12" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="G12" s="3">
-        <v>11700</v>
+        <v>9300</v>
       </c>
       <c r="H12" s="3">
-        <v>5100</v>
+        <v>11300</v>
       </c>
       <c r="I12" s="3">
-        <v>6000</v>
+        <v>4900</v>
       </c>
       <c r="J12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K12" s="3">
         <v>5400</v>
-      </c>
-      <c r="K12" s="3">
-        <v>8000</v>
       </c>
       <c r="L12" s="3">
         <v>8000</v>
       </c>
       <c r="M12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="N12" s="3">
         <v>12800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>16400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>9200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>2900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>3500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>2800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,85 +1392,89 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>15400</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
-        <v>13500</v>
+        <v>14800</v>
       </c>
       <c r="F17" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="G17" s="3">
-        <v>14500</v>
+        <v>12700</v>
       </c>
       <c r="H17" s="3">
+        <v>13900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="J17" s="3">
         <v>8200</v>
       </c>
-      <c r="I17" s="3">
-        <v>8500</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>16200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>19300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>31900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>13100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>14800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>9200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>10600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1482,79 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-13500</v>
+        <v>-14800</v>
       </c>
       <c r="F18" s="3">
-        <v>-13200</v>
+        <v>-13000</v>
       </c>
       <c r="G18" s="3">
-        <v>-14500</v>
+        <v>-12700</v>
       </c>
       <c r="H18" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="J18" s="3">
         <v>-8200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-19300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-31900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-14800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-10600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-4300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-8100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,76 +1592,79 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
-        <v>1900</v>
-      </c>
       <c r="I20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-500</v>
       </c>
       <c r="K20" s="3">
         <v>-500</v>
       </c>
       <c r="L20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-900</v>
       </c>
       <c r="W20" s="3">
         <v>-900</v>
       </c>
       <c r="X20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,76 +1672,79 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-13000</v>
+        <v>-13800</v>
       </c>
       <c r="F21" s="3">
-        <v>-12300</v>
+        <v>-12500</v>
       </c>
       <c r="G21" s="3">
-        <v>-15200</v>
+        <v>-11800</v>
       </c>
       <c r="H21" s="3">
-        <v>-6200</v>
+        <v>-14600</v>
       </c>
       <c r="I21" s="3">
-        <v>-9000</v>
+        <v>-5900</v>
       </c>
       <c r="J21" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-6900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-8800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-29000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-12100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-13100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-4500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-5200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1723,8 +1763,8 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1735,8 +1775,8 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-14500</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-13100</v>
       </c>
-      <c r="F23" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-14500</v>
+        <v>500</v>
       </c>
       <c r="E26" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-13100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-5200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-14500</v>
+        <v>500</v>
       </c>
       <c r="E27" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-13100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,153 +2552,159 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J32" s="3">
         <v>700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>500</v>
       </c>
       <c r="K32" s="3">
         <v>500</v>
       </c>
       <c r="L32" s="3">
+        <v>500</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2600</v>
-      </c>
-      <c r="V32" s="3">
-        <v>900</v>
       </c>
       <c r="W32" s="3">
         <v>900</v>
       </c>
       <c r="X32" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y32" s="3">
         <v>1000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-14500</v>
+        <v>500</v>
       </c>
       <c r="E33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-13100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-14500</v>
+        <v>500</v>
       </c>
       <c r="E35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-13100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,74 +3007,75 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>33200</v>
+        <v>15400</v>
       </c>
       <c r="E41" s="3">
-        <v>14200</v>
+        <v>31900</v>
       </c>
       <c r="F41" s="3">
-        <v>12200</v>
+        <v>13600</v>
       </c>
       <c r="G41" s="3">
-        <v>11300</v>
+        <v>11700</v>
       </c>
       <c r="H41" s="3">
-        <v>8300</v>
+        <v>10900</v>
       </c>
       <c r="I41" s="3">
-        <v>1600</v>
+        <v>7900</v>
       </c>
       <c r="J41" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K41" s="3">
         <v>46100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>63600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>26600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>62400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>171400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>126500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>138300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>24800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>28400</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2998,59 +3085,62 @@
       <c r="AA41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>60200</v>
+        <v>84800</v>
       </c>
       <c r="E42" s="3">
-        <v>72400</v>
+        <v>57800</v>
       </c>
       <c r="F42" s="3">
-        <v>85300</v>
+        <v>69600</v>
       </c>
       <c r="G42" s="3">
-        <v>120700</v>
+        <v>82000</v>
       </c>
       <c r="H42" s="3">
-        <v>134500</v>
+        <v>116000</v>
       </c>
       <c r="I42" s="3">
-        <v>82600</v>
+        <v>129300</v>
       </c>
       <c r="J42" s="3">
+        <v>79400</v>
+      </c>
+      <c r="K42" s="3">
         <v>52900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>103200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>115900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>32500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>27700</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3">
         <v>49300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>38900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>60000</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3063,8 +3153,8 @@
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3075,31 +3165,34 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1000</v>
       </c>
       <c r="G43" s="3">
         <v>900</v>
       </c>
       <c r="H43" s="3">
+        <v>900</v>
+      </c>
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>1400</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -3116,8 +3209,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,74 +3325,77 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13000</v>
+        <v>10100</v>
       </c>
       <c r="E45" s="3">
-        <v>11400</v>
+        <v>12500</v>
       </c>
       <c r="F45" s="3">
-        <v>5600</v>
+        <v>11000</v>
       </c>
       <c r="G45" s="3">
-        <v>4300</v>
+        <v>5400</v>
       </c>
       <c r="H45" s="3">
-        <v>6800</v>
+        <v>4100</v>
       </c>
       <c r="I45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>136800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>104100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>126600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>121600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1200</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3306,74 +3405,77 @@
       <c r="AA45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>107600</v>
+        <v>111800</v>
       </c>
       <c r="E46" s="3">
-        <v>99300</v>
+        <v>103400</v>
       </c>
       <c r="F46" s="3">
-        <v>104100</v>
+        <v>95400</v>
       </c>
       <c r="G46" s="3">
-        <v>137200</v>
+        <v>100000</v>
       </c>
       <c r="H46" s="3">
-        <v>151000</v>
+        <v>131800</v>
       </c>
       <c r="I46" s="3">
-        <v>89600</v>
+        <v>145100</v>
       </c>
       <c r="J46" s="3">
+        <v>86100</v>
+      </c>
+      <c r="K46" s="3">
         <v>103000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>110800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>121200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>138900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>169900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>167700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>183000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>187100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>124200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>181200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>127300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>139100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>26700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>29600</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3383,22 +3485,25 @@
       <c r="AA46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9600</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>28200</v>
+        <v>9200</v>
       </c>
       <c r="F47" s="3">
-        <v>27700</v>
+        <v>27100</v>
       </c>
       <c r="G47" s="3">
-        <v>300</v>
+        <v>26600</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
@@ -3428,28 +3533,28 @@
         <v>300</v>
       </c>
       <c r="Q47" s="3">
+        <v>300</v>
+      </c>
+      <c r="R47" s="3">
         <v>200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>57400</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>100</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
       <c r="V47" s="3">
         <v>0</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
+      <c r="X47" s="3">
+        <v>0</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>4</v>
@@ -3460,74 +3565,77 @@
       <c r="AA47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>900</v>
-      </c>
       <c r="I48" s="3">
+        <v>800</v>
+      </c>
+      <c r="J48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1900</v>
       </c>
       <c r="O48" s="3">
         <v>1900</v>
       </c>
       <c r="P48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>700</v>
       </c>
       <c r="R48" s="3">
         <v>700</v>
       </c>
       <c r="S48" s="3">
+        <v>700</v>
+      </c>
+      <c r="T48" s="3">
         <v>500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>300</v>
-      </c>
-      <c r="U48" s="3">
-        <v>200</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
       </c>
       <c r="W48" s="3">
+        <v>200</v>
+      </c>
+      <c r="X48" s="3">
         <v>100</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3549,7 +3660,7 @@
         <v>200</v>
       </c>
       <c r="F49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G49" s="3">
         <v>300</v>
@@ -3558,41 +3669,41 @@
         <v>300</v>
       </c>
       <c r="I49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K49" s="3">
         <v>400</v>
       </c>
       <c r="L49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M49" s="3">
         <v>500</v>
       </c>
       <c r="N49" s="3">
+        <v>500</v>
+      </c>
+      <c r="O49" s="3">
         <v>600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>300</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>100</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
@@ -3602,8 +3713,8 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
+      <c r="X49" s="3">
+        <v>0</v>
       </c>
       <c r="Y49" s="3" t="s">
         <v>4</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3780,13 +3900,13 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -3795,7 +3915,7 @@
         <v>400</v>
       </c>
       <c r="K52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>500</v>
@@ -3804,25 +3924,25 @@
         <v>500</v>
       </c>
       <c r="N52" s="3">
+        <v>500</v>
+      </c>
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
@@ -3833,8 +3953,8 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,74 +4045,77 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>119400</v>
+        <v>114300</v>
       </c>
       <c r="E54" s="3">
-        <v>129900</v>
+        <v>114800</v>
       </c>
       <c r="F54" s="3">
-        <v>134300</v>
+        <v>124800</v>
       </c>
       <c r="G54" s="3">
-        <v>140100</v>
+        <v>129000</v>
       </c>
       <c r="H54" s="3">
-        <v>152800</v>
+        <v>134700</v>
       </c>
       <c r="I54" s="3">
-        <v>91600</v>
+        <v>146900</v>
       </c>
       <c r="J54" s="3">
+        <v>88000</v>
+      </c>
+      <c r="K54" s="3">
         <v>105200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>123800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>141900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>173400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>170500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>185400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>188300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>182300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>181800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>127600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>139400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>26900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>29800</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,73 +4187,74 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9900</v>
+        <v>7900</v>
       </c>
       <c r="E57" s="3">
+        <v>9500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H57" s="3">
         <v>8900</v>
       </c>
-      <c r="F57" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>9300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>7400</v>
-      </c>
       <c r="I57" s="3">
-        <v>8600</v>
+        <v>7100</v>
       </c>
       <c r="J57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K57" s="3">
         <v>10400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>14500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>14300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5000</v>
-      </c>
-      <c r="V57" s="3">
-        <v>2800</v>
       </c>
       <c r="W57" s="3">
         <v>2800</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
+      <c r="X57" s="3">
+        <v>2800</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>4</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4152,16 +4286,16 @@
         <v>400</v>
       </c>
       <c r="H58" s="3">
+        <v>400</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
-        <v>400</v>
-      </c>
       <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
@@ -4170,17 +4304,17 @@
         <v>600</v>
       </c>
       <c r="N58" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
       </c>
       <c r="P58" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4190,8 +4324,8 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4211,73 +4345,76 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9400</v>
+        <v>3000</v>
       </c>
       <c r="E59" s="3">
-        <v>10200</v>
+        <v>9100</v>
       </c>
       <c r="F59" s="3">
+        <v>9800</v>
+      </c>
+      <c r="G59" s="3">
         <v>1100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>900</v>
       </c>
       <c r="H59" s="3">
         <v>800</v>
       </c>
       <c r="I59" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="J59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
-      </c>
-      <c r="V59" s="3">
-        <v>200</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
+      <c r="X59" s="3">
+        <v>200</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>4</v>
@@ -4288,73 +4425,76 @@
       <c r="AA59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19700</v>
+        <v>11300</v>
       </c>
       <c r="E60" s="3">
-        <v>19500</v>
+        <v>18900</v>
       </c>
       <c r="F60" s="3">
-        <v>13400</v>
+        <v>18700</v>
       </c>
       <c r="G60" s="3">
-        <v>10500</v>
+        <v>12900</v>
       </c>
       <c r="H60" s="3">
-        <v>8500</v>
+        <v>10100</v>
       </c>
       <c r="I60" s="3">
-        <v>10500</v>
+        <v>8200</v>
       </c>
       <c r="J60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K60" s="3">
         <v>11900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>21700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>3000</v>
       </c>
       <c r="W60" s="3">
         <v>3000</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
+      <c r="X60" s="3">
+        <v>3000</v>
       </c>
       <c r="Y60" s="3" t="s">
         <v>4</v>
@@ -4365,53 +4505,56 @@
       <c r="AA60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>300</v>
       </c>
       <c r="L61" s="3">
         <v>300</v>
       </c>
       <c r="M61" s="3">
+        <v>300</v>
+      </c>
+      <c r="N61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4425,14 +4568,14 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>64400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>63500</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4442,16 +4585,19 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -4459,11 +4605,11 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4474,11 +4620,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
@@ -4496,7 +4642,7 @@
         <v>100</v>
       </c>
       <c r="T62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4507,8 +4653,8 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
+      <c r="X62" s="3">
+        <v>0</v>
       </c>
       <c r="Y62" s="3" t="s">
         <v>4</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,74 +4905,77 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20700</v>
+        <v>12500</v>
       </c>
       <c r="E66" s="3">
-        <v>20600</v>
+        <v>19900</v>
       </c>
       <c r="F66" s="3">
-        <v>14700</v>
+        <v>19800</v>
       </c>
       <c r="G66" s="3">
-        <v>11800</v>
+        <v>14100</v>
       </c>
       <c r="H66" s="3">
-        <v>8700</v>
+        <v>11400</v>
       </c>
       <c r="I66" s="3">
-        <v>10700</v>
+        <v>8400</v>
       </c>
       <c r="J66" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K66" s="3">
         <v>12100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>67500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>66500</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,74 +5335,77 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-202200</v>
+        <v>-191800</v>
       </c>
       <c r="E72" s="3">
-        <v>-190300</v>
+        <v>-194300</v>
       </c>
       <c r="F72" s="3">
-        <v>-177700</v>
+        <v>-182900</v>
       </c>
       <c r="G72" s="3">
-        <v>-166400</v>
+        <v>-170800</v>
       </c>
       <c r="H72" s="3">
-        <v>-152000</v>
+        <v>-159900</v>
       </c>
       <c r="I72" s="3">
-        <v>-147500</v>
+        <v>-146100</v>
       </c>
       <c r="J72" s="3">
+        <v>-141700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-138500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-137500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-127100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-127500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-118500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-98800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-84400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-74300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>172100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>174200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>119900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>130800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-40200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-36300</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,74 +5655,77 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>98700</v>
+        <v>101900</v>
       </c>
       <c r="E76" s="3">
-        <v>109300</v>
+        <v>94900</v>
       </c>
       <c r="F76" s="3">
-        <v>119600</v>
+        <v>105000</v>
       </c>
       <c r="G76" s="3">
-        <v>128300</v>
+        <v>114900</v>
       </c>
       <c r="H76" s="3">
-        <v>144100</v>
+        <v>123300</v>
       </c>
       <c r="I76" s="3">
-        <v>80800</v>
+        <v>138500</v>
       </c>
       <c r="J76" s="3">
+        <v>77700</v>
+      </c>
+      <c r="K76" s="3">
         <v>93100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>99400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>110800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>125100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>150900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>154000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>174600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>179100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>175600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>177600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>123000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>134000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-40600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-36700</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-14500</v>
+        <v>500</v>
       </c>
       <c r="E81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-29500</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-13100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-12500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-15300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-29500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-12200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-11300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-10500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,13 +6012,14 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -5850,13 +6049,13 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>500</v>
-      </c>
-      <c r="P83" s="3">
-        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -5865,7 +6064,7 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -5888,11 +6087,14 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-13300</v>
+        <v>-12500</v>
       </c>
       <c r="E89" s="3">
-        <v>-12200</v>
+        <v>-12800</v>
       </c>
       <c r="F89" s="3">
-        <v>-10300</v>
+        <v>-11700</v>
       </c>
       <c r="G89" s="3">
-        <v>-8100</v>
+        <v>-9900</v>
       </c>
       <c r="H89" s="3">
-        <v>-10800</v>
+        <v>-7800</v>
       </c>
       <c r="I89" s="3">
-        <v>-10100</v>
+        <v>-10400</v>
       </c>
       <c r="J89" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-8900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-18900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-32000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-5900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6406,11 +6627,11 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -6418,25 +6639,25 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-300</v>
       </c>
       <c r="Q91" s="3">
         <v>-300</v>
       </c>
       <c r="R91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-100</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
@@ -6445,22 +6666,25 @@
         <v>-100</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,61 +6840,64 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>27500</v>
+        <v>-13900</v>
       </c>
       <c r="E94" s="3">
-        <v>-34900</v>
+        <v>26400</v>
       </c>
       <c r="F94" s="3">
-        <v>6000</v>
+        <v>-33600</v>
       </c>
       <c r="G94" s="3">
-        <v>3100</v>
+        <v>5800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1100</v>
+        <v>3000</v>
       </c>
       <c r="I94" s="3">
-        <v>-8100</v>
+        <v>-1000</v>
       </c>
       <c r="J94" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="K94" s="3">
         <v>33100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>27100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-24200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>19800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>7100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-107500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
@@ -6676,22 +6906,25 @@
         <v>-100</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,136 +7282,139 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>64100</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>61600</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>9300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>54000</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>120400</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>1800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>36200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>36300</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O101" s="3">
+        <v>800</v>
+      </c>
+      <c r="P101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>700</v>
+      </c>
+      <c r="R101" s="3">
         <v>1800</v>
       </c>
-      <c r="F101" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="L101" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N101" s="3">
-        <v>800</v>
-      </c>
-      <c r="O101" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>1800</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2600</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
@@ -7178,84 +7427,90 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-      <c r="AA101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>14400</v>
+        <v>-24600</v>
       </c>
       <c r="E102" s="3">
-        <v>-45400</v>
+        <v>13800</v>
       </c>
       <c r="F102" s="3">
-        <v>-2500</v>
+        <v>-43600</v>
       </c>
       <c r="G102" s="3">
-        <v>-6600</v>
+        <v>-2400</v>
       </c>
       <c r="H102" s="3">
-        <v>54800</v>
+        <v>-6400</v>
       </c>
       <c r="I102" s="3">
-        <v>-19600</v>
+        <v>52600</v>
       </c>
       <c r="J102" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="K102" s="3">
         <v>32600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-23100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-110400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>44800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>113500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>30300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>34700</v>
       </c>
-      <c r="AA102" s="3" t="s">
+      <c r="AB102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
   <si>
     <t>IFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +860,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,88 +1059,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>11200</v>
+        <v>7700</v>
       </c>
       <c r="E12" s="3">
-        <v>10400</v>
+        <v>11400</v>
       </c>
       <c r="F12" s="3">
-        <v>10100</v>
+        <v>10700</v>
       </c>
       <c r="G12" s="3">
-        <v>9300</v>
+        <v>10300</v>
       </c>
       <c r="H12" s="3">
-        <v>11300</v>
+        <v>9600</v>
       </c>
       <c r="I12" s="3">
-        <v>4900</v>
+        <v>11500</v>
       </c>
       <c r="J12" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K12" s="3">
         <v>5800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>8000</v>
       </c>
       <c r="M12" s="3">
         <v>8000</v>
       </c>
       <c r="N12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="O12" s="3">
         <v>12800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>16400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>9200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>2900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>3500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>2800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>6200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,88 +1419,92 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>13300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>14300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="M17" s="3">
+        <v>10500</v>
+      </c>
+      <c r="N17" s="3">
+        <v>10700</v>
+      </c>
+      <c r="O17" s="3">
+        <v>16200</v>
+      </c>
+      <c r="P17" s="3">
+        <v>19300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>31900</v>
+      </c>
+      <c r="R17" s="3">
+        <v>13100</v>
+      </c>
+      <c r="S17" s="3">
         <v>14800</v>
       </c>
-      <c r="F17" s="3">
-        <v>13000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>13900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>7900</v>
-      </c>
-      <c r="J17" s="3">
-        <v>8200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>6700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>10500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>10700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>16200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>19300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>31900</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>13100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>14800</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>10600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,79 +1512,82 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-14800</v>
       </c>
-      <c r="F18" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-16200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-31900</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-9200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-10600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-8100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,79 +1626,82 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-500</v>
       </c>
       <c r="L20" s="3">
         <v>-500</v>
       </c>
       <c r="M20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-900</v>
       </c>
       <c r="X20" s="3">
         <v>-900</v>
       </c>
       <c r="Y20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,84 +1709,87 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-13800</v>
+        <v>600</v>
       </c>
       <c r="F21" s="3">
-        <v>-12500</v>
+        <v>-14100</v>
       </c>
       <c r="G21" s="3">
-        <v>-11800</v>
+        <v>-12800</v>
       </c>
       <c r="H21" s="3">
-        <v>-14600</v>
+        <v>-12100</v>
       </c>
       <c r="I21" s="3">
-        <v>-5900</v>
+        <v>-14900</v>
       </c>
       <c r="J21" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-8700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-6900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-15700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-17700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-12100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-13100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-4500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1766,8 +1806,8 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1778,8 +1818,8 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1823,88 +1863,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
-        <v>-14000</v>
-      </c>
       <c r="F23" s="3">
-        <v>-12600</v>
+        <v>-14300</v>
       </c>
       <c r="G23" s="3">
-        <v>-12000</v>
+        <v>-12900</v>
       </c>
       <c r="H23" s="3">
-        <v>-14700</v>
+        <v>-12300</v>
       </c>
       <c r="I23" s="3">
-        <v>-6100</v>
+        <v>-15100</v>
       </c>
       <c r="J23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-29500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-13100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
-        <v>-14000</v>
-      </c>
       <c r="F26" s="3">
-        <v>-12600</v>
+        <v>-14300</v>
       </c>
       <c r="G26" s="3">
-        <v>-12000</v>
+        <v>-12900</v>
       </c>
       <c r="H26" s="3">
-        <v>-14700</v>
+        <v>-12300</v>
       </c>
       <c r="I26" s="3">
-        <v>-6100</v>
+        <v>-15100</v>
       </c>
       <c r="J26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-8800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-17800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-29500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-12200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-13100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
-        <v>-14000</v>
-      </c>
       <c r="F27" s="3">
-        <v>-12600</v>
+        <v>-14300</v>
       </c>
       <c r="G27" s="3">
-        <v>-12000</v>
+        <v>-12900</v>
       </c>
       <c r="H27" s="3">
-        <v>-14700</v>
+        <v>-12300</v>
       </c>
       <c r="I27" s="3">
-        <v>-6100</v>
+        <v>-15100</v>
       </c>
       <c r="J27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-8800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-17800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-29500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-12200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-13100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,159 +2622,165 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>500</v>
       </c>
       <c r="L32" s="3">
         <v>500</v>
       </c>
       <c r="M32" s="3">
+        <v>500</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2600</v>
-      </c>
-      <c r="W32" s="3">
-        <v>900</v>
       </c>
       <c r="X32" s="3">
         <v>900</v>
       </c>
       <c r="Y32" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z32" s="3">
         <v>1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
-        <v>-14000</v>
-      </c>
       <c r="F33" s="3">
-        <v>-12600</v>
+        <v>-14300</v>
       </c>
       <c r="G33" s="3">
-        <v>-12000</v>
+        <v>-12900</v>
       </c>
       <c r="H33" s="3">
-        <v>-14700</v>
+        <v>-12300</v>
       </c>
       <c r="I33" s="3">
-        <v>-6100</v>
+        <v>-15100</v>
       </c>
       <c r="J33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-8800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-17800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-29500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-12200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-13100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
-        <v>-14000</v>
-      </c>
       <c r="F35" s="3">
-        <v>-12600</v>
+        <v>-14300</v>
       </c>
       <c r="G35" s="3">
-        <v>-12000</v>
+        <v>-12900</v>
       </c>
       <c r="H35" s="3">
-        <v>-14700</v>
+        <v>-12300</v>
       </c>
       <c r="I35" s="3">
-        <v>-6100</v>
+        <v>-15100</v>
       </c>
       <c r="J35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-8800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-17800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-29500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-12200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-13100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,77 +3094,78 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15400</v>
+        <v>18400</v>
       </c>
       <c r="E41" s="3">
-        <v>31900</v>
+        <v>15700</v>
       </c>
       <c r="F41" s="3">
-        <v>13600</v>
+        <v>32700</v>
       </c>
       <c r="G41" s="3">
-        <v>11700</v>
+        <v>13900</v>
       </c>
       <c r="H41" s="3">
-        <v>10900</v>
+        <v>12000</v>
       </c>
       <c r="I41" s="3">
-        <v>7900</v>
+        <v>11100</v>
       </c>
       <c r="J41" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>46100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>63600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>26600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>62400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>171400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>126500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>138300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>24800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>28400</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3088,62 +3175,65 @@
       <c r="AB41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>84800</v>
+        <v>83300</v>
       </c>
       <c r="E42" s="3">
-        <v>57800</v>
+        <v>86800</v>
       </c>
       <c r="F42" s="3">
-        <v>69600</v>
+        <v>59200</v>
       </c>
       <c r="G42" s="3">
-        <v>82000</v>
+        <v>71200</v>
       </c>
       <c r="H42" s="3">
-        <v>116000</v>
+        <v>83900</v>
       </c>
       <c r="I42" s="3">
-        <v>129300</v>
+        <v>118700</v>
       </c>
       <c r="J42" s="3">
+        <v>132300</v>
+      </c>
+      <c r="K42" s="3">
         <v>79400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>52900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>103200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>115900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>32500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>27700</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3">
         <v>49300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>38900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>60000</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3156,8 +3246,8 @@
       <c r="X42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3168,34 +3258,37 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>900</v>
       </c>
       <c r="H43" s="3">
         <v>900</v>
       </c>
       <c r="I43" s="3">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>1400</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -3212,8 +3305,8 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,77 +3424,80 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10100</v>
+        <v>7700</v>
       </c>
       <c r="E45" s="3">
-        <v>12500</v>
+        <v>10300</v>
       </c>
       <c r="F45" s="3">
-        <v>11000</v>
+        <v>12800</v>
       </c>
       <c r="G45" s="3">
-        <v>5400</v>
+        <v>11200</v>
       </c>
       <c r="H45" s="3">
-        <v>4100</v>
+        <v>5500</v>
       </c>
       <c r="I45" s="3">
-        <v>6500</v>
+        <v>4200</v>
       </c>
       <c r="J45" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K45" s="3">
         <v>3700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>136800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>104100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>126600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>121600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1200</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3408,77 +3507,80 @@
       <c r="AB45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>111800</v>
+        <v>111000</v>
       </c>
       <c r="E46" s="3">
-        <v>103400</v>
+        <v>114500</v>
       </c>
       <c r="F46" s="3">
-        <v>95400</v>
+        <v>105900</v>
       </c>
       <c r="G46" s="3">
-        <v>100000</v>
+        <v>97700</v>
       </c>
       <c r="H46" s="3">
-        <v>131800</v>
+        <v>102300</v>
       </c>
       <c r="I46" s="3">
-        <v>145100</v>
+        <v>134900</v>
       </c>
       <c r="J46" s="3">
+        <v>148500</v>
+      </c>
+      <c r="K46" s="3">
         <v>86100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>103000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>110800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>121200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>138900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>169900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>167700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>183000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>187100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>124200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>181200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>127300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>139100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>26700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>29600</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3497,16 +3602,16 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>9200</v>
+        <v>200</v>
       </c>
       <c r="F47" s="3">
-        <v>27100</v>
+        <v>9500</v>
       </c>
       <c r="G47" s="3">
-        <v>26600</v>
+        <v>27800</v>
       </c>
       <c r="H47" s="3">
-        <v>300</v>
+        <v>27300</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
@@ -3536,28 +3641,28 @@
         <v>300</v>
       </c>
       <c r="R47" s="3">
+        <v>300</v>
+      </c>
+      <c r="S47" s="3">
         <v>200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>57400</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
       <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>100</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
       <c r="W47" s="3">
         <v>0</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
+      <c r="Y47" s="3">
+        <v>0</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>4</v>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3577,68 +3685,68 @@
         <v>1700</v>
       </c>
       <c r="E48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3">
-        <v>1900</v>
-      </c>
       <c r="I48" s="3">
-        <v>800</v>
+        <v>2000</v>
       </c>
       <c r="J48" s="3">
+        <v>900</v>
+      </c>
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1900</v>
       </c>
       <c r="P48" s="3">
         <v>1900</v>
       </c>
       <c r="Q48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R48" s="3">
         <v>1700</v>
-      </c>
-      <c r="R48" s="3">
-        <v>700</v>
       </c>
       <c r="S48" s="3">
         <v>700</v>
       </c>
       <c r="T48" s="3">
+        <v>700</v>
+      </c>
+      <c r="U48" s="3">
         <v>500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>300</v>
-      </c>
-      <c r="V48" s="3">
-        <v>200</v>
       </c>
       <c r="W48" s="3">
         <v>200</v>
       </c>
       <c r="X48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y48" s="3">
         <v>100</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3663,7 +3774,7 @@
         <v>200</v>
       </c>
       <c r="G49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H49" s="3">
         <v>300</v>
@@ -3675,38 +3786,38 @@
         <v>300</v>
       </c>
       <c r="K49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L49" s="3">
         <v>400</v>
       </c>
       <c r="M49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N49" s="3">
         <v>500</v>
       </c>
       <c r="O49" s="3">
+        <v>500</v>
+      </c>
+      <c r="P49" s="3">
         <v>600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>300</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
       <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
         <v>100</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
-      </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
@@ -3716,8 +3827,8 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>4</v>
+      <c r="Y49" s="3">
+        <v>0</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>4</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,13 +4005,16 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
@@ -3918,7 +4038,7 @@
         <v>400</v>
       </c>
       <c r="L52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
@@ -3927,25 +4047,25 @@
         <v>500</v>
       </c>
       <c r="O52" s="3">
+        <v>500</v>
+      </c>
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
@@ -3956,8 +4076,8 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,77 +4171,80 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>114300</v>
+        <v>113400</v>
       </c>
       <c r="E54" s="3">
-        <v>114800</v>
+        <v>117000</v>
       </c>
       <c r="F54" s="3">
-        <v>124800</v>
+        <v>117500</v>
       </c>
       <c r="G54" s="3">
-        <v>129000</v>
+        <v>127700</v>
       </c>
       <c r="H54" s="3">
-        <v>134700</v>
+        <v>132100</v>
       </c>
       <c r="I54" s="3">
-        <v>146900</v>
+        <v>137800</v>
       </c>
       <c r="J54" s="3">
+        <v>150300</v>
+      </c>
+      <c r="K54" s="3">
         <v>88000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>105200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>123800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>141900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>173400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>170500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>185400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>188300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>182300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>181800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>127600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>139400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>26900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>29800</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>4</v>
       </c>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,76 +4318,77 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H57" s="3">
+        <v>11800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="L57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="M57" s="3">
+        <v>11600</v>
+      </c>
+      <c r="N57" s="3">
+        <v>11400</v>
+      </c>
+      <c r="O57" s="3">
+        <v>14500</v>
+      </c>
+      <c r="P57" s="3">
+        <v>20300</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>14300</v>
+      </c>
+      <c r="R57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="S57" s="3">
         <v>7900</v>
       </c>
-      <c r="E57" s="3">
-        <v>9500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>8600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>11500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>8900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>7100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>8200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>10400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>11600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>11400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>14500</v>
-      </c>
-      <c r="O57" s="3">
-        <v>20300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>14300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>8400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>7900</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5000</v>
-      </c>
-      <c r="W57" s="3">
-        <v>2800</v>
       </c>
       <c r="X57" s="3">
         <v>2800</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
+      <c r="Y57" s="3">
+        <v>2800</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>4</v>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4289,16 +4423,16 @@
         <v>400</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
         <v>500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>600</v>
       </c>
       <c r="M58" s="3">
         <v>600</v>
@@ -4307,17 +4441,17 @@
         <v>600</v>
       </c>
       <c r="O58" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
       </c>
       <c r="Q58" s="3">
+        <v>400</v>
+      </c>
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4327,8 +4461,8 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4348,76 +4482,79 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="E59" s="3">
-        <v>9100</v>
+        <v>3100</v>
       </c>
       <c r="F59" s="3">
-        <v>9800</v>
+        <v>9300</v>
       </c>
       <c r="G59" s="3">
+        <v>10000</v>
+      </c>
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>900</v>
+      </c>
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="O59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M59" s="3">
-        <v>800</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>300</v>
-      </c>
-      <c r="W59" s="3">
-        <v>200</v>
       </c>
       <c r="X59" s="3">
         <v>200</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
+      <c r="Y59" s="3">
+        <v>200</v>
       </c>
       <c r="Z59" s="3" t="s">
         <v>4</v>
@@ -4428,76 +4565,79 @@
       <c r="AB59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="E60" s="3">
-        <v>18900</v>
+        <v>11500</v>
       </c>
       <c r="F60" s="3">
-        <v>18700</v>
+        <v>19300</v>
       </c>
       <c r="G60" s="3">
-        <v>12900</v>
+        <v>19100</v>
       </c>
       <c r="H60" s="3">
+        <v>13200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K60" s="3">
         <v>10100</v>
       </c>
-      <c r="I60" s="3">
-        <v>8200</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
+        <v>11900</v>
+      </c>
+      <c r="M60" s="3">
+        <v>13600</v>
+      </c>
+      <c r="N60" s="3">
+        <v>12800</v>
+      </c>
+      <c r="O60" s="3">
+        <v>16400</v>
+      </c>
+      <c r="P60" s="3">
+        <v>21700</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>15700</v>
+      </c>
+      <c r="R60" s="3">
         <v>10100</v>
       </c>
-      <c r="K60" s="3">
-        <v>11900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>13600</v>
-      </c>
-      <c r="M60" s="3">
-        <v>12800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>16400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>21700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>15700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>10100</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5300</v>
-      </c>
-      <c r="W60" s="3">
-        <v>3000</v>
       </c>
       <c r="X60" s="3">
         <v>3000</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>4</v>
+      <c r="Y60" s="3">
+        <v>3000</v>
       </c>
       <c r="Z60" s="3" t="s">
         <v>4</v>
@@ -4508,56 +4648,59 @@
       <c r="AB60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
-      </c>
-      <c r="L61" s="3">
-        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
       </c>
       <c r="N61" s="3">
+        <v>300</v>
+      </c>
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4571,14 +4714,14 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>64400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>63500</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4588,19 +4731,22 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -4608,11 +4754,11 @@
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -4623,11 +4769,11 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -4645,7 +4791,7 @@
         <v>100</v>
       </c>
       <c r="U62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4656,8 +4802,8 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
+      <c r="Y62" s="3">
+        <v>0</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,77 +5063,80 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="E66" s="3">
-        <v>19900</v>
+        <v>12800</v>
       </c>
       <c r="F66" s="3">
-        <v>19800</v>
+        <v>20400</v>
       </c>
       <c r="G66" s="3">
-        <v>14100</v>
+        <v>20300</v>
       </c>
       <c r="H66" s="3">
-        <v>11400</v>
+        <v>14400</v>
       </c>
       <c r="I66" s="3">
-        <v>8400</v>
+        <v>11700</v>
       </c>
       <c r="J66" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K66" s="3">
         <v>10300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>13100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>67500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>66500</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,77 +5509,80 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-191800</v>
+        <v>-203400</v>
       </c>
       <c r="E72" s="3">
-        <v>-194300</v>
+        <v>-196300</v>
       </c>
       <c r="F72" s="3">
-        <v>-182900</v>
+        <v>-198900</v>
       </c>
       <c r="G72" s="3">
-        <v>-170800</v>
+        <v>-187200</v>
       </c>
       <c r="H72" s="3">
-        <v>-159900</v>
+        <v>-174800</v>
       </c>
       <c r="I72" s="3">
-        <v>-146100</v>
+        <v>-163600</v>
       </c>
       <c r="J72" s="3">
+        <v>-149500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-141700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-138500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-137500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-127100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-127500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-118500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-98800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-84400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-74300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>172100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>174200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>119900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>130800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-40200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-36300</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,77 +5841,80 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>101900</v>
+        <v>101500</v>
       </c>
       <c r="E76" s="3">
-        <v>94900</v>
+        <v>104300</v>
       </c>
       <c r="F76" s="3">
-        <v>105000</v>
+        <v>97100</v>
       </c>
       <c r="G76" s="3">
-        <v>114900</v>
+        <v>107500</v>
       </c>
       <c r="H76" s="3">
-        <v>123300</v>
+        <v>117600</v>
       </c>
       <c r="I76" s="3">
-        <v>138500</v>
+        <v>126200</v>
       </c>
       <c r="J76" s="3">
+        <v>141700</v>
+      </c>
+      <c r="K76" s="3">
         <v>77700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>93100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>99400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>110800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>125100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>150900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>154000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>174600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>179100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>175600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>177600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>123000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>134000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-40600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-36700</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5738,8 +5924,11 @@
       <c r="AB76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
-        <v>-14000</v>
-      </c>
       <c r="F81" s="3">
-        <v>-12600</v>
+        <v>-14300</v>
       </c>
       <c r="G81" s="3">
-        <v>-12000</v>
+        <v>-12900</v>
       </c>
       <c r="H81" s="3">
-        <v>-14700</v>
+        <v>-12300</v>
       </c>
       <c r="I81" s="3">
-        <v>-6100</v>
+        <v>-15100</v>
       </c>
       <c r="J81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-8800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-17800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-29500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-12200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-13100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-10500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,13 +6211,14 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -6052,13 +6251,13 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -6067,7 +6266,7 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -6090,11 +6289,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-12500</v>
+        <v>-3200</v>
       </c>
       <c r="E89" s="3">
         <v>-12800</v>
       </c>
       <c r="F89" s="3">
-        <v>-11700</v>
+        <v>-13100</v>
       </c>
       <c r="G89" s="3">
-        <v>-9900</v>
+        <v>-12000</v>
       </c>
       <c r="H89" s="3">
-        <v>-7800</v>
+        <v>-10200</v>
       </c>
       <c r="I89" s="3">
-        <v>-10400</v>
+        <v>-8000</v>
       </c>
       <c r="J89" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-9700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-18900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-10200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-10000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6630,11 +6851,11 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -6642,25 +6863,25 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-300</v>
       </c>
       <c r="R91" s="3">
         <v>-300</v>
       </c>
       <c r="S91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
@@ -6669,22 +6890,25 @@
         <v>-100</v>
       </c>
       <c r="X91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,64 +7070,67 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13900</v>
+        <v>5100</v>
       </c>
       <c r="E94" s="3">
-        <v>26400</v>
+        <v>-14200</v>
       </c>
       <c r="F94" s="3">
-        <v>-33600</v>
+        <v>27000</v>
       </c>
       <c r="G94" s="3">
-        <v>5800</v>
+        <v>-34400</v>
       </c>
       <c r="H94" s="3">
-        <v>3000</v>
+        <v>5900</v>
       </c>
       <c r="I94" s="3">
-        <v>-1000</v>
+        <v>3100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>33100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>27100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-24200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>19800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>7100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-107500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-100</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
@@ -6909,22 +7139,25 @@
         <v>-100</v>
       </c>
       <c r="X94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7516,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7285,139 +7531,142 @@
         <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>61600</v>
+        <v>-100</v>
       </c>
       <c r="J100" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-100</v>
       </c>
       <c r="N100" s="3">
         <v>-100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>54000</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>120400</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>1800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>36200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>36300</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F101" s="3">
+        <v>300</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P101" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R101" s="3">
+        <v>700</v>
+      </c>
+      <c r="S101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
-        <v>300</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M101" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O101" s="3">
-        <v>800</v>
-      </c>
-      <c r="P101" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>700</v>
-      </c>
-      <c r="R101" s="3">
-        <v>1800</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-2400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2600</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
@@ -7430,87 +7679,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-      <c r="AB101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-24600</v>
+      <c r="D102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E102" s="3">
-        <v>13800</v>
+        <v>-25200</v>
       </c>
       <c r="F102" s="3">
-        <v>-43600</v>
+        <v>14100</v>
       </c>
       <c r="G102" s="3">
+        <v>-44600</v>
+      </c>
+      <c r="H102" s="3">
         <v>-2400</v>
       </c>
-      <c r="H102" s="3">
-        <v>-6400</v>
-      </c>
       <c r="I102" s="3">
-        <v>52600</v>
+        <v>-6500</v>
       </c>
       <c r="J102" s="3">
+        <v>53900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-18800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>32600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>7100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-23100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-110400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>44800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-8800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>113500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>30300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>34700</v>
       </c>
-      <c r="AB102" s="3" t="s">
+      <c r="AC102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>IFRX</t>
   </si>
@@ -1066,25 +1066,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="E12" s="3">
-        <v>11400</v>
+        <v>11800</v>
       </c>
       <c r="F12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G12" s="3">
         <v>10700</v>
       </c>
-      <c r="G12" s="3">
-        <v>10300</v>
-      </c>
       <c r="H12" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="I12" s="3">
-        <v>11500</v>
+        <v>12000</v>
       </c>
       <c r="J12" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="K12" s="3">
         <v>5800</v>
@@ -1426,25 +1426,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="E17" s="3">
         <v>1100</v>
       </c>
       <c r="F17" s="3">
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="G17" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="H17" s="3">
-        <v>13000</v>
+        <v>13500</v>
       </c>
       <c r="I17" s="3">
-        <v>14300</v>
+        <v>14800</v>
       </c>
       <c r="J17" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="K17" s="3">
         <v>8200</v>
@@ -1515,19 +1515,19 @@
         <v>-1100</v>
       </c>
       <c r="F18" s="3">
-        <v>-15200</v>
+        <v>-15700</v>
       </c>
       <c r="G18" s="3">
-        <v>-13300</v>
+        <v>-13700</v>
       </c>
       <c r="H18" s="3">
-        <v>-13000</v>
+        <v>-13500</v>
       </c>
       <c r="I18" s="3">
-        <v>-14300</v>
+        <v>-14800</v>
       </c>
       <c r="J18" s="3">
-        <v>-8100</v>
+        <v>-8400</v>
       </c>
       <c r="K18" s="3">
         <v>-8200</v>
@@ -1626,13 +1626,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="F20" s="3">
         <v>900</v>
       </c>
       <c r="G20" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H20" s="3">
         <v>700</v>
@@ -1641,7 +1641,7 @@
         <v>-800</v>
       </c>
       <c r="J20" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K20" s="3">
         <v>-700</v>
@@ -1709,22 +1709,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F21" s="3">
-        <v>-14100</v>
+        <v>-14600</v>
       </c>
       <c r="G21" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="H21" s="3">
-        <v>-12100</v>
+        <v>-12600</v>
       </c>
       <c r="I21" s="3">
-        <v>-14900</v>
+        <v>-15500</v>
       </c>
       <c r="J21" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="K21" s="3">
         <v>-8700</v>
@@ -1788,8 +1788,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1871,26 +1871,26 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-8400</v>
       </c>
       <c r="E23" s="3">
         <v>500</v>
       </c>
       <c r="F23" s="3">
-        <v>-14300</v>
+        <v>-14800</v>
       </c>
       <c r="G23" s="3">
-        <v>-12900</v>
+        <v>-13400</v>
       </c>
       <c r="H23" s="3">
-        <v>-12300</v>
+        <v>-12800</v>
       </c>
       <c r="I23" s="3">
-        <v>-15100</v>
+        <v>-15600</v>
       </c>
       <c r="J23" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="K23" s="3">
         <v>-8800</v>
@@ -2120,26 +2120,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-8400</v>
       </c>
       <c r="E26" s="3">
         <v>500</v>
       </c>
       <c r="F26" s="3">
-        <v>-14300</v>
+        <v>-14800</v>
       </c>
       <c r="G26" s="3">
-        <v>-12900</v>
+        <v>-13400</v>
       </c>
       <c r="H26" s="3">
-        <v>-12300</v>
+        <v>-12800</v>
       </c>
       <c r="I26" s="3">
-        <v>-15100</v>
+        <v>-15600</v>
       </c>
       <c r="J26" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="K26" s="3">
         <v>-8800</v>
@@ -2203,26 +2203,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-8400</v>
       </c>
       <c r="E27" s="3">
         <v>500</v>
       </c>
       <c r="F27" s="3">
-        <v>-14300</v>
+        <v>-14800</v>
       </c>
       <c r="G27" s="3">
-        <v>-12900</v>
+        <v>-13400</v>
       </c>
       <c r="H27" s="3">
-        <v>-12300</v>
+        <v>-12800</v>
       </c>
       <c r="I27" s="3">
-        <v>-15100</v>
+        <v>-15600</v>
       </c>
       <c r="J27" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="K27" s="3">
         <v>-8800</v>
@@ -2622,13 +2622,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="F32" s="3">
         <v>-900</v>
       </c>
       <c r="G32" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H32" s="3">
         <v>-700</v>
@@ -2637,7 +2637,7 @@
         <v>800</v>
       </c>
       <c r="J32" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="K32" s="3">
         <v>700</v>
@@ -2701,26 +2701,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-8400</v>
       </c>
       <c r="E33" s="3">
         <v>500</v>
       </c>
       <c r="F33" s="3">
-        <v>-14300</v>
+        <v>-14800</v>
       </c>
       <c r="G33" s="3">
-        <v>-12900</v>
+        <v>-13400</v>
       </c>
       <c r="H33" s="3">
-        <v>-12300</v>
+        <v>-12800</v>
       </c>
       <c r="I33" s="3">
-        <v>-15100</v>
+        <v>-15600</v>
       </c>
       <c r="J33" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="K33" s="3">
         <v>-8800</v>
@@ -2867,26 +2867,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-8400</v>
       </c>
       <c r="E35" s="3">
         <v>500</v>
       </c>
       <c r="F35" s="3">
-        <v>-14300</v>
+        <v>-14800</v>
       </c>
       <c r="G35" s="3">
-        <v>-12900</v>
+        <v>-13400</v>
       </c>
       <c r="H35" s="3">
-        <v>-12300</v>
+        <v>-12800</v>
       </c>
       <c r="I35" s="3">
-        <v>-15100</v>
+        <v>-15600</v>
       </c>
       <c r="J35" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="K35" s="3">
         <v>-8800</v>
@@ -3101,25 +3101,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18400</v>
+        <v>19000</v>
       </c>
       <c r="E41" s="3">
-        <v>15700</v>
+        <v>16300</v>
       </c>
       <c r="F41" s="3">
-        <v>32700</v>
+        <v>33900</v>
       </c>
       <c r="G41" s="3">
-        <v>13900</v>
+        <v>14500</v>
       </c>
       <c r="H41" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="I41" s="3">
-        <v>11100</v>
+        <v>11500</v>
       </c>
       <c r="J41" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="K41" s="3">
         <v>1500</v>
@@ -3184,25 +3184,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>83300</v>
+        <v>86300</v>
       </c>
       <c r="E42" s="3">
-        <v>86800</v>
+        <v>90000</v>
       </c>
       <c r="F42" s="3">
-        <v>59200</v>
+        <v>61400</v>
       </c>
       <c r="G42" s="3">
-        <v>71200</v>
+        <v>73800</v>
       </c>
       <c r="H42" s="3">
-        <v>83900</v>
+        <v>87000</v>
       </c>
       <c r="I42" s="3">
-        <v>118700</v>
+        <v>123000</v>
       </c>
       <c r="J42" s="3">
-        <v>132300</v>
+        <v>137100</v>
       </c>
       <c r="K42" s="3">
         <v>79400</v>
@@ -3267,19 +3267,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1600</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1500</v>
       </c>
       <c r="F43" s="3">
         <v>1200</v>
       </c>
       <c r="G43" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H43" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I43" s="3">
         <v>900</v>
@@ -3433,25 +3433,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="E45" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="F45" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="G45" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="H45" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="I45" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="J45" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="K45" s="3">
         <v>3700</v>
@@ -3516,25 +3516,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>111000</v>
+        <v>115000</v>
       </c>
       <c r="E46" s="3">
-        <v>114500</v>
+        <v>118600</v>
       </c>
       <c r="F46" s="3">
-        <v>105900</v>
+        <v>109700</v>
       </c>
       <c r="G46" s="3">
-        <v>97700</v>
+        <v>101200</v>
       </c>
       <c r="H46" s="3">
-        <v>102300</v>
+        <v>106100</v>
       </c>
       <c r="I46" s="3">
-        <v>134900</v>
+        <v>139900</v>
       </c>
       <c r="J46" s="3">
-        <v>148500</v>
+        <v>153900</v>
       </c>
       <c r="K46" s="3">
         <v>86100</v>
@@ -3599,19 +3599,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F47" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="G47" s="3">
-        <v>27800</v>
+        <v>28800</v>
       </c>
       <c r="H47" s="3">
-        <v>27300</v>
+        <v>28300</v>
       </c>
       <c r="I47" s="3">
         <v>300</v>
@@ -3688,13 +3688,13 @@
         <v>1800</v>
       </c>
       <c r="F48" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G48" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H48" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I48" s="3">
         <v>2000</v>
@@ -4017,16 +4017,16 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -4180,25 +4180,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>113400</v>
+        <v>117600</v>
       </c>
       <c r="E54" s="3">
-        <v>117000</v>
+        <v>121300</v>
       </c>
       <c r="F54" s="3">
-        <v>117500</v>
+        <v>121800</v>
       </c>
       <c r="G54" s="3">
-        <v>127700</v>
+        <v>132400</v>
       </c>
       <c r="H54" s="3">
-        <v>132100</v>
+        <v>136900</v>
       </c>
       <c r="I54" s="3">
-        <v>137800</v>
+        <v>142900</v>
       </c>
       <c r="J54" s="3">
-        <v>150300</v>
+        <v>155800</v>
       </c>
       <c r="K54" s="3">
         <v>88000</v>
@@ -4325,25 +4325,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="E57" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="F57" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="G57" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="H57" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="I57" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="J57" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="K57" s="3">
         <v>8200</v>
@@ -4426,7 +4426,7 @@
         <v>400</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
@@ -4491,16 +4491,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E59" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F59" s="3">
-        <v>9300</v>
+        <v>9600</v>
       </c>
       <c r="G59" s="3">
-        <v>10000</v>
+        <v>10400</v>
       </c>
       <c r="H59" s="3">
         <v>1100</v>
@@ -4574,25 +4574,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10800</v>
+        <v>11200</v>
       </c>
       <c r="E60" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="F60" s="3">
-        <v>19300</v>
+        <v>20000</v>
       </c>
       <c r="G60" s="3">
-        <v>19100</v>
+        <v>19800</v>
       </c>
       <c r="H60" s="3">
-        <v>13200</v>
+        <v>13700</v>
       </c>
       <c r="I60" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="J60" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="K60" s="3">
         <v>10100</v>
@@ -4657,22 +4657,22 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1100</v>
-      </c>
       <c r="H61" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I61" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -5072,25 +5072,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11900</v>
+        <v>12400</v>
       </c>
       <c r="E66" s="3">
-        <v>12800</v>
+        <v>13200</v>
       </c>
       <c r="F66" s="3">
-        <v>20400</v>
+        <v>21100</v>
       </c>
       <c r="G66" s="3">
-        <v>20300</v>
+        <v>21000</v>
       </c>
       <c r="H66" s="3">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="I66" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="J66" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="K66" s="3">
         <v>10300</v>
@@ -5518,25 +5518,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-210800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-203400</v>
       </c>
-      <c r="E72" s="3">
-        <v>-196300</v>
-      </c>
       <c r="F72" s="3">
-        <v>-198900</v>
+        <v>-206200</v>
       </c>
       <c r="G72" s="3">
-        <v>-187200</v>
+        <v>-194000</v>
       </c>
       <c r="H72" s="3">
-        <v>-174800</v>
+        <v>-181200</v>
       </c>
       <c r="I72" s="3">
-        <v>-163600</v>
+        <v>-169600</v>
       </c>
       <c r="J72" s="3">
-        <v>-149500</v>
+        <v>-155000</v>
       </c>
       <c r="K72" s="3">
         <v>-141700</v>
@@ -5850,25 +5850,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>101500</v>
+        <v>105200</v>
       </c>
       <c r="E76" s="3">
-        <v>104300</v>
+        <v>108100</v>
       </c>
       <c r="F76" s="3">
-        <v>97100</v>
+        <v>100600</v>
       </c>
       <c r="G76" s="3">
-        <v>107500</v>
+        <v>111400</v>
       </c>
       <c r="H76" s="3">
-        <v>117600</v>
+        <v>121900</v>
       </c>
       <c r="I76" s="3">
-        <v>126200</v>
+        <v>130800</v>
       </c>
       <c r="J76" s="3">
-        <v>141700</v>
+        <v>146900</v>
       </c>
       <c r="K76" s="3">
         <v>77700</v>
@@ -6103,26 +6103,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-8400</v>
       </c>
       <c r="E81" s="3">
         <v>500</v>
       </c>
       <c r="F81" s="3">
-        <v>-14300</v>
+        <v>-14800</v>
       </c>
       <c r="G81" s="3">
-        <v>-12900</v>
+        <v>-13400</v>
       </c>
       <c r="H81" s="3">
-        <v>-12300</v>
+        <v>-12800</v>
       </c>
       <c r="I81" s="3">
-        <v>-15100</v>
+        <v>-15600</v>
       </c>
       <c r="J81" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="K81" s="3">
         <v>-8800</v>
@@ -6716,25 +6716,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3200</v>
+        <v>-3400</v>
       </c>
       <c r="E89" s="3">
-        <v>-12800</v>
+        <v>-13200</v>
       </c>
       <c r="F89" s="3">
-        <v>-13100</v>
+        <v>-13600</v>
       </c>
       <c r="G89" s="3">
-        <v>-12000</v>
+        <v>-12400</v>
       </c>
       <c r="H89" s="3">
-        <v>-10200</v>
+        <v>-10500</v>
       </c>
       <c r="I89" s="3">
-        <v>-8000</v>
+        <v>-8300</v>
       </c>
       <c r="J89" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="K89" s="3">
         <v>-9700</v>
@@ -7079,22 +7079,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E94" s="3">
-        <v>-14200</v>
+        <v>-14700</v>
       </c>
       <c r="F94" s="3">
-        <v>27000</v>
+        <v>28000</v>
       </c>
       <c r="G94" s="3">
-        <v>-34400</v>
+        <v>-35600</v>
       </c>
       <c r="H94" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="I94" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J94" s="3">
         <v>-1100</v>
@@ -7543,7 +7543,7 @@
         <v>-100</v>
       </c>
       <c r="J100" s="3">
-        <v>63100</v>
+        <v>65400</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
@@ -7608,7 +7608,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E101" s="3">
         <v>1900</v>
@@ -7617,16 +7617,16 @@
         <v>300</v>
       </c>
       <c r="G101" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H101" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I101" s="3">
         <v>-1500</v>
       </c>
       <c r="J101" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K101" s="3">
         <v>-1200</v>
@@ -7690,26 +7690,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>2700</v>
       </c>
       <c r="E102" s="3">
-        <v>-25200</v>
+        <v>-26100</v>
       </c>
       <c r="F102" s="3">
-        <v>14100</v>
+        <v>14600</v>
       </c>
       <c r="G102" s="3">
-        <v>-44600</v>
+        <v>-46300</v>
       </c>
       <c r="H102" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="I102" s="3">
-        <v>-6500</v>
+        <v>-6700</v>
       </c>
       <c r="J102" s="3">
-        <v>53900</v>
+        <v>55800</v>
       </c>
       <c r="K102" s="3">
         <v>-18800</v>

--- a/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>IFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,130 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -863,8 +870,14 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,91 +1085,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>11300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K12" s="3">
+        <v>12000</v>
+      </c>
+      <c r="L12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>5800</v>
+      </c>
+      <c r="N12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O12" s="3">
         <v>8000</v>
       </c>
-      <c r="E12" s="3">
-        <v>11800</v>
-      </c>
-      <c r="F12" s="3">
-        <v>11100</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="P12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>12800</v>
+      </c>
+      <c r="R12" s="3">
+        <v>16400</v>
+      </c>
+      <c r="S12" s="3">
+        <v>23800</v>
+      </c>
+      <c r="T12" s="3">
+        <v>9200</v>
+      </c>
+      <c r="U12" s="3">
         <v>10700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>9900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>12000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>5200</v>
-      </c>
-      <c r="K12" s="3">
-        <v>5800</v>
-      </c>
-      <c r="L12" s="3">
-        <v>5400</v>
-      </c>
-      <c r="M12" s="3">
-        <v>8000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>8000</v>
-      </c>
-      <c r="O12" s="3">
-        <v>12800</v>
-      </c>
-      <c r="P12" s="3">
-        <v>16400</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>23800</v>
-      </c>
-      <c r="R12" s="3">
-        <v>9200</v>
-      </c>
-      <c r="S12" s="3">
-        <v>10700</v>
-      </c>
-      <c r="T12" s="3">
-        <v>6000</v>
-      </c>
-      <c r="U12" s="3">
-        <v>5500</v>
       </c>
       <c r="V12" s="3">
         <v>6000</v>
       </c>
       <c r="W12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="X12" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Y12" s="3">
         <v>7100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>2900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>3500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>2800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>6200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>1200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,91 +1471,99 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9100</v>
+        <v>11400</v>
       </c>
       <c r="E17" s="3">
-        <v>1100</v>
+        <v>8300</v>
       </c>
       <c r="F17" s="3">
-        <v>15700</v>
+        <v>9300</v>
       </c>
       <c r="G17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H17" s="3">
+        <v>16000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J17" s="3">
         <v>13700</v>
       </c>
-      <c r="H17" s="3">
-        <v>13500</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>14800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>10500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>16200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>19300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>31900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>13100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>14800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>9300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>8900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>9200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>10600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>4300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>3500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>8100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,82 +1571,88 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1100</v>
+        <v>-8300</v>
       </c>
       <c r="F18" s="3">
-        <v>-15700</v>
+        <v>-9300</v>
       </c>
       <c r="G18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J18" s="3">
         <v>-13700</v>
       </c>
-      <c r="H18" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-14800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-8200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-6700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-10500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-10700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-16200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-31900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-13100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-14800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-9300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-8900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-9200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-10600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-8100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-1800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,82 +1693,88 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>700</v>
+      </c>
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>6300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-2600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1709,82 +1782,88 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
-        <v>-14600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-13200</v>
-      </c>
       <c r="H21" s="3">
-        <v>-12600</v>
+        <v>-14900</v>
       </c>
       <c r="I21" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-15500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-8700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-6900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-10800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-8800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-15700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-29000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-11600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-12100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-7400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-2700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-11300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-13100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-4500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1809,11 +1888,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1821,11 +1900,11 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1866,91 +1945,103 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8400</v>
+        <v>-11900</v>
       </c>
       <c r="E23" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="F23" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-13400</v>
-      </c>
       <c r="H23" s="3">
-        <v>-12800</v>
+        <v>-15100</v>
       </c>
       <c r="I23" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-8800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-7100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-10900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-9000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-15900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-29500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-11800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-12200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-7500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-11300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-13100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8400</v>
+        <v>-11900</v>
       </c>
       <c r="E26" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-13400</v>
-      </c>
       <c r="H26" s="3">
-        <v>-12800</v>
+        <v>-15100</v>
       </c>
       <c r="I26" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-15600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-8800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-7100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-10900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-9000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-15900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-29500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-11800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-12200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-7500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-11300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-13100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8400</v>
+        <v>-11900</v>
       </c>
       <c r="E27" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-13400</v>
-      </c>
       <c r="H27" s="3">
-        <v>-12800</v>
+        <v>-15100</v>
       </c>
       <c r="I27" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-15600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-8800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-7100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-10900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-9000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-15900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-29500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-11800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-12200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-7500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-11300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-13100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2622,165 +2761,177 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-6300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>2600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>1000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>2400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8400</v>
+        <v>-11900</v>
       </c>
       <c r="E33" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-13400</v>
-      </c>
       <c r="H33" s="3">
-        <v>-12800</v>
+        <v>-15100</v>
       </c>
       <c r="I33" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K33" s="3">
         <v>-15600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-8800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-7100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-10900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-9000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-15900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-29500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-11800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-12200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-7500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-11300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-13100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8400</v>
+        <v>-11900</v>
       </c>
       <c r="E35" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-13400</v>
-      </c>
       <c r="H35" s="3">
-        <v>-12800</v>
+        <v>-15100</v>
       </c>
       <c r="I35" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K35" s="3">
         <v>-15600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-8800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-7100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-10900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-9000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-15900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-29500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-11800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-12200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-7500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-11300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-13100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,151 +3266,159 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19000</v>
+        <v>2300</v>
       </c>
       <c r="E41" s="3">
-        <v>16300</v>
+        <v>17500</v>
       </c>
       <c r="F41" s="3">
-        <v>33900</v>
+        <v>19400</v>
       </c>
       <c r="G41" s="3">
-        <v>14500</v>
+        <v>16600</v>
       </c>
       <c r="H41" s="3">
-        <v>12400</v>
+        <v>34500</v>
       </c>
       <c r="I41" s="3">
+        <v>14700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K41" s="3">
         <v>11500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>46100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>5400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>63600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>7100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>26600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>62400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>171400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>126500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>138300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>24800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>28400</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>86300</v>
+        <v>71300</v>
       </c>
       <c r="E42" s="3">
-        <v>90000</v>
+        <v>70600</v>
       </c>
       <c r="F42" s="3">
-        <v>61400</v>
+        <v>87900</v>
       </c>
       <c r="G42" s="3">
-        <v>73800</v>
+        <v>91600</v>
       </c>
       <c r="H42" s="3">
-        <v>87000</v>
+        <v>62500</v>
       </c>
       <c r="I42" s="3">
+        <v>75100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>88500</v>
+      </c>
+      <c r="K42" s="3">
         <v>123000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>137100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>79400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>52900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>103200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>115900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>32500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>27700</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" s="3">
         <v>49300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>38900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>60000</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3249,11 +3428,11 @@
       <c r="Y42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB42" s="3">
         <v>0</v>
@@ -3261,41 +3440,47 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3308,11 +3493,11 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -3344,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,197 +3618,215 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8000</v>
+        <v>6400</v>
       </c>
       <c r="E45" s="3">
-        <v>10700</v>
+        <v>15300</v>
       </c>
       <c r="F45" s="3">
-        <v>13200</v>
+        <v>8200</v>
       </c>
       <c r="G45" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="H45" s="3">
-        <v>5700</v>
+        <v>13500</v>
       </c>
       <c r="I45" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K45" s="3">
         <v>4400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>3900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>3600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>100200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>136800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>104100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>126600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>121600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>1800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>9800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>1900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>1200</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>115000</v>
+        <v>82300</v>
       </c>
       <c r="E46" s="3">
-        <v>118600</v>
+        <v>104900</v>
       </c>
       <c r="F46" s="3">
-        <v>109700</v>
+        <v>117100</v>
       </c>
       <c r="G46" s="3">
-        <v>101200</v>
+        <v>120800</v>
       </c>
       <c r="H46" s="3">
-        <v>106100</v>
+        <v>111700</v>
       </c>
       <c r="I46" s="3">
+        <v>103000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>108000</v>
+      </c>
+      <c r="K46" s="3">
         <v>139900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>153900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>86100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>103000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>110800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>121200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>138900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>169900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>167700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>183000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>187100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>124200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>181200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>127300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>139100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>26700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>29600</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F47" s="3">
         <v>300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3">
-        <v>9800</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>29300</v>
+      </c>
+      <c r="J47" s="3">
         <v>28800</v>
-      </c>
-      <c r="H47" s="3">
-        <v>28300</v>
-      </c>
-      <c r="I47" s="3">
-        <v>300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>300</v>
       </c>
       <c r="K47" s="3">
         <v>300</v>
@@ -3644,31 +3853,31 @@
         <v>300</v>
       </c>
       <c r="S47" s="3">
+        <v>300</v>
+      </c>
+      <c r="T47" s="3">
+        <v>300</v>
+      </c>
+      <c r="U47" s="3">
         <v>200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>57400</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
         <v>100</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>4</v>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>4</v>
@@ -3676,99 +3885,111 @@
       <c r="AC47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E48" s="3">
         <v>1800</v>
       </c>
       <c r="F48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H48" s="3">
         <v>1700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>100</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -3777,7 +3998,7 @@
         <v>200</v>
       </c>
       <c r="H49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I49" s="3">
         <v>300</v>
@@ -3789,52 +4010,52 @@
         <v>300</v>
       </c>
       <c r="L49" s="3">
+        <v>300</v>
+      </c>
+      <c r="M49" s="3">
+        <v>300</v>
+      </c>
+      <c r="N49" s="3">
         <v>400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>500</v>
-      </c>
-      <c r="O49" s="3">
-        <v>500</v>
-      </c>
-      <c r="P49" s="3">
-        <v>600</v>
       </c>
       <c r="Q49" s="3">
         <v>500</v>
       </c>
       <c r="R49" s="3">
+        <v>600</v>
+      </c>
+      <c r="S49" s="3">
+        <v>500</v>
+      </c>
+      <c r="T49" s="3">
         <v>400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>300</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
         <v>100</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
       <c r="X49" s="3">
         <v>0</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>4</v>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>4</v>
@@ -3842,8 +4063,14 @@
       <c r="AC49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,16 +4241,22 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>400</v>
@@ -4041,37 +4280,37 @@
         <v>400</v>
       </c>
       <c r="M52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>500</v>
       </c>
       <c r="P52" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>500</v>
+      </c>
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
@@ -4079,11 +4318,11 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>0</v>
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
@@ -4091,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>117600</v>
+        <v>92900</v>
       </c>
       <c r="E54" s="3">
-        <v>121300</v>
+        <v>110300</v>
       </c>
       <c r="F54" s="3">
-        <v>121800</v>
+        <v>119700</v>
       </c>
       <c r="G54" s="3">
-        <v>132400</v>
+        <v>123400</v>
       </c>
       <c r="H54" s="3">
-        <v>136900</v>
+        <v>123900</v>
       </c>
       <c r="I54" s="3">
+        <v>134800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>139300</v>
+      </c>
+      <c r="K54" s="3">
         <v>142900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>155800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>88000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>105200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>113300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>123800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>141900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>173400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>170500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>185400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>188300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>182300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>181800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>127600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>139400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>26900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>29800</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4578,99 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G57" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K57" s="3">
+        <v>9400</v>
+      </c>
+      <c r="L57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="M57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="O57" s="3">
+        <v>11600</v>
+      </c>
+      <c r="P57" s="3">
+        <v>11400</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>14500</v>
+      </c>
+      <c r="R57" s="3">
+        <v>20300</v>
+      </c>
+      <c r="S57" s="3">
+        <v>14300</v>
+      </c>
+      <c r="T57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="U57" s="3">
         <v>7900</v>
       </c>
-      <c r="E57" s="3">
-        <v>8400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>10100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>12200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>9400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>7500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>8200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>10400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>11600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>11400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>14500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>20300</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>14300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>8400</v>
-      </c>
-      <c r="S57" s="3">
-        <v>7900</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>5000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>2800</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4429,46 +4696,46 @@
         <v>400</v>
       </c>
       <c r="K58" s="3">
+        <v>400</v>
+      </c>
+      <c r="L58" s="3">
+        <v>400</v>
+      </c>
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
-      </c>
-      <c r="M58" s="3">
-        <v>600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>600</v>
       </c>
       <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>600</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4485,200 +4752,218 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="E59" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
-        <v>9600</v>
-      </c>
-      <c r="G59" s="3">
-        <v>10400</v>
-      </c>
       <c r="H59" s="3">
-        <v>1100</v>
+        <v>9800</v>
       </c>
       <c r="I59" s="3">
+        <v>10600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1000</v>
       </c>
       <c r="M59" s="3">
         <v>1500</v>
       </c>
       <c r="N59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>5100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>200</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11200</v>
+        <v>7300</v>
       </c>
       <c r="E60" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>12200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>20400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>20200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="L60" s="3">
+        <v>8700</v>
+      </c>
+      <c r="M60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="N60" s="3">
         <v>11900</v>
       </c>
-      <c r="F60" s="3">
-        <v>20000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>19800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>13700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>10700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>8700</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
+        <v>13600</v>
+      </c>
+      <c r="P60" s="3">
+        <v>12800</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>16400</v>
+      </c>
+      <c r="R60" s="3">
+        <v>21700</v>
+      </c>
+      <c r="S60" s="3">
+        <v>15700</v>
+      </c>
+      <c r="T60" s="3">
         <v>10100</v>
       </c>
-      <c r="L60" s="3">
-        <v>11900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>13600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>12800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>16400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>21700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>15700</v>
-      </c>
-      <c r="R60" s="3">
-        <v>10100</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>9200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>6600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>4600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>5300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>3000</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>300</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
@@ -4687,26 +4972,26 @@
         <v>300</v>
       </c>
       <c r="N61" s="3">
+        <v>200</v>
+      </c>
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>600</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4717,54 +5002,60 @@
         <v>0</v>
       </c>
       <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>64400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>63500</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -4772,14 +5063,14 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>100</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
@@ -4794,10 +5085,10 @@
         <v>100</v>
       </c>
       <c r="V62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4805,11 +5096,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA62" s="3" t="s">
-        <v>4</v>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>4</v>
@@ -4817,8 +5108,14 @@
       <c r="AC62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12400</v>
+        <v>8300</v>
       </c>
       <c r="E66" s="3">
-        <v>13200</v>
+        <v>15100</v>
       </c>
       <c r="F66" s="3">
-        <v>21100</v>
+        <v>12600</v>
       </c>
       <c r="G66" s="3">
-        <v>21000</v>
+        <v>13500</v>
       </c>
       <c r="H66" s="3">
-        <v>15000</v>
+        <v>21500</v>
       </c>
       <c r="I66" s="3">
+        <v>21400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K66" s="3">
         <v>12100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>8900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>13900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>13100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>22500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>16500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>5400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>67500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>66500</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-210800</v>
+        <v>-233400</v>
       </c>
       <c r="E72" s="3">
-        <v>-203400</v>
+        <v>-222700</v>
       </c>
       <c r="F72" s="3">
-        <v>-206200</v>
+        <v>-214600</v>
       </c>
       <c r="G72" s="3">
-        <v>-194000</v>
+        <v>-207000</v>
       </c>
       <c r="H72" s="3">
-        <v>-181200</v>
+        <v>-209800</v>
       </c>
       <c r="I72" s="3">
+        <v>-197500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-184400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-169600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-155000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-141700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-138500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-137500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-127100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-127500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-118500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-98800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-84400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-74300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>172100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>174200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>119900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>130800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-40200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-36300</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>105200</v>
+        <v>84600</v>
       </c>
       <c r="E76" s="3">
-        <v>108100</v>
+        <v>95100</v>
       </c>
       <c r="F76" s="3">
-        <v>100600</v>
+        <v>107100</v>
       </c>
       <c r="G76" s="3">
-        <v>111400</v>
+        <v>110000</v>
       </c>
       <c r="H76" s="3">
-        <v>121900</v>
+        <v>102400</v>
       </c>
       <c r="I76" s="3">
+        <v>113400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>124100</v>
+      </c>
+      <c r="K76" s="3">
         <v>130800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>146900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>77700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>93100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>99400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>110800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>125100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>150900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>154000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>174600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>179100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>175600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>177600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>123000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>134000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-40600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-36700</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8400</v>
+        <v>-11900</v>
       </c>
       <c r="E81" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-13400</v>
-      </c>
       <c r="H81" s="3">
-        <v>-12800</v>
+        <v>-15100</v>
       </c>
       <c r="I81" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="K81" s="3">
         <v>-15600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-8800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-7100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-10900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-9000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-15900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-29500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-11800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-12200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-7500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-11300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-13100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-10500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6254,25 +6651,25 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
@@ -6292,11 +6689,17 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-      <c r="AC83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3400</v>
       </c>
-      <c r="E89" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-13600</v>
-      </c>
       <c r="G89" s="3">
-        <v>-12400</v>
+        <v>-13500</v>
       </c>
       <c r="H89" s="3">
-        <v>-10500</v>
+        <v>-13800</v>
       </c>
       <c r="I89" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-8300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-11000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-9700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-8900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-8400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-11500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-18900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-32000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-10200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-10000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-4500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-5900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-6300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-4200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6833,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -6854,61 +7295,67 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-200</v>
       </c>
       <c r="U91" s="3">
         <v>-300</v>
       </c>
       <c r="V91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="X91" s="3">
         <v>-100</v>
       </c>
       <c r="Y91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>5300</v>
+        <v>-3900</v>
       </c>
       <c r="E94" s="3">
-        <v>-14700</v>
+        <v>1900</v>
       </c>
       <c r="F94" s="3">
-        <v>28000</v>
+        <v>5400</v>
       </c>
       <c r="G94" s="3">
-        <v>-35600</v>
+        <v>-15000</v>
       </c>
       <c r="H94" s="3">
-        <v>6100</v>
+        <v>28500</v>
       </c>
       <c r="I94" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K94" s="3">
         <v>3200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-7800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>33100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>27100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>19800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>7100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-107500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-100</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
       </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,160 +8004,172 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>2400</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>65400</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
       </c>
       <c r="L100" s="3">
+        <v>65400</v>
+      </c>
+      <c r="M100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N100" s="3">
         <v>9300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>54000</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>120400</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>1800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>36200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>36300</v>
       </c>
-      <c r="AC100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F101" s="3">
         <v>900</v>
       </c>
-      <c r="E101" s="3">
-        <v>1900</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>1800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>5800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-2400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-2600</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
@@ -7682,90 +8179,102 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-      <c r="AC101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2700</v>
+        <v>-15300</v>
       </c>
       <c r="E102" s="3">
-        <v>-26100</v>
+        <v>-1800</v>
       </c>
       <c r="F102" s="3">
-        <v>14600</v>
+        <v>2800</v>
       </c>
       <c r="G102" s="3">
-        <v>-46300</v>
+        <v>-26600</v>
       </c>
       <c r="H102" s="3">
-        <v>-2500</v>
+        <v>14900</v>
       </c>
       <c r="I102" s="3">
+        <v>-47100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-6700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>55800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-18800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>32600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-8300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-13100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>7100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-11200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-9800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-110400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>44800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-8800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>113500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>30300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>34700</v>
       </c>
-      <c r="AC102" s="3" t="s">
+      <c r="AE102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>IFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>15900</v>
+        <v>11800</v>
       </c>
       <c r="E12" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F12" s="3">
         <v>9000</v>
       </c>
-      <c r="F12" s="3">
-        <v>8100</v>
-      </c>
       <c r="G12" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>12100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>11400</v>
+      </c>
+      <c r="J12" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K12" s="3">
+        <v>10100</v>
+      </c>
+      <c r="L12" s="3">
         <v>12000</v>
       </c>
-      <c r="H12" s="3">
-        <v>11300</v>
-      </c>
-      <c r="I12" s="3">
-        <v>10900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>10100</v>
-      </c>
-      <c r="K12" s="3">
-        <v>12000</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5400</v>
-      </c>
-      <c r="O12" s="3">
-        <v>8000</v>
       </c>
       <c r="P12" s="3">
         <v>8000</v>
       </c>
       <c r="Q12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="R12" s="3">
         <v>12800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>16400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>23800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>9200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>5500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>7100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>2900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>3500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>2800</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>6200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1200</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,97 +1499,101 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="E17" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F17" s="3">
         <v>8300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="H17" s="3">
-        <v>16000</v>
-      </c>
       <c r="I17" s="3">
-        <v>14000</v>
+        <v>16100</v>
       </c>
       <c r="J17" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K17" s="3">
         <v>13700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>10500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>16200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>19300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>31900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>13100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>14800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>8900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>9200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>10600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,88 +1601,91 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-8300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="H18" s="3">
-        <v>-16000</v>
-      </c>
       <c r="I18" s="3">
-        <v>-14000</v>
+        <v>-16100</v>
       </c>
       <c r="J18" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-13700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-16200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-19300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-31900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-14800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-9300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-8900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-10600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-8100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1800</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1693,88 +1727,91 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
-        <v>900</v>
-      </c>
       <c r="I20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-500</v>
       </c>
       <c r="O20" s="3">
         <v>-500</v>
       </c>
       <c r="P20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-900</v>
       </c>
       <c r="AA20" s="3">
         <v>-900</v>
       </c>
       <c r="AB20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-2400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-700</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,88 +1819,91 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-8400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
-        <v>-14900</v>
-      </c>
       <c r="I21" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="J21" s="3">
         <v>-13500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-12800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-10800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-15700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-17700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-29000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-12100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-13100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-4500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-4400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-10500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1894,8 +1934,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1906,8 +1946,8 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11900</v>
+        <v>-8900</v>
       </c>
       <c r="E23" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-8600</v>
       </c>
-      <c r="F23" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
-        <v>-15100</v>
-      </c>
       <c r="I23" s="3">
-        <v>-13600</v>
+        <v>-15200</v>
       </c>
       <c r="J23" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-13000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-10900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-15900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-17800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-29500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-13100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-4500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-10500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11900</v>
+        <v>-8900</v>
       </c>
       <c r="E26" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-8600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-15100</v>
-      </c>
       <c r="I26" s="3">
-        <v>-13600</v>
+        <v>-15200</v>
       </c>
       <c r="J26" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-13000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-10900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-17800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-29500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-12200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-13100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-4500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-10500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11900</v>
+        <v>-8900</v>
       </c>
       <c r="E27" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-8600</v>
       </c>
-      <c r="F27" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-15100</v>
-      </c>
       <c r="I27" s="3">
-        <v>-13600</v>
+        <v>-15200</v>
       </c>
       <c r="J27" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-13000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-10900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-17800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-29500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-12200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-13100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-4500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-10500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2761,177 +2831,183 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
-        <v>-900</v>
-      </c>
       <c r="I32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>500</v>
       </c>
       <c r="O32" s="3">
         <v>500</v>
       </c>
       <c r="P32" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2600</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>900</v>
       </c>
       <c r="AA32" s="3">
         <v>900</v>
       </c>
       <c r="AB32" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC32" s="3">
         <v>1000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>2400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>700</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11900</v>
+        <v>-8900</v>
       </c>
       <c r="E33" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-8600</v>
       </c>
-      <c r="F33" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-15100</v>
-      </c>
       <c r="I33" s="3">
-        <v>-13600</v>
+        <v>-15200</v>
       </c>
       <c r="J33" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-13000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-10900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-17800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-29500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-12200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-13100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-4500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-10500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11900</v>
+        <v>-8900</v>
       </c>
       <c r="E35" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-8600</v>
       </c>
-      <c r="F35" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-15100</v>
-      </c>
       <c r="I35" s="3">
-        <v>-13600</v>
+        <v>-15200</v>
       </c>
       <c r="J35" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-13000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-10900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-17800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-29500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-12200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-13100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-4500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-10500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,86 +3354,87 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E41" s="3">
         <v>2300</v>
       </c>
-      <c r="E41" s="3">
-        <v>17500</v>
-      </c>
       <c r="F41" s="3">
-        <v>19400</v>
+        <v>17600</v>
       </c>
       <c r="G41" s="3">
-        <v>16600</v>
+        <v>19500</v>
       </c>
       <c r="H41" s="3">
-        <v>34500</v>
+        <v>16700</v>
       </c>
       <c r="I41" s="3">
-        <v>14700</v>
+        <v>34700</v>
       </c>
       <c r="J41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="K41" s="3">
         <v>12600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>46100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>63600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>7100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>26600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>62400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>171400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>126500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>138300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>24800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>28400</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3357,71 +3444,74 @@
       <c r="AE41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>71300</v>
+        <v>104900</v>
       </c>
       <c r="E42" s="3">
-        <v>70600</v>
+        <v>71800</v>
       </c>
       <c r="F42" s="3">
-        <v>87900</v>
+        <v>71100</v>
       </c>
       <c r="G42" s="3">
-        <v>91600</v>
+        <v>88500</v>
       </c>
       <c r="H42" s="3">
-        <v>62500</v>
+        <v>92200</v>
       </c>
       <c r="I42" s="3">
-        <v>75100</v>
+        <v>62900</v>
       </c>
       <c r="J42" s="3">
+        <v>75600</v>
+      </c>
+      <c r="K42" s="3">
         <v>88500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>123000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>137100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>79400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>52900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>103200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>115900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>32500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>27700</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U42" s="3">
         <v>49300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>38900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>60000</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3434,8 +3524,8 @@
       <c r="AA42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB42" s="3">
-        <v>0</v>
+      <c r="AB42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC42" s="3">
         <v>0</v>
@@ -3446,43 +3536,46 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2300</v>
       </c>
-      <c r="E43" s="3">
-        <v>1500</v>
-      </c>
       <c r="F43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
-        <v>1200</v>
-      </c>
       <c r="I43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1400</v>
       </c>
       <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>1400</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -3499,8 +3592,8 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -3535,31 +3628,34 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -3624,86 +3720,89 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6400</v>
+        <v>6900</v>
       </c>
       <c r="E45" s="3">
-        <v>15300</v>
+        <v>6500</v>
       </c>
       <c r="F45" s="3">
+        <v>15400</v>
+      </c>
+      <c r="G45" s="3">
         <v>8200</v>
       </c>
-      <c r="G45" s="3">
-        <v>10900</v>
-      </c>
       <c r="H45" s="3">
-        <v>13500</v>
+        <v>11000</v>
       </c>
       <c r="I45" s="3">
-        <v>11800</v>
+        <v>13600</v>
       </c>
       <c r="J45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K45" s="3">
         <v>5800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>100200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>136800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>104100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>126600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>121600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>9800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1200</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3713,86 +3812,89 @@
       <c r="AE45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>82300</v>
+        <v>121700</v>
       </c>
       <c r="E46" s="3">
-        <v>104900</v>
+        <v>82800</v>
       </c>
       <c r="F46" s="3">
-        <v>117100</v>
+        <v>105600</v>
       </c>
       <c r="G46" s="3">
-        <v>120800</v>
+        <v>117900</v>
       </c>
       <c r="H46" s="3">
-        <v>111700</v>
+        <v>121600</v>
       </c>
       <c r="I46" s="3">
+        <v>112400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>103700</v>
+      </c>
+      <c r="K46" s="3">
+        <v>108000</v>
+      </c>
+      <c r="L46" s="3">
+        <v>139900</v>
+      </c>
+      <c r="M46" s="3">
+        <v>153900</v>
+      </c>
+      <c r="N46" s="3">
+        <v>86100</v>
+      </c>
+      <c r="O46" s="3">
         <v>103000</v>
       </c>
-      <c r="J46" s="3">
-        <v>108000</v>
-      </c>
-      <c r="K46" s="3">
-        <v>139900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>153900</v>
-      </c>
-      <c r="M46" s="3">
-        <v>86100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>103000</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>110800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>121200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>138900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>169900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>167700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>183000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>187100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>124200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>181200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>127300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>139100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>26700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>29600</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3802,34 +3904,37 @@
       <c r="AE46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E47" s="3">
         <v>8600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3100</v>
-      </c>
-      <c r="F47" s="3">
-        <v>300</v>
       </c>
       <c r="G47" s="3">
         <v>300</v>
       </c>
       <c r="H47" s="3">
-        <v>10000</v>
+        <v>300</v>
       </c>
       <c r="I47" s="3">
-        <v>29300</v>
+        <v>10100</v>
       </c>
       <c r="J47" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K47" s="3">
         <v>28800</v>
-      </c>
-      <c r="K47" s="3">
-        <v>300</v>
       </c>
       <c r="L47" s="3">
         <v>300</v>
@@ -3859,28 +3964,28 @@
         <v>300</v>
       </c>
       <c r="U47" s="3">
+        <v>300</v>
+      </c>
+      <c r="V47" s="3">
         <v>200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>57400</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
       <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
         <v>100</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
       <c r="Z47" s="3">
         <v>0</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>4</v>
+      <c r="AB47" s="3">
+        <v>0</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>4</v>
@@ -3891,86 +3996,89 @@
       <c r="AE47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1800</v>
       </c>
       <c r="F48" s="3">
         <v>1800</v>
       </c>
       <c r="G48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1600</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1900</v>
       </c>
       <c r="S48" s="3">
         <v>1900</v>
       </c>
       <c r="T48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U48" s="3">
         <v>1700</v>
-      </c>
-      <c r="U48" s="3">
-        <v>700</v>
       </c>
       <c r="V48" s="3">
         <v>700</v>
       </c>
       <c r="W48" s="3">
+        <v>700</v>
+      </c>
+      <c r="X48" s="3">
         <v>500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>300</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>200</v>
       </c>
       <c r="Z48" s="3">
         <v>200</v>
       </c>
       <c r="AA48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB48" s="3">
         <v>100</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4001,7 +4112,7 @@
         <v>200</v>
       </c>
       <c r="I49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J49" s="3">
         <v>300</v>
@@ -4016,38 +4127,38 @@
         <v>300</v>
       </c>
       <c r="N49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O49" s="3">
         <v>400</v>
       </c>
       <c r="P49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q49" s="3">
         <v>500</v>
       </c>
       <c r="R49" s="3">
+        <v>500</v>
+      </c>
+      <c r="S49" s="3">
         <v>600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>300</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
       <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
         <v>100</v>
       </c>
-      <c r="X49" s="3">
-        <v>0</v>
-      </c>
       <c r="Y49" s="3">
         <v>0</v>
       </c>
@@ -4057,8 +4168,8 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>4</v>
+      <c r="AB49" s="3">
+        <v>0</v>
       </c>
       <c r="AC49" s="3" t="s">
         <v>4</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4259,7 +4379,7 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -4286,7 +4406,7 @@
         <v>400</v>
       </c>
       <c r="O52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>500</v>
@@ -4295,25 +4415,25 @@
         <v>500</v>
       </c>
       <c r="R52" s="3">
+        <v>500</v>
+      </c>
+      <c r="S52" s="3">
         <v>600</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
@@ -4324,8 +4444,8 @@
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB52" s="3">
-        <v>0</v>
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,86 +4548,89 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>92900</v>
+        <v>144100</v>
       </c>
       <c r="E54" s="3">
-        <v>110300</v>
+        <v>93600</v>
       </c>
       <c r="F54" s="3">
-        <v>119700</v>
+        <v>111000</v>
       </c>
       <c r="G54" s="3">
-        <v>123400</v>
+        <v>120500</v>
       </c>
       <c r="H54" s="3">
-        <v>123900</v>
+        <v>124300</v>
       </c>
       <c r="I54" s="3">
-        <v>134800</v>
+        <v>124800</v>
       </c>
       <c r="J54" s="3">
+        <v>135700</v>
+      </c>
+      <c r="K54" s="3">
         <v>139300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>142900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>155800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>88000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>105200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>113300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>123800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>141900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>173400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>170500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>185400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>188300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>182300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>181800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>127600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>139400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>26900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>29800</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC54" s="3" t="s">
         <v>4</v>
       </c>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,85 +4710,86 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E57" s="3">
         <v>5000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5400</v>
       </c>
-      <c r="F57" s="3">
-        <v>8000</v>
-      </c>
       <c r="G57" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="H57" s="3">
-        <v>10200</v>
+        <v>8600</v>
       </c>
       <c r="I57" s="3">
-        <v>9200</v>
+        <v>10300</v>
       </c>
       <c r="J57" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K57" s="3">
         <v>12400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>10400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>14500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>20300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>14300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>8400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5000</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>2800</v>
       </c>
       <c r="AA57" s="3">
         <v>2800</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>4</v>
+      <c r="AB57" s="3">
+        <v>2800</v>
       </c>
       <c r="AC57" s="3" t="s">
         <v>4</v>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4702,13 +4836,13 @@
         <v>400</v>
       </c>
       <c r="M58" s="3">
+        <v>400</v>
+      </c>
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>600</v>
       </c>
       <c r="P58" s="3">
         <v>600</v>
@@ -4717,17 +4851,17 @@
         <v>600</v>
       </c>
       <c r="R58" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="S58" s="3">
         <v>400</v>
       </c>
       <c r="T58" s="3">
+        <v>400</v>
+      </c>
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4737,8 +4871,8 @@
       <c r="X58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4758,85 +4892,88 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
-        <v>3200</v>
-      </c>
       <c r="H59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I59" s="3">
         <v>9800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>300</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>200</v>
       </c>
       <c r="AA59" s="3">
         <v>200</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>4</v>
+      <c r="AB59" s="3">
+        <v>200</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>4</v>
@@ -4847,85 +4984,88 @@
       <c r="AE59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7300</v>
+        <v>8100</v>
       </c>
       <c r="E60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>20500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K60" s="3">
         <v>14000</v>
       </c>
-      <c r="F60" s="3">
-        <v>11400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>12200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>20400</v>
-      </c>
-      <c r="I60" s="3">
-        <v>20200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>14000</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>21700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>9200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5300</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>3000</v>
       </c>
       <c r="AA60" s="3">
         <v>3000</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>4</v>
+      <c r="AB60" s="3">
+        <v>3000</v>
       </c>
       <c r="AC60" s="3" t="s">
         <v>4</v>
@@ -4936,65 +5076,68 @@
       <c r="AE60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>900</v>
+      </c>
+      <c r="E61" s="3">
         <v>1000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>200</v>
-      </c>
-      <c r="O61" s="3">
-        <v>300</v>
       </c>
       <c r="P61" s="3">
         <v>300</v>
       </c>
       <c r="Q61" s="3">
+        <v>300</v>
+      </c>
+      <c r="R61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -5008,14 +5151,14 @@
         <v>0</v>
       </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>64400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>63500</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5039,14 +5185,14 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -5054,11 +5200,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -5069,11 +5215,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S62" s="3">
         <v>100</v>
@@ -5091,7 +5237,7 @@
         <v>100</v>
       </c>
       <c r="X62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -5102,8 +5248,8 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-      <c r="AB62" s="3" t="s">
-        <v>4</v>
+      <c r="AB62" s="3">
+        <v>0</v>
       </c>
       <c r="AC62" s="3" t="s">
         <v>4</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,86 +5536,89 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8300</v>
+        <v>9000</v>
       </c>
       <c r="E66" s="3">
-        <v>15100</v>
+        <v>8400</v>
       </c>
       <c r="F66" s="3">
-        <v>12600</v>
+        <v>15200</v>
       </c>
       <c r="G66" s="3">
-        <v>13500</v>
+        <v>12700</v>
       </c>
       <c r="H66" s="3">
+        <v>13600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>21600</v>
+      </c>
+      <c r="J66" s="3">
         <v>21500</v>
       </c>
-      <c r="I66" s="3">
-        <v>21400</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>67500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>66500</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC66" s="3" t="s">
         <v>4</v>
       </c>
@@ -5470,8 +5628,11 @@
       <c r="AE66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,86 +6030,89 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-233400</v>
+        <v>-242700</v>
       </c>
       <c r="E72" s="3">
-        <v>-222700</v>
+        <v>-234900</v>
       </c>
       <c r="F72" s="3">
-        <v>-214600</v>
+        <v>-224200</v>
       </c>
       <c r="G72" s="3">
-        <v>-207000</v>
+        <v>-216000</v>
       </c>
       <c r="H72" s="3">
-        <v>-209800</v>
+        <v>-208400</v>
       </c>
       <c r="I72" s="3">
-        <v>-197500</v>
+        <v>-211200</v>
       </c>
       <c r="J72" s="3">
+        <v>-198800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-184400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-169600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-155000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-141700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-138500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-137500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-127100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-127500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-118500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-98800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-84400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-74300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>172100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>174200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>119900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>130800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-40200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-36300</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5948,8 +6122,11 @@
       <c r="AE72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,86 +6398,89 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>84600</v>
+        <v>135100</v>
       </c>
       <c r="E76" s="3">
-        <v>95100</v>
+        <v>85200</v>
       </c>
       <c r="F76" s="3">
-        <v>107100</v>
+        <v>95800</v>
       </c>
       <c r="G76" s="3">
-        <v>110000</v>
+        <v>107800</v>
       </c>
       <c r="H76" s="3">
-        <v>102400</v>
+        <v>110700</v>
       </c>
       <c r="I76" s="3">
-        <v>113400</v>
+        <v>103100</v>
       </c>
       <c r="J76" s="3">
+        <v>114100</v>
+      </c>
+      <c r="K76" s="3">
         <v>124100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>130800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>146900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>77700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>93100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>99400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>110800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>125100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>150900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>154000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>174600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>179100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>175600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>177600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>123000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>134000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-40600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-36700</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC76" s="3" t="s">
         <v>4</v>
       </c>
@@ -6304,8 +6490,11 @@
       <c r="AE76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11900</v>
+        <v>-8900</v>
       </c>
       <c r="E81" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-8600</v>
       </c>
-      <c r="F81" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-15100</v>
-      </c>
       <c r="I81" s="3">
-        <v>-13600</v>
+        <v>-15200</v>
       </c>
       <c r="J81" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-13000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-10900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-17800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-29500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-12200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-13100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-4600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-5200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-4500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-10500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6657,13 +6856,13 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>500</v>
-      </c>
-      <c r="T83" s="3">
-        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
@@ -6672,7 +6871,7 @@
         <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -6695,11 +6894,14 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-      <c r="AE83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11300</v>
+        <v>-12100</v>
       </c>
       <c r="E89" s="3">
-        <v>-5600</v>
+        <v>-11400</v>
       </c>
       <c r="F89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="G89" s="3">
         <v>-3400</v>
       </c>
-      <c r="G89" s="3">
-        <v>-13500</v>
-      </c>
       <c r="H89" s="3">
-        <v>-13800</v>
+        <v>-13600</v>
       </c>
       <c r="I89" s="3">
-        <v>-12600</v>
+        <v>-13900</v>
       </c>
       <c r="J89" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-10700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-18900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-32000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-10200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-10000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-5900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-5900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AE89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7274,11 +7495,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -7301,11 +7522,11 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -7313,25 +7534,25 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-900</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-300</v>
       </c>
       <c r="U91" s="3">
         <v>-300</v>
       </c>
       <c r="V91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-100</v>
       </c>
       <c r="Y91" s="3">
         <v>-100</v>
@@ -7340,22 +7561,25 @@
         <v>-100</v>
       </c>
       <c r="AA91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-100</v>
       </c>
-      <c r="AD91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,73 +7759,76 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3900</v>
       </c>
-      <c r="E94" s="3">
-        <v>1900</v>
-      </c>
       <c r="F94" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G94" s="3">
         <v>5400</v>
       </c>
-      <c r="G94" s="3">
-        <v>-15000</v>
-      </c>
       <c r="H94" s="3">
-        <v>28500</v>
+        <v>-15100</v>
       </c>
       <c r="I94" s="3">
-        <v>-36300</v>
+        <v>28700</v>
       </c>
       <c r="J94" s="3">
+        <v>-36500</v>
+      </c>
+      <c r="K94" s="3">
         <v>6200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>33100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>27100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>19800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>7100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-107500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-100</v>
       </c>
       <c r="Y94" s="3">
         <v>-100</v>
@@ -7607,22 +7837,25 @@
         <v>-100</v>
       </c>
       <c r="AA94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-100</v>
       </c>
-      <c r="AD94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,19 +8253,22 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>57600</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>2400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
@@ -8031,148 +8277,151 @@
         <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
       </c>
       <c r="L100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M100" s="3">
         <v>65400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>9300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-100</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>54000</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>120400</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>1800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>36200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>36300</v>
       </c>
-      <c r="AE100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="M101" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S101" s="3">
+        <v>800</v>
+      </c>
+      <c r="T101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U101" s="3">
+        <v>700</v>
+      </c>
+      <c r="V101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>2600</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P101" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="R101" s="3">
-        <v>800</v>
-      </c>
-      <c r="S101" s="3">
-        <v>1200</v>
-      </c>
-      <c r="T101" s="3">
-        <v>700</v>
-      </c>
-      <c r="U101" s="3">
-        <v>1800</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2600</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
         <v>0</v>
       </c>
@@ -8185,96 +8434,102 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-      <c r="AE101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15300</v>
+        <v>18900</v>
       </c>
       <c r="E102" s="3">
-        <v>-1800</v>
+        <v>-15400</v>
       </c>
       <c r="F102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G102" s="3">
         <v>2800</v>
       </c>
-      <c r="G102" s="3">
-        <v>-26600</v>
-      </c>
       <c r="H102" s="3">
-        <v>14900</v>
+        <v>-26800</v>
       </c>
       <c r="I102" s="3">
-        <v>-47100</v>
+        <v>15000</v>
       </c>
       <c r="J102" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>55800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>32600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-23100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-11200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-110400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>44800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-8800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>113500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-3600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>30300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>34700</v>
       </c>
-      <c r="AE102" s="3" t="s">
+      <c r="AF102" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/IFRX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>IFRX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AF102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,161 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -883,13 +887,16 @@
       <c r="AF8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>300</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -975,13 +982,16 @@
       <c r="AF9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>-200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -1067,8 +1077,11 @@
       <c r="AF10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1101,100 +1114,104 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E12" s="3">
         <v>11800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>9000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>8200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>11400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>5200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>5800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5400</v>
-      </c>
-      <c r="P12" s="3">
-        <v>8000</v>
       </c>
       <c r="Q12" s="3">
         <v>8000</v>
       </c>
       <c r="R12" s="3">
+        <v>8000</v>
+      </c>
+      <c r="S12" s="3">
         <v>12800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>16400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>23800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>9200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>6000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>7100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>2900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>3500</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>2800</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>6200</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>1200</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AG12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1285,8 +1302,11 @@
       <c r="AF13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1377,8 +1397,11 @@
       <c r="AF14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1469,8 +1492,11 @@
       <c r="AF15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1500,192 +1526,199 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-    </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>10700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11500</v>
       </c>
-      <c r="F17" s="3">
-        <v>8300</v>
-      </c>
       <c r="G17" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H17" s="3">
         <v>9300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>14100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>16200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>19300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>31900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>13100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>14800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>9200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>10600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8100</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1800</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AG17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
-        <v>-11500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="V18" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="X18" s="3">
         <v>-9300</v>
       </c>
-      <c r="H18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-14100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-13700</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-10500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-16200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-19300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-31900</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-14800</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-8900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-10600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-4300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-8100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-1800</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AG18" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1718,197 +1751,204 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-    </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
+        <v>400</v>
+      </c>
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>700</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-500</v>
       </c>
       <c r="P20" s="3">
         <v>-500</v>
       </c>
       <c r="Q20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>6300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2600</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-900</v>
       </c>
       <c r="AB20" s="3">
         <v>-900</v>
       </c>
       <c r="AC20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-2400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-700</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AG20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-11800</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-15000</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-13500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-12800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-8800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-15700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-17700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-29000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-12100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-7400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-13100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-4500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-5200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-4400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-10500</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-2500</v>
       </c>
-      <c r="AF21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1937,8 +1977,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1949,8 +1989,8 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1994,100 +2034,106 @@
       <c r="AF22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-15900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-29500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-12200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-13100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-5200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-4500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-10500</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-2500</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AG23" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2178,8 +2224,11 @@
       <c r="AF24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2270,192 +2319,201 @@
       <c r="AF25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-13700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-13000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-9000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-17800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-29500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-12200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-13100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-5200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-4500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-10500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-2500</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AG26" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-13700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-13000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-9000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-17800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-29500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-12200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-13100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-5200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-4500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-10500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-2500</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AG27" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2546,8 +2604,11 @@
       <c r="AF28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2638,8 +2699,11 @@
       <c r="AF29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2730,8 +2794,11 @@
       <c r="AF30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2822,192 +2889,201 @@
       <c r="AF31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>300</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>500</v>
       </c>
       <c r="P32" s="3">
         <v>500</v>
       </c>
       <c r="Q32" s="3">
+        <v>500</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2600</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>900</v>
       </c>
       <c r="AB32" s="3">
         <v>900</v>
       </c>
       <c r="AC32" s="3">
+        <v>900</v>
+      </c>
+      <c r="AD32" s="3">
         <v>1000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>2400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>700</v>
       </c>
-      <c r="AF32" s="3">
+      <c r="AG32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-13700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-13000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-17800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-29500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-12200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-13100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-5200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-4500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-10500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-2500</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AG33" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3098,197 +3174,206 @@
       <c r="AF34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-13700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-13000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-17800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-29500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-12200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-13100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-5200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-4500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-10500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-2500</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AG35" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AG38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3321,8 +3406,9 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3355,89 +3441,90 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E41" s="3">
         <v>6100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16700</v>
       </c>
-      <c r="I41" s="3">
-        <v>34700</v>
-      </c>
       <c r="J41" s="3">
+        <v>34800</v>
+      </c>
+      <c r="K41" s="3">
         <v>14800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>46100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>63600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>7100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>26600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>62400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>171400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>126500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>138300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>24800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>28400</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3447,74 +3534,77 @@
       <c r="AF41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100900</v>
+      </c>
+      <c r="E42" s="3">
         <v>104900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>71800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>71100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>88500</v>
       </c>
-      <c r="H42" s="3">
-        <v>92200</v>
-      </c>
       <c r="I42" s="3">
+        <v>92300</v>
+      </c>
+      <c r="J42" s="3">
         <v>62900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>75600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>88500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>123000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>137100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>79400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>52900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>103200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>115900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>32500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>27700</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V42" s="3">
         <v>49300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>38900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>60000</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3527,8 +3617,8 @@
       <c r="AB42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC42" s="3">
-        <v>0</v>
+      <c r="AC42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD42" s="3">
         <v>0</v>
@@ -3539,46 +3629,49 @@
       <c r="AF42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>3200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1400</v>
       </c>
       <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>1400</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -3595,8 +3688,8 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -3631,17 +3724,20 @@
       <c r="AF43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3657,8 +3753,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -3723,89 +3819,92 @@
       <c r="AF44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G45" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K45" s="3">
+        <v>11900</v>
+      </c>
+      <c r="L45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="M45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N45" s="3">
         <v>6900</v>
       </c>
-      <c r="E45" s="3">
-        <v>6500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>15400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>11000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>13600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>11900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>5800</v>
-      </c>
-      <c r="L45" s="3">
-        <v>4400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>6900</v>
-      </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>3900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>100200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>136800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>104100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>126600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>121600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>9800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>1200</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3815,89 +3914,92 @@
       <c r="AF45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>138400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>121800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>82900</v>
+      </c>
+      <c r="G46" s="3">
+        <v>105700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>118000</v>
+      </c>
+      <c r="I46" s="3">
         <v>121700</v>
       </c>
-      <c r="E46" s="3">
-        <v>82800</v>
-      </c>
-      <c r="F46" s="3">
-        <v>105600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>117900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>121600</v>
-      </c>
-      <c r="I46" s="3">
-        <v>112400</v>
-      </c>
       <c r="J46" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K46" s="3">
         <v>103700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>108000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>139900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>153900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>86100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>103000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>110800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>121200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>138900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>169900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>167700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>183000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>187100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>124200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>181200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>127300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>139100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>26700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>29600</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3907,37 +4009,40 @@
       <c r="AF46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>20500</v>
+        <v>300</v>
       </c>
       <c r="E47" s="3">
+        <v>20600</v>
+      </c>
+      <c r="F47" s="3">
         <v>8600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3100</v>
-      </c>
-      <c r="G47" s="3">
-        <v>300</v>
       </c>
       <c r="H47" s="3">
         <v>300</v>
       </c>
       <c r="I47" s="3">
+        <v>300</v>
+      </c>
+      <c r="J47" s="3">
         <v>10100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>29500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>28800</v>
-      </c>
-      <c r="L47" s="3">
-        <v>300</v>
       </c>
       <c r="M47" s="3">
         <v>300</v>
@@ -3967,28 +4072,28 @@
         <v>300</v>
       </c>
       <c r="V47" s="3">
+        <v>300</v>
+      </c>
+      <c r="W47" s="3">
         <v>200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>57400</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
       <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
         <v>100</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
-      </c>
       <c r="AA47" s="3">
         <v>0</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>4</v>
+      <c r="AC47" s="3">
+        <v>0</v>
       </c>
       <c r="AD47" s="3" t="s">
         <v>4</v>
@@ -3999,8 +4104,11 @@
       <c r="AF47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -4008,80 +4116,80 @@
         <v>1500</v>
       </c>
       <c r="E48" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G48" s="3">
         <v>1800</v>
       </c>
       <c r="H48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1600</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1900</v>
       </c>
       <c r="T48" s="3">
         <v>1900</v>
       </c>
       <c r="U48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V48" s="3">
         <v>1700</v>
-      </c>
-      <c r="V48" s="3">
-        <v>700</v>
       </c>
       <c r="W48" s="3">
         <v>700</v>
       </c>
       <c r="X48" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y48" s="3">
         <v>500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>300</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>200</v>
       </c>
       <c r="AA48" s="3">
         <v>200</v>
       </c>
       <c r="AB48" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC48" s="3">
         <v>100</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD48" s="3" t="s">
         <v>4</v>
       </c>
@@ -4091,8 +4199,11 @@
       <c r="AF48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4103,7 +4214,7 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -4115,7 +4226,7 @@
         <v>200</v>
       </c>
       <c r="J49" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K49" s="3">
         <v>300</v>
@@ -4130,38 +4241,38 @@
         <v>300</v>
       </c>
       <c r="O49" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P49" s="3">
         <v>400</v>
       </c>
       <c r="Q49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R49" s="3">
         <v>500</v>
       </c>
       <c r="S49" s="3">
+        <v>500</v>
+      </c>
+      <c r="T49" s="3">
         <v>600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>300</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
       <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
         <v>100</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
-      </c>
       <c r="Z49" s="3">
         <v>0</v>
       </c>
@@ -4171,8 +4282,8 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-      <c r="AC49" s="3" t="s">
-        <v>4</v>
+      <c r="AC49" s="3">
+        <v>0</v>
       </c>
       <c r="AD49" s="3" t="s">
         <v>4</v>
@@ -4183,8 +4294,11 @@
       <c r="AF49" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4275,8 +4389,11 @@
       <c r="AF50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4367,8 +4484,11 @@
       <c r="AF51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4382,7 +4502,7 @@
         <v>300</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -4409,7 +4529,7 @@
         <v>400</v>
       </c>
       <c r="P52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q52" s="3">
         <v>500</v>
@@ -4418,25 +4538,25 @@
         <v>500</v>
       </c>
       <c r="S52" s="3">
+        <v>500</v>
+      </c>
+      <c r="T52" s="3">
         <v>600</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>4</v>
@@ -4447,8 +4567,8 @@
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC52" s="3">
-        <v>0</v>
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD52" s="3">
         <v>0</v>
@@ -4459,8 +4579,11 @@
       <c r="AF52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4551,89 +4674,92 @@
       <c r="AF53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>144100</v>
+        <v>140500</v>
       </c>
       <c r="E54" s="3">
+        <v>144300</v>
+      </c>
+      <c r="F54" s="3">
         <v>93600</v>
       </c>
-      <c r="F54" s="3">
-        <v>111000</v>
-      </c>
       <c r="G54" s="3">
-        <v>120500</v>
+        <v>111100</v>
       </c>
       <c r="H54" s="3">
-        <v>124300</v>
+        <v>120600</v>
       </c>
       <c r="I54" s="3">
-        <v>124800</v>
+        <v>124400</v>
       </c>
       <c r="J54" s="3">
+        <v>124900</v>
+      </c>
+      <c r="K54" s="3">
         <v>135700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>139300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>142900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>155800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>88000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>105200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>113300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>123800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>141900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>173400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>170500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>185400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>188300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>182300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>181800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>127600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>139400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>26900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>29800</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD54" s="3" t="s">
         <v>4</v>
       </c>
@@ -4643,8 +4769,11 @@
       <c r="AF54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4677,8 +4806,9 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
-    </row>
-    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4711,88 +4841,89 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
-    </row>
-    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E57" s="3">
         <v>5600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>9400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>10400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>14500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>20300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>14300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5000</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>2800</v>
       </c>
       <c r="AB57" s="3">
         <v>2800</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>4</v>
+      <c r="AC57" s="3">
+        <v>2800</v>
       </c>
       <c r="AD57" s="3" t="s">
         <v>4</v>
@@ -4803,8 +4934,11 @@
       <c r="AF57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4839,13 +4973,13 @@
         <v>400</v>
       </c>
       <c r="N58" s="3">
+        <v>400</v>
+      </c>
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
@@ -4854,17 +4988,17 @@
         <v>600</v>
       </c>
       <c r="S58" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="T58" s="3">
         <v>400</v>
       </c>
       <c r="U58" s="3">
+        <v>400</v>
+      </c>
+      <c r="V58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4874,8 +5008,8 @@
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4895,88 +5029,91 @@
       <c r="AF58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>300</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>200</v>
       </c>
       <c r="AB59" s="3">
         <v>200</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>4</v>
+      <c r="AC59" s="3">
+        <v>200</v>
       </c>
       <c r="AD59" s="3" t="s">
         <v>4</v>
@@ -4987,88 +5124,91 @@
       <c r="AF59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E60" s="3">
         <v>8100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14100</v>
       </c>
-      <c r="G60" s="3">
-        <v>11400</v>
-      </c>
       <c r="H60" s="3">
-        <v>12200</v>
+        <v>11500</v>
       </c>
       <c r="I60" s="3">
-        <v>20500</v>
+        <v>12300</v>
       </c>
       <c r="J60" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K60" s="3">
         <v>20300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>21700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>9200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5300</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>3000</v>
       </c>
       <c r="AB60" s="3">
         <v>3000</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>4</v>
+      <c r="AC60" s="3">
+        <v>3000</v>
       </c>
       <c r="AD60" s="3" t="s">
         <v>4</v>
@@ -5079,8 +5219,11 @@
       <c r="AF60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5088,59 +5231,59 @@
         <v>900</v>
       </c>
       <c r="E61" s="3">
+        <v>900</v>
+      </c>
+      <c r="F61" s="3">
         <v>1000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>200</v>
-      </c>
-      <c r="P61" s="3">
-        <v>300</v>
       </c>
       <c r="Q61" s="3">
         <v>300</v>
       </c>
       <c r="R61" s="3">
+        <v>300</v>
+      </c>
+      <c r="S61" s="3">
         <v>400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>600</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -5154,14 +5297,14 @@
         <v>0</v>
       </c>
       <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
         <v>64400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>63500</v>
       </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
       <c r="AD61" s="3">
         <v>0</v>
       </c>
@@ -5171,8 +5314,11 @@
       <c r="AF61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5188,14 +5334,14 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -5203,11 +5349,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
@@ -5218,11 +5364,11 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
@@ -5240,7 +5386,7 @@
         <v>100</v>
       </c>
       <c r="Y62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -5251,8 +5397,8 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-      <c r="AC62" s="3" t="s">
-        <v>4</v>
+      <c r="AC62" s="3">
+        <v>0</v>
       </c>
       <c r="AD62" s="3" t="s">
         <v>4</v>
@@ -5263,8 +5409,11 @@
       <c r="AF62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5355,8 +5504,11 @@
       <c r="AF63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5447,8 +5599,11 @@
       <c r="AF64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5539,89 +5694,92 @@
       <c r="AF65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E66" s="3">
         <v>9000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13600</v>
       </c>
-      <c r="I66" s="3">
-        <v>21600</v>
-      </c>
       <c r="J66" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K66" s="3">
         <v>21500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>12100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>13100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>67500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>66500</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD66" s="3" t="s">
         <v>4</v>
       </c>
@@ -5631,8 +5789,11 @@
       <c r="AF66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5665,8 +5826,9 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-    </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5757,8 +5919,11 @@
       <c r="AF68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5849,8 +6014,11 @@
       <c r="AF69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5941,8 +6109,11 @@
       <c r="AF70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -6033,89 +6204,92 @@
       <c r="AF71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-242700</v>
+        <v>-250200</v>
       </c>
       <c r="E72" s="3">
-        <v>-234900</v>
+        <v>-242900</v>
       </c>
       <c r="F72" s="3">
-        <v>-224200</v>
+        <v>-235100</v>
       </c>
       <c r="G72" s="3">
-        <v>-216000</v>
+        <v>-224400</v>
       </c>
       <c r="H72" s="3">
-        <v>-208400</v>
+        <v>-216200</v>
       </c>
       <c r="I72" s="3">
-        <v>-211200</v>
+        <v>-208600</v>
       </c>
       <c r="J72" s="3">
+        <v>-211400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-198800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-184400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-169600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-155000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-141700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-138500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-137500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-127100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-127500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-118500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-98800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-84400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-74300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>172100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>174200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>119900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>130800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-40200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-36300</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD72" s="3" t="s">
         <v>4</v>
       </c>
@@ -6125,8 +6299,11 @@
       <c r="AF72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6217,8 +6394,11 @@
       <c r="AF73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6309,8 +6489,11 @@
       <c r="AF74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6401,89 +6584,92 @@
       <c r="AF75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>135100</v>
+        <v>128000</v>
       </c>
       <c r="E76" s="3">
-        <v>85200</v>
+        <v>135200</v>
       </c>
       <c r="F76" s="3">
-        <v>95800</v>
+        <v>85300</v>
       </c>
       <c r="G76" s="3">
-        <v>107800</v>
+        <v>95900</v>
       </c>
       <c r="H76" s="3">
-        <v>110700</v>
+        <v>107900</v>
       </c>
       <c r="I76" s="3">
-        <v>103100</v>
+        <v>110800</v>
       </c>
       <c r="J76" s="3">
+        <v>103200</v>
+      </c>
+      <c r="K76" s="3">
         <v>114100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>124100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>130800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>146900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>77700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>93100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>99400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>110800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>125100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>150900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>154000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>174600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>179100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>175600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>177600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>123000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>134000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-40600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-36700</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD76" s="3" t="s">
         <v>4</v>
       </c>
@@ -6493,8 +6679,11 @@
       <c r="AF76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6585,197 +6774,206 @@
       <c r="AF77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
-      <c r="AF80" s="2">
+      <c r="AG80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-13700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-13000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-17800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-29500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-12200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-13100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-4600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-5200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-4500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-10500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-2500</v>
       </c>
-      <c r="AF81" s="3">
+      <c r="AG81" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6808,8 +7006,9 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
-    </row>
-    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6859,13 +7058,13 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>500</v>
-      </c>
-      <c r="U83" s="3">
-        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
@@ -6874,7 +7073,7 @@
         <v>100</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
@@ -6897,11 +7096,14 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-      <c r="AF83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6992,8 +7194,11 @@
       <c r="AF84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -7084,8 +7289,11 @@
       <c r="AF85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -7176,8 +7384,11 @@
       <c r="AF86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7268,8 +7479,11 @@
       <c r="AF87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7360,100 +7574,106 @@
       <c r="AF88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-12100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-13600</v>
       </c>
-      <c r="I89" s="3">
-        <v>-13900</v>
-      </c>
       <c r="J89" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-12700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-10700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-18900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-32000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-10200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-10000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-4200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-3200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-5900</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AF89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7486,8 +7706,9 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
-    </row>
-    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7498,11 +7719,11 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
@@ -7525,11 +7746,11 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -7537,25 +7758,25 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-900</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-300</v>
       </c>
       <c r="V91" s="3">
         <v>-300</v>
       </c>
       <c r="W91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-100</v>
       </c>
       <c r="Z91" s="3">
         <v>-100</v>
@@ -7564,22 +7785,25 @@
         <v>-100</v>
       </c>
       <c r="AB91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC91" s="3">
         <v>0</v>
       </c>
       <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-100</v>
       </c>
-      <c r="AE91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7670,8 +7894,11 @@
       <c r="AF92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7762,76 +7989,79 @@
       <c r="AF93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>28700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-36500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>3200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>33100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-3000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>27100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>19800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>7100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-107500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-9100</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-100</v>
       </c>
       <c r="Z94" s="3">
         <v>-100</v>
@@ -7840,22 +8070,25 @@
         <v>-100</v>
       </c>
       <c r="AB94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC94" s="3">
         <v>0</v>
       </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-100</v>
       </c>
-      <c r="AE94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7888,8 +8121,9 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
-    </row>
-    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7980,8 +8214,11 @@
       <c r="AF96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -8072,8 +8309,11 @@
       <c r="AF97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -8164,8 +8404,11 @@
       <c r="AF98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8256,22 +8499,25 @@
       <c r="AF99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>57600</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>57700</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
@@ -8280,151 +8526,154 @@
         <v>-100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>-100</v>
       </c>
       <c r="M100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N100" s="3">
         <v>65400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>9300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-100</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>54000</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>120400</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>1800</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>36200</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>36300</v>
       </c>
-      <c r="AF100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>1800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-2400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2600</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
       <c r="AB101" s="3">
         <v>0</v>
       </c>
@@ -8437,99 +8686,105 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-      <c r="AF101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
         <v>18900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-26800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>15000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-47400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>55800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>32600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-23100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-11200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-9800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-110400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>44800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-8800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>113500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>30300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>34700</v>
       </c>
-      <c r="AF102" s="3" t="s">
+      <c r="AG102" s="3" t="s">
         <v>4</v>
       </c>
     </row>
